--- a/Group Nine Gantt.xlsx
+++ b/Group Nine Gantt.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{19ACA758-D7B1-4F98-AB87-3986D6EA366C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{97EFA1E7-6B4F-451B-8789-8BCB460BAF28}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="8_{19ACA758-D7B1-4F98-AB87-3986D6EA366C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B3E21243-04BD-4858-BC49-18387EA735F7}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="13096" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="56">
   <si>
     <t>About This Template</t>
   </si>
@@ -206,9 +206,6 @@
     <t>Functions</t>
   </si>
   <si>
-    <t>Home Page</t>
-  </si>
-  <si>
     <t>Alan</t>
   </si>
   <si>
@@ -216,6 +213,18 @@
   </si>
   <si>
     <t>Graphic Design</t>
+  </si>
+  <si>
+    <t>Use Case Chart</t>
+  </si>
+  <si>
+    <t>ERD</t>
+  </si>
+  <si>
+    <t>Aaron</t>
+  </si>
+  <si>
+    <t>Contact Page</t>
   </si>
 </sst>
 </file>
@@ -795,15 +804,132 @@
     <cellStyle name="Title" xfId="5" builtinId="15" customBuiltin="1"/>
     <cellStyle name="zHiddenText" xfId="3" xr:uid="{26E66EE6-E33F-4D77-BAE4-0FB4F5BBF673}"/>
   </cellStyles>
-  <dxfs count="29">
+  <dxfs count="35">
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="2" tint="-9.9948118533890809E-2"/>
+        </left>
+        <right style="thin">
+          <color theme="2" tint="-9.9948118533890809E-2"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="7" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="7" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="6"/>
+        </left>
+        <right style="thin">
+          <color theme="6"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <fill>
@@ -912,6 +1038,23 @@
         <bottom style="thin">
           <color theme="0"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1071,21 +1214,13 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border>
@@ -1232,20 +1367,20 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="Gantt Table Style" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Gantt Table Style" pivot="0" count="3" xr9:uid="{4904D139-63E4-4221-B7C9-C6C5B7A50FAF}">
-      <tableStyleElement type="wholeTable" dxfId="28"/>
-      <tableStyleElement type="headerRow" dxfId="27"/>
-      <tableStyleElement type="firstRowStripe" dxfId="26"/>
+      <tableStyleElement type="wholeTable" dxfId="34"/>
+      <tableStyleElement type="headerRow" dxfId="33"/>
+      <tableStyleElement type="firstRowStripe" dxfId="32"/>
     </tableStyle>
     <tableStyle name="ToDoList" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="25"/>
-      <tableStyleElement type="headerRow" dxfId="24"/>
-      <tableStyleElement type="totalRow" dxfId="23"/>
-      <tableStyleElement type="firstColumn" dxfId="22"/>
-      <tableStyleElement type="lastColumn" dxfId="21"/>
-      <tableStyleElement type="firstRowStripe" dxfId="20"/>
-      <tableStyleElement type="secondRowStripe" dxfId="19"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="18"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="17"/>
+      <tableStyleElement type="wholeTable" dxfId="31"/>
+      <tableStyleElement type="headerRow" dxfId="30"/>
+      <tableStyleElement type="totalRow" dxfId="29"/>
+      <tableStyleElement type="firstColumn" dxfId="28"/>
+      <tableStyleElement type="lastColumn" dxfId="27"/>
+      <tableStyleElement type="firstRowStripe" dxfId="26"/>
+      <tableStyleElement type="secondRowStripe" dxfId="25"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="24"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="23"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1408,9 +1543,9 @@
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{EE48C34E-B98C-4BBA-90C8-388E8655DD6D}" name="Milestone Description" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{B8ACC97F-C189-49BA-91CF-CB5671185BCF}" name="Category" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{5419FA1B-A035-4F0A-9257-1AA4BCB5E6CF}" name="Assigned To" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{EE48C34E-B98C-4BBA-90C8-388E8655DD6D}" name="Milestone Description" dataDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{B8ACC97F-C189-49BA-91CF-CB5671185BCF}" name="Category" dataDxfId="21"/>
+    <tableColumn id="3" xr3:uid="{5419FA1B-A035-4F0A-9257-1AA4BCB5E6CF}" name="Assigned To" dataDxfId="20"/>
     <tableColumn id="4" xr3:uid="{A60A6524-18F0-48B7-BB3C-2F4A35799FF7}" name="Progress"/>
     <tableColumn id="5" xr3:uid="{59612C1F-9AAB-483B-A6A5-3563E9D77941}" name="Start" dataCellStyle="Date"/>
     <tableColumn id="6" xr3:uid="{012C59F1-49D4-4A67-B8DD-855C6581FD6A}" name="No. Days" dataCellStyle="Comma [0]"/>
@@ -1692,8 +1827,8 @@
   </sheetPr>
   <dimension ref="A1:BL36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A3" zoomScale="47" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A7" zoomScale="47" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1715,7 +1850,7 @@
         <v>26</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C1" s="17"/>
       <c r="D1" s="1"/>
@@ -2775,8 +2910,7 @@
         <v>1</v>
       </c>
       <c r="F10" s="32">
-        <f ca="1">TODAY()</f>
-        <v>43970</v>
+        <v>43962</v>
       </c>
       <c r="G10" s="33">
         <v>12</v>
@@ -3251,12 +3385,24 @@
     </row>
     <row r="12" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="14"/>
-      <c r="B12" s="41"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="33"/>
+      <c r="B12" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="31">
+        <v>1</v>
+      </c>
+      <c r="F12" s="32">
+        <v>43972</v>
+      </c>
+      <c r="G12" s="33">
+        <v>1</v>
+      </c>
       <c r="H12" s="26"/>
       <c r="I12" s="38" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -3485,14 +3631,22 @@
     </row>
     <row r="13" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="14"/>
-      <c r="B13" s="42" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="34"/>
+      <c r="B13" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="34" t="s">
+        <v>12</v>
+      </c>
       <c r="D13" s="34"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="33"/>
+      <c r="E13" s="31">
+        <v>0</v>
+      </c>
+      <c r="F13" s="32">
+        <v>43962</v>
+      </c>
+      <c r="G13" s="33">
+        <v>18</v>
+      </c>
       <c r="H13" s="26"/>
       <c r="I13" s="38" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -3683,7 +3837,7 @@
         <v/>
       </c>
       <c r="BD13" s="38" t="str">
-        <f t="shared" ref="BD13:BL18" ca="1" si="13">IF(AND($C13="Goal",BD$5&gt;=$F13,BD$5&lt;=$F13+$G13-1),2,IF(AND($C13="Milestone",BD$5&gt;=$F13,BD$5&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" ref="BD13:BD18" ca="1" si="13">IF(AND($C13="Goal",BD$5&gt;=$F13,BD$5&lt;=$F13+$G13-1),2,IF(AND($C13="Milestone",BD$5&gt;=$F13,BD$5&lt;=$F13+$G13-1),1,""))</f>
         <v/>
       </c>
       <c r="BE13" s="38" t="str">
@@ -3721,87 +3875,75 @@
     </row>
     <row r="14" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="14"/>
-      <c r="B14" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="E14" s="31">
-        <v>0</v>
-      </c>
-      <c r="F14" s="32">
-        <v>43962</v>
-      </c>
-      <c r="G14" s="33">
-        <v>13</v>
-      </c>
+      <c r="B14" s="42"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="33"/>
       <c r="H14" s="26"/>
       <c r="I14" s="38" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="J14" s="38" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="K14" s="38" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="L14" s="38" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="M14" s="38" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="N14" s="38" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="O14" s="38" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="P14" s="38" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="Q14" s="38" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="R14" s="38" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="S14" s="38" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="T14" s="38" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="U14" s="38" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="V14" s="38" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="W14" s="38" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="X14" s="38" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="Y14" s="38" t="str">
@@ -3967,87 +4109,77 @@
     </row>
     <row r="15" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="15"/>
-      <c r="B15" s="41" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="E15" s="31">
-        <v>0</v>
-      </c>
-      <c r="F15" s="32">
-        <v>43962</v>
-      </c>
-      <c r="G15" s="33">
-        <v>13</v>
-      </c>
+      <c r="B15" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="33"/>
       <c r="H15" s="26"/>
       <c r="I15" s="38" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="J15" s="38" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="K15" s="38" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="L15" s="38" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="M15" s="38" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="N15" s="38" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="O15" s="38" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="P15" s="38" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="Q15" s="38" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="R15" s="38" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="S15" s="38" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="T15" s="38" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="U15" s="38" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="V15" s="38" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="W15" s="38" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="X15" s="38" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="Y15" s="38" t="str">
@@ -4213,12 +4345,24 @@
     </row>
     <row r="16" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="15"/>
-      <c r="B16" s="41"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="33"/>
+      <c r="B16" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="31">
+        <v>0.75</v>
+      </c>
+      <c r="F16" s="32">
+        <v>43962</v>
+      </c>
+      <c r="G16" s="33">
+        <v>13</v>
+      </c>
       <c r="H16" s="26"/>
       <c r="I16" s="38" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -4447,12 +4591,24 @@
     </row>
     <row r="17" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="14"/>
-      <c r="B17" s="41"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="33"/>
+      <c r="B17" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="31">
+        <v>0.9</v>
+      </c>
+      <c r="F17" s="32">
+        <v>43962</v>
+      </c>
+      <c r="G17" s="33">
+        <v>13</v>
+      </c>
       <c r="H17" s="26"/>
       <c r="I17" s="38" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -4681,241 +4837,75 @@
     </row>
     <row r="18" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="14"/>
-      <c r="B18" s="41"/>
+      <c r="B18" s="42"/>
       <c r="C18" s="34"/>
       <c r="D18" s="34"/>
       <c r="E18" s="31"/>
       <c r="F18" s="32"/>
       <c r="G18" s="33"/>
       <c r="H18" s="26"/>
-      <c r="I18" s="38" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="J18" s="38" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="K18" s="38" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="L18" s="38" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="M18" s="38" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="N18" s="38" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="O18" s="38" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="P18" s="38" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="Q18" s="38" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="R18" s="38" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="S18" s="38" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="T18" s="38" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="U18" s="38" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="V18" s="38" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="W18" s="38" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="X18" s="38" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="Y18" s="38" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="Z18" s="38" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="AA18" s="38" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="AB18" s="38" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="AC18" s="38" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="AD18" s="38" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="AE18" s="38" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="AF18" s="38" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="AG18" s="38" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="AH18" s="38" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="AI18" s="38" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="AJ18" s="38" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="AK18" s="38" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="AL18" s="38" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="AM18" s="38" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="AN18" s="38" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="AO18" s="38" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="AP18" s="38" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="AQ18" s="38" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="AR18" s="38" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="AS18" s="38" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="AT18" s="38" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="AU18" s="38" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="AV18" s="38" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="AW18" s="38" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="AX18" s="38" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="AY18" s="38" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="AZ18" s="38" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="BA18" s="38" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="BB18" s="38" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="BC18" s="38" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="BD18" s="38" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="BE18" s="38" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="BF18" s="38" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="BG18" s="38" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="BH18" s="38" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="BI18" s="38" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="BJ18" s="38" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="BK18" s="38" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="BL18" s="38" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
+      <c r="I18" s="38"/>
+      <c r="J18" s="38"/>
+      <c r="K18" s="38"/>
+      <c r="L18" s="38"/>
+      <c r="M18" s="38"/>
+      <c r="N18" s="38"/>
+      <c r="O18" s="38"/>
+      <c r="P18" s="38"/>
+      <c r="Q18" s="38"/>
+      <c r="R18" s="38"/>
+      <c r="S18" s="38"/>
+      <c r="T18" s="38"/>
+      <c r="U18" s="38"/>
+      <c r="V18" s="38"/>
+      <c r="W18" s="38"/>
+      <c r="X18" s="38"/>
+      <c r="Y18" s="38"/>
+      <c r="Z18" s="38"/>
+      <c r="AA18" s="38"/>
+      <c r="AB18" s="38"/>
+      <c r="AC18" s="38"/>
+      <c r="AD18" s="38"/>
+      <c r="AE18" s="38"/>
+      <c r="AF18" s="38"/>
+      <c r="AG18" s="38"/>
+      <c r="AH18" s="38"/>
+      <c r="AI18" s="38"/>
+      <c r="AJ18" s="38"/>
+      <c r="AK18" s="38"/>
+      <c r="AL18" s="38"/>
+      <c r="AM18" s="38"/>
+      <c r="AN18" s="38"/>
+      <c r="AO18" s="38"/>
+      <c r="AP18" s="38"/>
+      <c r="AQ18" s="38"/>
+      <c r="AR18" s="38"/>
+      <c r="AS18" s="38"/>
+      <c r="AT18" s="38"/>
+      <c r="AU18" s="38"/>
+      <c r="AV18" s="38"/>
+      <c r="AW18" s="38"/>
+      <c r="AX18" s="38"/>
+      <c r="AY18" s="38"/>
+      <c r="AZ18" s="38"/>
+      <c r="BA18" s="38"/>
+      <c r="BB18" s="38"/>
+      <c r="BC18" s="38"/>
+      <c r="BD18" s="38"/>
+      <c r="BE18" s="38"/>
+      <c r="BF18" s="38"/>
+      <c r="BG18" s="38"/>
+      <c r="BH18" s="38"/>
+      <c r="BI18" s="38"/>
+      <c r="BJ18" s="38"/>
+      <c r="BK18" s="38"/>
+      <c r="BL18" s="38"/>
     </row>
     <row r="19" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="14"/>
-      <c r="B19" s="41"/>
+      <c r="B19" s="42" t="s">
+        <v>41</v>
+      </c>
       <c r="C19" s="34"/>
       <c r="D19" s="34"/>
       <c r="E19" s="31"/>
@@ -4923,3347 +4913,2683 @@
       <c r="G19" s="33"/>
       <c r="H19" s="26"/>
       <c r="I19" s="38" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f ca="1">IF(AND($C19="Goal",I$5&gt;=$F19,I$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",I$5&gt;=$F19,I$5&lt;=$F19+$G19-1),1,""))</f>
         <v/>
       </c>
       <c r="J19" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C19="Goal",J$5&gt;=$F19,J$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",J$5&gt;=$F19,J$5&lt;=$F19+$G19-1),1,""))</f>
         <v/>
       </c>
       <c r="K19" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C19="Goal",K$5&gt;=$F19,K$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",K$5&gt;=$F19,K$5&lt;=$F19+$G19-1),1,""))</f>
         <v/>
       </c>
       <c r="L19" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C19="Goal",L$5&gt;=$F19,L$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",L$5&gt;=$F19,L$5&lt;=$F19+$G19-1),1,""))</f>
         <v/>
       </c>
       <c r="M19" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C19="Goal",M$5&gt;=$F19,M$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",M$5&gt;=$F19,M$5&lt;=$F19+$G19-1),1,""))</f>
         <v/>
       </c>
       <c r="N19" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C19="Goal",N$5&gt;=$F19,N$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",N$5&gt;=$F19,N$5&lt;=$F19+$G19-1),1,""))</f>
         <v/>
       </c>
       <c r="O19" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C19="Goal",O$5&gt;=$F19,O$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",O$5&gt;=$F19,O$5&lt;=$F19+$G19-1),1,""))</f>
         <v/>
       </c>
       <c r="P19" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C19="Goal",P$5&gt;=$F19,P$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",P$5&gt;=$F19,P$5&lt;=$F19+$G19-1),1,""))</f>
         <v/>
       </c>
       <c r="Q19" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C19="Goal",Q$5&gt;=$F19,Q$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",Q$5&gt;=$F19,Q$5&lt;=$F19+$G19-1),1,""))</f>
         <v/>
       </c>
       <c r="R19" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C19="Goal",R$5&gt;=$F19,R$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",R$5&gt;=$F19,R$5&lt;=$F19+$G19-1),1,""))</f>
         <v/>
       </c>
       <c r="S19" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C19="Goal",S$5&gt;=$F19,S$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",S$5&gt;=$F19,S$5&lt;=$F19+$G19-1),1,""))</f>
         <v/>
       </c>
       <c r="T19" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C19="Goal",T$5&gt;=$F19,T$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",T$5&gt;=$F19,T$5&lt;=$F19+$G19-1),1,""))</f>
         <v/>
       </c>
       <c r="U19" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C19="Goal",U$5&gt;=$F19,U$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",U$5&gt;=$F19,U$5&lt;=$F19+$G19-1),1,""))</f>
         <v/>
       </c>
       <c r="V19" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C19="Goal",V$5&gt;=$F19,V$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",V$5&gt;=$F19,V$5&lt;=$F19+$G19-1),1,""))</f>
         <v/>
       </c>
       <c r="W19" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C19="Goal",W$5&gt;=$F19,W$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",W$5&gt;=$F19,W$5&lt;=$F19+$G19-1),1,""))</f>
         <v/>
       </c>
       <c r="X19" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C19="Goal",X$5&gt;=$F19,X$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",X$5&gt;=$F19,X$5&lt;=$F19+$G19-1),1,""))</f>
         <v/>
       </c>
       <c r="Y19" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C19="Goal",Y$5&gt;=$F19,Y$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",Y$5&gt;=$F19,Y$5&lt;=$F19+$G19-1),1,""))</f>
         <v/>
       </c>
       <c r="Z19" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C19="Goal",Z$5&gt;=$F19,Z$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",Z$5&gt;=$F19,Z$5&lt;=$F19+$G19-1),1,""))</f>
         <v/>
       </c>
       <c r="AA19" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C19="Goal",AA$5&gt;=$F19,AA$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AA$5&gt;=$F19,AA$5&lt;=$F19+$G19-1),1,""))</f>
         <v/>
       </c>
       <c r="AB19" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C19="Goal",AB$5&gt;=$F19,AB$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AB$5&gt;=$F19,AB$5&lt;=$F19+$G19-1),1,""))</f>
         <v/>
       </c>
       <c r="AC19" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C19="Goal",AC$5&gt;=$F19,AC$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AC$5&gt;=$F19,AC$5&lt;=$F19+$G19-1),1,""))</f>
         <v/>
       </c>
       <c r="AD19" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C19="Goal",AD$5&gt;=$F19,AD$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AD$5&gt;=$F19,AD$5&lt;=$F19+$G19-1),1,""))</f>
         <v/>
       </c>
       <c r="AE19" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C19="Goal",AE$5&gt;=$F19,AE$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AE$5&gt;=$F19,AE$5&lt;=$F19+$G19-1),1,""))</f>
         <v/>
       </c>
       <c r="AF19" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C19="Goal",AF$5&gt;=$F19,AF$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AF$5&gt;=$F19,AF$5&lt;=$F19+$G19-1),1,""))</f>
         <v/>
       </c>
       <c r="AG19" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C19="Goal",AG$5&gt;=$F19,AG$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AG$5&gt;=$F19,AG$5&lt;=$F19+$G19-1),1,""))</f>
         <v/>
       </c>
       <c r="AH19" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C19="Goal",AH$5&gt;=$F19,AH$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AH$5&gt;=$F19,AH$5&lt;=$F19+$G19-1),1,""))</f>
         <v/>
       </c>
       <c r="AI19" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C19="Goal",AI$5&gt;=$F19,AI$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AI$5&gt;=$F19,AI$5&lt;=$F19+$G19-1),1,""))</f>
         <v/>
       </c>
       <c r="AJ19" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C19="Goal",AJ$5&gt;=$F19,AJ$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AJ$5&gt;=$F19,AJ$5&lt;=$F19+$G19-1),1,""))</f>
         <v/>
       </c>
       <c r="AK19" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C19="Goal",AK$5&gt;=$F19,AK$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AK$5&gt;=$F19,AK$5&lt;=$F19+$G19-1),1,""))</f>
         <v/>
       </c>
       <c r="AL19" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C19="Goal",AL$5&gt;=$F19,AL$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AL$5&gt;=$F19,AL$5&lt;=$F19+$G19-1),1,""))</f>
         <v/>
       </c>
       <c r="AM19" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C19="Goal",AM$5&gt;=$F19,AM$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AM$5&gt;=$F19,AM$5&lt;=$F19+$G19-1),1,""))</f>
         <v/>
       </c>
       <c r="AN19" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C19="Goal",AN$5&gt;=$F19,AN$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AN$5&gt;=$F19,AN$5&lt;=$F19+$G19-1),1,""))</f>
         <v/>
       </c>
       <c r="AO19" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f ca="1">IF(AND($C19="Goal",AO$5&gt;=$F19,AO$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AO$5&gt;=$F19,AO$5&lt;=$F19+$G19-1),1,""))</f>
         <v/>
       </c>
       <c r="AP19" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f ca="1">IF(AND($C19="Goal",AP$5&gt;=$F19,AP$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AP$5&gt;=$F19,AP$5&lt;=$F19+$G19-1),1,""))</f>
         <v/>
       </c>
       <c r="AQ19" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f ca="1">IF(AND($C19="Goal",AQ$5&gt;=$F19,AQ$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AQ$5&gt;=$F19,AQ$5&lt;=$F19+$G19-1),1,""))</f>
         <v/>
       </c>
       <c r="AR19" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f ca="1">IF(AND($C19="Goal",AR$5&gt;=$F19,AR$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AR$5&gt;=$F19,AR$5&lt;=$F19+$G19-1),1,""))</f>
         <v/>
       </c>
       <c r="AS19" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f ca="1">IF(AND($C19="Goal",AS$5&gt;=$F19,AS$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AS$5&gt;=$F19,AS$5&lt;=$F19+$G19-1),1,""))</f>
         <v/>
       </c>
       <c r="AT19" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f ca="1">IF(AND($C19="Goal",AT$5&gt;=$F19,AT$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AT$5&gt;=$F19,AT$5&lt;=$F19+$G19-1),1,""))</f>
         <v/>
       </c>
       <c r="AU19" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f ca="1">IF(AND($C19="Goal",AU$5&gt;=$F19,AU$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AU$5&gt;=$F19,AU$5&lt;=$F19+$G19-1),1,""))</f>
         <v/>
       </c>
       <c r="AV19" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f ca="1">IF(AND($C19="Goal",AV$5&gt;=$F19,AV$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AV$5&gt;=$F19,AV$5&lt;=$F19+$G19-1),1,""))</f>
         <v/>
       </c>
       <c r="AW19" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f ca="1">IF(AND($C19="Goal",AW$5&gt;=$F19,AW$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AW$5&gt;=$F19,AW$5&lt;=$F19+$G19-1),1,""))</f>
         <v/>
       </c>
       <c r="AX19" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f ca="1">IF(AND($C19="Goal",AX$5&gt;=$F19,AX$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AX$5&gt;=$F19,AX$5&lt;=$F19+$G19-1),1,""))</f>
         <v/>
       </c>
       <c r="AY19" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f ca="1">IF(AND($C19="Goal",AY$5&gt;=$F19,AY$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AY$5&gt;=$F19,AY$5&lt;=$F19+$G19-1),1,""))</f>
         <v/>
       </c>
       <c r="AZ19" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f ca="1">IF(AND($C19="Goal",AZ$5&gt;=$F19,AZ$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AZ$5&gt;=$F19,AZ$5&lt;=$F19+$G19-1),1,""))</f>
         <v/>
       </c>
       <c r="BA19" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f ca="1">IF(AND($C19="Goal",BA$5&gt;=$F19,BA$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",BA$5&gt;=$F19,BA$5&lt;=$F19+$G19-1),1,""))</f>
         <v/>
       </c>
       <c r="BB19" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f ca="1">IF(AND($C19="Goal",BB$5&gt;=$F19,BB$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",BB$5&gt;=$F19,BB$5&lt;=$F19+$G19-1),1,""))</f>
         <v/>
       </c>
       <c r="BC19" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f ca="1">IF(AND($C19="Goal",BC$5&gt;=$F19,BC$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",BC$5&gt;=$F19,BC$5&lt;=$F19+$G19-1),1,""))</f>
         <v/>
       </c>
       <c r="BD19" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f ca="1">IF(AND($C19="Goal",BD$5&gt;=$F19,BD$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",BD$5&gt;=$F19,BD$5&lt;=$F19+$G19-1),1,""))</f>
         <v/>
       </c>
       <c r="BE19" s="38" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f ca="1">IF(AND($C19="Goal",BE$5&gt;=$F19,BE$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",BE$5&gt;=$F19,BE$5&lt;=$F19+$G19-1),1,""))</f>
         <v/>
       </c>
       <c r="BF19" s="38" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f ca="1">IF(AND($C19="Goal",BF$5&gt;=$F19,BF$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",BF$5&gt;=$F19,BF$5&lt;=$F19+$G19-1),1,""))</f>
         <v/>
       </c>
       <c r="BG19" s="38" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f ca="1">IF(AND($C19="Goal",BG$5&gt;=$F19,BG$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",BG$5&gt;=$F19,BG$5&lt;=$F19+$G19-1),1,""))</f>
         <v/>
       </c>
       <c r="BH19" s="38" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f ca="1">IF(AND($C19="Goal",BH$5&gt;=$F19,BH$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",BH$5&gt;=$F19,BH$5&lt;=$F19+$G19-1),1,""))</f>
         <v/>
       </c>
       <c r="BI19" s="38" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f ca="1">IF(AND($C19="Goal",BI$5&gt;=$F19,BI$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",BI$5&gt;=$F19,BI$5&lt;=$F19+$G19-1),1,""))</f>
         <v/>
       </c>
       <c r="BJ19" s="38" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f ca="1">IF(AND($C19="Goal",BJ$5&gt;=$F19,BJ$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",BJ$5&gt;=$F19,BJ$5&lt;=$F19+$G19-1),1,""))</f>
         <v/>
       </c>
       <c r="BK19" s="38" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f ca="1">IF(AND($C19="Goal",BK$5&gt;=$F19,BK$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",BK$5&gt;=$F19,BK$5&lt;=$F19+$G19-1),1,""))</f>
         <v/>
       </c>
       <c r="BL19" s="38" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f ca="1">IF(AND($C19="Goal",BL$5&gt;=$F19,BL$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",BL$5&gt;=$F19,BL$5&lt;=$F19+$G19-1),1,""))</f>
         <v/>
       </c>
     </row>
     <row r="20" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="14"/>
-      <c r="B20" s="41"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="33"/>
+      <c r="B20" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="31">
+        <v>1</v>
+      </c>
+      <c r="F20" s="32">
+        <v>43962</v>
+      </c>
+      <c r="G20" s="33">
+        <v>1</v>
+      </c>
       <c r="H20" s="26"/>
       <c r="I20" s="38" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f ca="1">IF(AND($C20="Goal",I$5&gt;=$F20,I$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",I$5&gt;=$F20,I$5&lt;=$F20+$G20-1),1,""))</f>
         <v/>
       </c>
       <c r="J20" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C20="Goal",J$5&gt;=$F20,J$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",J$5&gt;=$F20,J$5&lt;=$F20+$G20-1),1,""))</f>
         <v/>
       </c>
       <c r="K20" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C20="Goal",K$5&gt;=$F20,K$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",K$5&gt;=$F20,K$5&lt;=$F20+$G20-1),1,""))</f>
         <v/>
       </c>
       <c r="L20" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C20="Goal",L$5&gt;=$F20,L$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",L$5&gt;=$F20,L$5&lt;=$F20+$G20-1),1,""))</f>
         <v/>
       </c>
       <c r="M20" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C20="Goal",M$5&gt;=$F20,M$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",M$5&gt;=$F20,M$5&lt;=$F20+$G20-1),1,""))</f>
         <v/>
       </c>
       <c r="N20" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C20="Goal",N$5&gt;=$F20,N$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",N$5&gt;=$F20,N$5&lt;=$F20+$G20-1),1,""))</f>
         <v/>
       </c>
       <c r="O20" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C20="Goal",O$5&gt;=$F20,O$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",O$5&gt;=$F20,O$5&lt;=$F20+$G20-1),1,""))</f>
         <v/>
       </c>
       <c r="P20" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C20="Goal",P$5&gt;=$F20,P$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",P$5&gt;=$F20,P$5&lt;=$F20+$G20-1),1,""))</f>
         <v/>
       </c>
       <c r="Q20" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C20="Goal",Q$5&gt;=$F20,Q$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",Q$5&gt;=$F20,Q$5&lt;=$F20+$G20-1),1,""))</f>
         <v/>
       </c>
       <c r="R20" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C20="Goal",R$5&gt;=$F20,R$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",R$5&gt;=$F20,R$5&lt;=$F20+$G20-1),1,""))</f>
         <v/>
       </c>
       <c r="S20" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C20="Goal",S$5&gt;=$F20,S$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",S$5&gt;=$F20,S$5&lt;=$F20+$G20-1),1,""))</f>
         <v/>
       </c>
       <c r="T20" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C20="Goal",T$5&gt;=$F20,T$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",T$5&gt;=$F20,T$5&lt;=$F20+$G20-1),1,""))</f>
         <v/>
       </c>
       <c r="U20" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C20="Goal",U$5&gt;=$F20,U$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",U$5&gt;=$F20,U$5&lt;=$F20+$G20-1),1,""))</f>
         <v/>
       </c>
       <c r="V20" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C20="Goal",V$5&gt;=$F20,V$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",V$5&gt;=$F20,V$5&lt;=$F20+$G20-1),1,""))</f>
         <v/>
       </c>
       <c r="W20" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C20="Goal",W$5&gt;=$F20,W$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",W$5&gt;=$F20,W$5&lt;=$F20+$G20-1),1,""))</f>
         <v/>
       </c>
       <c r="X20" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C20="Goal",X$5&gt;=$F20,X$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",X$5&gt;=$F20,X$5&lt;=$F20+$G20-1),1,""))</f>
         <v/>
       </c>
       <c r="Y20" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C20="Goal",Y$5&gt;=$F20,Y$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",Y$5&gt;=$F20,Y$5&lt;=$F20+$G20-1),1,""))</f>
         <v/>
       </c>
       <c r="Z20" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C20="Goal",Z$5&gt;=$F20,Z$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",Z$5&gt;=$F20,Z$5&lt;=$F20+$G20-1),1,""))</f>
         <v/>
       </c>
       <c r="AA20" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C20="Goal",AA$5&gt;=$F20,AA$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AA$5&gt;=$F20,AA$5&lt;=$F20+$G20-1),1,""))</f>
         <v/>
       </c>
       <c r="AB20" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C20="Goal",AB$5&gt;=$F20,AB$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AB$5&gt;=$F20,AB$5&lt;=$F20+$G20-1),1,""))</f>
         <v/>
       </c>
       <c r="AC20" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C20="Goal",AC$5&gt;=$F20,AC$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AC$5&gt;=$F20,AC$5&lt;=$F20+$G20-1),1,""))</f>
         <v/>
       </c>
       <c r="AD20" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C20="Goal",AD$5&gt;=$F20,AD$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AD$5&gt;=$F20,AD$5&lt;=$F20+$G20-1),1,""))</f>
         <v/>
       </c>
       <c r="AE20" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C20="Goal",AE$5&gt;=$F20,AE$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AE$5&gt;=$F20,AE$5&lt;=$F20+$G20-1),1,""))</f>
         <v/>
       </c>
       <c r="AF20" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C20="Goal",AF$5&gt;=$F20,AF$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AF$5&gt;=$F20,AF$5&lt;=$F20+$G20-1),1,""))</f>
         <v/>
       </c>
       <c r="AG20" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C20="Goal",AG$5&gt;=$F20,AG$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AG$5&gt;=$F20,AG$5&lt;=$F20+$G20-1),1,""))</f>
         <v/>
       </c>
       <c r="AH20" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C20="Goal",AH$5&gt;=$F20,AH$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AH$5&gt;=$F20,AH$5&lt;=$F20+$G20-1),1,""))</f>
         <v/>
       </c>
       <c r="AI20" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C20="Goal",AI$5&gt;=$F20,AI$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AI$5&gt;=$F20,AI$5&lt;=$F20+$G20-1),1,""))</f>
         <v/>
       </c>
       <c r="AJ20" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C20="Goal",AJ$5&gt;=$F20,AJ$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AJ$5&gt;=$F20,AJ$5&lt;=$F20+$G20-1),1,""))</f>
         <v/>
       </c>
       <c r="AK20" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C20="Goal",AK$5&gt;=$F20,AK$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AK$5&gt;=$F20,AK$5&lt;=$F20+$G20-1),1,""))</f>
         <v/>
       </c>
       <c r="AL20" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C20="Goal",AL$5&gt;=$F20,AL$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AL$5&gt;=$F20,AL$5&lt;=$F20+$G20-1),1,""))</f>
         <v/>
       </c>
       <c r="AM20" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C20="Goal",AM$5&gt;=$F20,AM$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AM$5&gt;=$F20,AM$5&lt;=$F20+$G20-1),1,""))</f>
         <v/>
       </c>
       <c r="AN20" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C20="Goal",AN$5&gt;=$F20,AN$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AN$5&gt;=$F20,AN$5&lt;=$F20+$G20-1),1,""))</f>
         <v/>
       </c>
       <c r="AO20" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f ca="1">IF(AND($C20="Goal",AO$5&gt;=$F20,AO$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AO$5&gt;=$F20,AO$5&lt;=$F20+$G20-1),1,""))</f>
         <v/>
       </c>
       <c r="AP20" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f ca="1">IF(AND($C20="Goal",AP$5&gt;=$F20,AP$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AP$5&gt;=$F20,AP$5&lt;=$F20+$G20-1),1,""))</f>
         <v/>
       </c>
       <c r="AQ20" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f ca="1">IF(AND($C20="Goal",AQ$5&gt;=$F20,AQ$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AQ$5&gt;=$F20,AQ$5&lt;=$F20+$G20-1),1,""))</f>
         <v/>
       </c>
       <c r="AR20" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f ca="1">IF(AND($C20="Goal",AR$5&gt;=$F20,AR$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AR$5&gt;=$F20,AR$5&lt;=$F20+$G20-1),1,""))</f>
         <v/>
       </c>
       <c r="AS20" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f ca="1">IF(AND($C20="Goal",AS$5&gt;=$F20,AS$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AS$5&gt;=$F20,AS$5&lt;=$F20+$G20-1),1,""))</f>
         <v/>
       </c>
       <c r="AT20" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f ca="1">IF(AND($C20="Goal",AT$5&gt;=$F20,AT$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AT$5&gt;=$F20,AT$5&lt;=$F20+$G20-1),1,""))</f>
         <v/>
       </c>
       <c r="AU20" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f ca="1">IF(AND($C20="Goal",AU$5&gt;=$F20,AU$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AU$5&gt;=$F20,AU$5&lt;=$F20+$G20-1),1,""))</f>
         <v/>
       </c>
       <c r="AV20" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f ca="1">IF(AND($C20="Goal",AV$5&gt;=$F20,AV$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AV$5&gt;=$F20,AV$5&lt;=$F20+$G20-1),1,""))</f>
         <v/>
       </c>
       <c r="AW20" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f ca="1">IF(AND($C20="Goal",AW$5&gt;=$F20,AW$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AW$5&gt;=$F20,AW$5&lt;=$F20+$G20-1),1,""))</f>
         <v/>
       </c>
       <c r="AX20" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f ca="1">IF(AND($C20="Goal",AX$5&gt;=$F20,AX$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AX$5&gt;=$F20,AX$5&lt;=$F20+$G20-1),1,""))</f>
         <v/>
       </c>
       <c r="AY20" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f ca="1">IF(AND($C20="Goal",AY$5&gt;=$F20,AY$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AY$5&gt;=$F20,AY$5&lt;=$F20+$G20-1),1,""))</f>
         <v/>
       </c>
       <c r="AZ20" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f ca="1">IF(AND($C20="Goal",AZ$5&gt;=$F20,AZ$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AZ$5&gt;=$F20,AZ$5&lt;=$F20+$G20-1),1,""))</f>
         <v/>
       </c>
       <c r="BA20" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f ca="1">IF(AND($C20="Goal",BA$5&gt;=$F20,BA$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",BA$5&gt;=$F20,BA$5&lt;=$F20+$G20-1),1,""))</f>
         <v/>
       </c>
       <c r="BB20" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f ca="1">IF(AND($C20="Goal",BB$5&gt;=$F20,BB$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",BB$5&gt;=$F20,BB$5&lt;=$F20+$G20-1),1,""))</f>
         <v/>
       </c>
       <c r="BC20" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f ca="1">IF(AND($C20="Goal",BC$5&gt;=$F20,BC$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",BC$5&gt;=$F20,BC$5&lt;=$F20+$G20-1),1,""))</f>
         <v/>
       </c>
       <c r="BD20" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f ca="1">IF(AND($C20="Goal",BD$5&gt;=$F20,BD$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",BD$5&gt;=$F20,BD$5&lt;=$F20+$G20-1),1,""))</f>
         <v/>
       </c>
       <c r="BE20" s="38" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f ca="1">IF(AND($C20="Goal",BE$5&gt;=$F20,BE$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",BE$5&gt;=$F20,BE$5&lt;=$F20+$G20-1),1,""))</f>
         <v/>
       </c>
       <c r="BF20" s="38" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f ca="1">IF(AND($C20="Goal",BF$5&gt;=$F20,BF$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",BF$5&gt;=$F20,BF$5&lt;=$F20+$G20-1),1,""))</f>
         <v/>
       </c>
       <c r="BG20" s="38" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f ca="1">IF(AND($C20="Goal",BG$5&gt;=$F20,BG$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",BG$5&gt;=$F20,BG$5&lt;=$F20+$G20-1),1,""))</f>
         <v/>
       </c>
       <c r="BH20" s="38" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f ca="1">IF(AND($C20="Goal",BH$5&gt;=$F20,BH$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",BH$5&gt;=$F20,BH$5&lt;=$F20+$G20-1),1,""))</f>
         <v/>
       </c>
       <c r="BI20" s="38" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f ca="1">IF(AND($C20="Goal",BI$5&gt;=$F20,BI$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",BI$5&gt;=$F20,BI$5&lt;=$F20+$G20-1),1,""))</f>
         <v/>
       </c>
       <c r="BJ20" s="38" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f ca="1">IF(AND($C20="Goal",BJ$5&gt;=$F20,BJ$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",BJ$5&gt;=$F20,BJ$5&lt;=$F20+$G20-1),1,""))</f>
         <v/>
       </c>
       <c r="BK20" s="38" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f ca="1">IF(AND($C20="Goal",BK$5&gt;=$F20,BK$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",BK$5&gt;=$F20,BK$5&lt;=$F20+$G20-1),1,""))</f>
         <v/>
       </c>
       <c r="BL20" s="38" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f ca="1">IF(AND($C20="Goal",BL$5&gt;=$F20,BL$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",BL$5&gt;=$F20,BL$5&lt;=$F20+$G20-1),1,""))</f>
         <v/>
       </c>
     </row>
     <row r="21" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="14"/>
-      <c r="B21" s="42" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="33"/>
+      <c r="B21" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" s="31">
+        <v>1</v>
+      </c>
+      <c r="F21" s="32">
+        <v>43962</v>
+      </c>
+      <c r="G21" s="33">
+        <v>13</v>
+      </c>
       <c r="H21" s="26"/>
       <c r="I21" s="38" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f ca="1">IF(AND($C21="Goal",I$5&gt;=$F21,I$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",I$5&gt;=$F21,I$5&lt;=$F21+$G21-1),1,""))</f>
         <v/>
       </c>
       <c r="J21" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C21="Goal",J$5&gt;=$F21,J$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",J$5&gt;=$F21,J$5&lt;=$F21+$G21-1),1,""))</f>
         <v/>
       </c>
       <c r="K21" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C21="Goal",K$5&gt;=$F21,K$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",K$5&gt;=$F21,K$5&lt;=$F21+$G21-1),1,""))</f>
         <v/>
       </c>
       <c r="L21" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C21="Goal",L$5&gt;=$F21,L$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",L$5&gt;=$F21,L$5&lt;=$F21+$G21-1),1,""))</f>
         <v/>
       </c>
       <c r="M21" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C21="Goal",M$5&gt;=$F21,M$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",M$5&gt;=$F21,M$5&lt;=$F21+$G21-1),1,""))</f>
         <v/>
       </c>
       <c r="N21" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C21="Goal",N$5&gt;=$F21,N$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",N$5&gt;=$F21,N$5&lt;=$F21+$G21-1),1,""))</f>
         <v/>
       </c>
       <c r="O21" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C21="Goal",O$5&gt;=$F21,O$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",O$5&gt;=$F21,O$5&lt;=$F21+$G21-1),1,""))</f>
         <v/>
       </c>
       <c r="P21" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C21="Goal",P$5&gt;=$F21,P$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",P$5&gt;=$F21,P$5&lt;=$F21+$G21-1),1,""))</f>
         <v/>
       </c>
       <c r="Q21" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C21="Goal",Q$5&gt;=$F21,Q$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",Q$5&gt;=$F21,Q$5&lt;=$F21+$G21-1),1,""))</f>
         <v/>
       </c>
       <c r="R21" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C21="Goal",R$5&gt;=$F21,R$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",R$5&gt;=$F21,R$5&lt;=$F21+$G21-1),1,""))</f>
         <v/>
       </c>
       <c r="S21" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C21="Goal",S$5&gt;=$F21,S$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",S$5&gt;=$F21,S$5&lt;=$F21+$G21-1),1,""))</f>
         <v/>
       </c>
       <c r="T21" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C21="Goal",T$5&gt;=$F21,T$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",T$5&gt;=$F21,T$5&lt;=$F21+$G21-1),1,""))</f>
         <v/>
       </c>
       <c r="U21" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C21="Goal",U$5&gt;=$F21,U$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",U$5&gt;=$F21,U$5&lt;=$F21+$G21-1),1,""))</f>
         <v/>
       </c>
       <c r="V21" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C21="Goal",V$5&gt;=$F21,V$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",V$5&gt;=$F21,V$5&lt;=$F21+$G21-1),1,""))</f>
         <v/>
       </c>
       <c r="W21" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C21="Goal",W$5&gt;=$F21,W$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",W$5&gt;=$F21,W$5&lt;=$F21+$G21-1),1,""))</f>
         <v/>
       </c>
       <c r="X21" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(AND($C21="Goal",X$5&gt;=$F21,X$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",X$5&gt;=$F21,X$5&lt;=$F21+$G21-1),1,""))</f>
         <v/>
       </c>
       <c r="Y21" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C21="Goal",Y$5&gt;=$F21,Y$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",Y$5&gt;=$F21,Y$5&lt;=$F21+$G21-1),1,""))</f>
         <v/>
       </c>
       <c r="Z21" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C21="Goal",Z$5&gt;=$F21,Z$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",Z$5&gt;=$F21,Z$5&lt;=$F21+$G21-1),1,""))</f>
         <v/>
       </c>
       <c r="AA21" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C21="Goal",AA$5&gt;=$F21,AA$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AA$5&gt;=$F21,AA$5&lt;=$F21+$G21-1),1,""))</f>
         <v/>
       </c>
       <c r="AB21" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C21="Goal",AB$5&gt;=$F21,AB$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AB$5&gt;=$F21,AB$5&lt;=$F21+$G21-1),1,""))</f>
         <v/>
       </c>
       <c r="AC21" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C21="Goal",AC$5&gt;=$F21,AC$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AC$5&gt;=$F21,AC$5&lt;=$F21+$G21-1),1,""))</f>
         <v/>
       </c>
       <c r="AD21" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C21="Goal",AD$5&gt;=$F21,AD$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AD$5&gt;=$F21,AD$5&lt;=$F21+$G21-1),1,""))</f>
         <v/>
       </c>
       <c r="AE21" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C21="Goal",AE$5&gt;=$F21,AE$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AE$5&gt;=$F21,AE$5&lt;=$F21+$G21-1),1,""))</f>
         <v/>
       </c>
       <c r="AF21" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C21="Goal",AF$5&gt;=$F21,AF$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AF$5&gt;=$F21,AF$5&lt;=$F21+$G21-1),1,""))</f>
         <v/>
       </c>
       <c r="AG21" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C21="Goal",AG$5&gt;=$F21,AG$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AG$5&gt;=$F21,AG$5&lt;=$F21+$G21-1),1,""))</f>
         <v/>
       </c>
       <c r="AH21" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C21="Goal",AH$5&gt;=$F21,AH$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AH$5&gt;=$F21,AH$5&lt;=$F21+$G21-1),1,""))</f>
         <v/>
       </c>
       <c r="AI21" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C21="Goal",AI$5&gt;=$F21,AI$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AI$5&gt;=$F21,AI$5&lt;=$F21+$G21-1),1,""))</f>
         <v/>
       </c>
       <c r="AJ21" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C21="Goal",AJ$5&gt;=$F21,AJ$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AJ$5&gt;=$F21,AJ$5&lt;=$F21+$G21-1),1,""))</f>
         <v/>
       </c>
       <c r="AK21" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C21="Goal",AK$5&gt;=$F21,AK$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AK$5&gt;=$F21,AK$5&lt;=$F21+$G21-1),1,""))</f>
         <v/>
       </c>
       <c r="AL21" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C21="Goal",AL$5&gt;=$F21,AL$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AL$5&gt;=$F21,AL$5&lt;=$F21+$G21-1),1,""))</f>
         <v/>
       </c>
       <c r="AM21" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C21="Goal",AM$5&gt;=$F21,AM$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AM$5&gt;=$F21,AM$5&lt;=$F21+$G21-1),1,""))</f>
         <v/>
       </c>
       <c r="AN21" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(AND($C21="Goal",AN$5&gt;=$F21,AN$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AN$5&gt;=$F21,AN$5&lt;=$F21+$G21-1),1,""))</f>
         <v/>
       </c>
       <c r="AO21" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f ca="1">IF(AND($C21="Goal",AO$5&gt;=$F21,AO$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AO$5&gt;=$F21,AO$5&lt;=$F21+$G21-1),1,""))</f>
         <v/>
       </c>
       <c r="AP21" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f ca="1">IF(AND($C21="Goal",AP$5&gt;=$F21,AP$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AP$5&gt;=$F21,AP$5&lt;=$F21+$G21-1),1,""))</f>
         <v/>
       </c>
       <c r="AQ21" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f ca="1">IF(AND($C21="Goal",AQ$5&gt;=$F21,AQ$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AQ$5&gt;=$F21,AQ$5&lt;=$F21+$G21-1),1,""))</f>
         <v/>
       </c>
       <c r="AR21" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f ca="1">IF(AND($C21="Goal",AR$5&gt;=$F21,AR$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AR$5&gt;=$F21,AR$5&lt;=$F21+$G21-1),1,""))</f>
         <v/>
       </c>
       <c r="AS21" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f ca="1">IF(AND($C21="Goal",AS$5&gt;=$F21,AS$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AS$5&gt;=$F21,AS$5&lt;=$F21+$G21-1),1,""))</f>
         <v/>
       </c>
       <c r="AT21" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f ca="1">IF(AND($C21="Goal",AT$5&gt;=$F21,AT$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AT$5&gt;=$F21,AT$5&lt;=$F21+$G21-1),1,""))</f>
         <v/>
       </c>
       <c r="AU21" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f ca="1">IF(AND($C21="Goal",AU$5&gt;=$F21,AU$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AU$5&gt;=$F21,AU$5&lt;=$F21+$G21-1),1,""))</f>
         <v/>
       </c>
       <c r="AV21" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f ca="1">IF(AND($C21="Goal",AV$5&gt;=$F21,AV$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AV$5&gt;=$F21,AV$5&lt;=$F21+$G21-1),1,""))</f>
         <v/>
       </c>
       <c r="AW21" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f ca="1">IF(AND($C21="Goal",AW$5&gt;=$F21,AW$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AW$5&gt;=$F21,AW$5&lt;=$F21+$G21-1),1,""))</f>
         <v/>
       </c>
       <c r="AX21" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f ca="1">IF(AND($C21="Goal",AX$5&gt;=$F21,AX$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AX$5&gt;=$F21,AX$5&lt;=$F21+$G21-1),1,""))</f>
         <v/>
       </c>
       <c r="AY21" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f ca="1">IF(AND($C21="Goal",AY$5&gt;=$F21,AY$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AY$5&gt;=$F21,AY$5&lt;=$F21+$G21-1),1,""))</f>
         <v/>
       </c>
       <c r="AZ21" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f ca="1">IF(AND($C21="Goal",AZ$5&gt;=$F21,AZ$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AZ$5&gt;=$F21,AZ$5&lt;=$F21+$G21-1),1,""))</f>
         <v/>
       </c>
       <c r="BA21" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f ca="1">IF(AND($C21="Goal",BA$5&gt;=$F21,BA$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",BA$5&gt;=$F21,BA$5&lt;=$F21+$G21-1),1,""))</f>
         <v/>
       </c>
       <c r="BB21" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f ca="1">IF(AND($C21="Goal",BB$5&gt;=$F21,BB$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",BB$5&gt;=$F21,BB$5&lt;=$F21+$G21-1),1,""))</f>
         <v/>
       </c>
       <c r="BC21" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f ca="1">IF(AND($C21="Goal",BC$5&gt;=$F21,BC$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",BC$5&gt;=$F21,BC$5&lt;=$F21+$G21-1),1,""))</f>
         <v/>
       </c>
       <c r="BD21" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f ca="1">IF(AND($C21="Goal",BD$5&gt;=$F21,BD$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",BD$5&gt;=$F21,BD$5&lt;=$F21+$G21-1),1,""))</f>
         <v/>
       </c>
       <c r="BE21" s="38" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f ca="1">IF(AND($C21="Goal",BE$5&gt;=$F21,BE$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",BE$5&gt;=$F21,BE$5&lt;=$F21+$G21-1),1,""))</f>
         <v/>
       </c>
       <c r="BF21" s="38" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f ca="1">IF(AND($C21="Goal",BF$5&gt;=$F21,BF$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",BF$5&gt;=$F21,BF$5&lt;=$F21+$G21-1),1,""))</f>
         <v/>
       </c>
       <c r="BG21" s="38" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f ca="1">IF(AND($C21="Goal",BG$5&gt;=$F21,BG$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",BG$5&gt;=$F21,BG$5&lt;=$F21+$G21-1),1,""))</f>
         <v/>
       </c>
       <c r="BH21" s="38" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f ca="1">IF(AND($C21="Goal",BH$5&gt;=$F21,BH$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",BH$5&gt;=$F21,BH$5&lt;=$F21+$G21-1),1,""))</f>
         <v/>
       </c>
       <c r="BI21" s="38" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f ca="1">IF(AND($C21="Goal",BI$5&gt;=$F21,BI$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",BI$5&gt;=$F21,BI$5&lt;=$F21+$G21-1),1,""))</f>
         <v/>
       </c>
       <c r="BJ21" s="38" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f ca="1">IF(AND($C21="Goal",BJ$5&gt;=$F21,BJ$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",BJ$5&gt;=$F21,BJ$5&lt;=$F21+$G21-1),1,""))</f>
         <v/>
       </c>
       <c r="BK21" s="38" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f ca="1">IF(AND($C21="Goal",BK$5&gt;=$F21,BK$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",BK$5&gt;=$F21,BK$5&lt;=$F21+$G21-1),1,""))</f>
         <v/>
       </c>
       <c r="BL21" s="38" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f ca="1">IF(AND($C21="Goal",BL$5&gt;=$F21,BL$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",BL$5&gt;=$F21,BL$5&lt;=$F21+$G21-1),1,""))</f>
         <v/>
       </c>
     </row>
     <row r="22" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="14"/>
-      <c r="B22" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="C22" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="D22" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="E22" s="31">
-        <v>1</v>
-      </c>
-      <c r="F22" s="32">
-        <v>43962</v>
-      </c>
-      <c r="G22" s="33">
-        <v>1</v>
-      </c>
+      <c r="B22" s="42"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="33"/>
       <c r="H22" s="26"/>
       <c r="I22" s="38" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ref="I22:X30" ca="1" si="14">IF(AND($C22="Goal",I$5&gt;=$F22,I$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",I$5&gt;=$F22,I$5&lt;=$F22+$G22-1),1,""))</f>
         <v/>
       </c>
       <c r="J22" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="K22" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="L22" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="M22" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="N22" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="O22" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="P22" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="Q22" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="R22" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="S22" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="T22" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="U22" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="V22" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="W22" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="X22" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="Y22" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ref="Y22:AN28" ca="1" si="15">IF(AND($C22="Goal",Y$5&gt;=$F22,Y$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",Y$5&gt;=$F22,Y$5&lt;=$F22+$G22-1),1,""))</f>
         <v/>
       </c>
       <c r="Z22" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AA22" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AB22" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AC22" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AD22" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AE22" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AF22" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AG22" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AH22" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AI22" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AJ22" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AK22" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AL22" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AM22" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AN22" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AO22" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ref="AO22:BE28" ca="1" si="16">IF(AND($C22="Goal",AO$5&gt;=$F22,AO$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",AO$5&gt;=$F22,AO$5&lt;=$F22+$G22-1),1,""))</f>
         <v/>
       </c>
       <c r="AP22" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AQ22" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AR22" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AS22" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AT22" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AU22" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AV22" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AW22" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AX22" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AY22" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AZ22" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BA22" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BB22" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BC22" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BD22" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ref="BB22:BL33" ca="1" si="17">IF(AND($C22="Goal",BD$5&gt;=$F22,BD$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",BD$5&gt;=$F22,BD$5&lt;=$F22+$G22-1),1,""))</f>
         <v/>
       </c>
       <c r="BE22" s="38" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="BF22" s="38" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="BG22" s="38" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="BH22" s="38" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="BI22" s="38" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="BJ22" s="38" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="BK22" s="38" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="BL22" s="38" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
     </row>
     <row r="23" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="14"/>
-      <c r="B23" s="41" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" s="34" t="s">
-        <v>44</v>
-      </c>
+      <c r="B23" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
       <c r="E23" s="31"/>
-      <c r="F23" s="32">
-        <v>43962</v>
-      </c>
-      <c r="G23" s="33">
-        <v>13</v>
-      </c>
+      <c r="F23" s="32"/>
+      <c r="G23" s="33"/>
       <c r="H23" s="26"/>
       <c r="I23" s="38" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ref="I23:BA31" ca="1" si="18">IF(AND($C23="Goal",I$5&gt;=$F23,I$5&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",I$5&gt;=$F23,I$5&lt;=$F23+$G23-1),1,""))</f>
         <v/>
       </c>
       <c r="J23" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="K23" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="L23" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="M23" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="N23" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="O23" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="P23" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="Q23" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="R23" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="S23" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="T23" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="U23" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="V23" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="W23" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="X23" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="Y23" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="Z23" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AA23" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AB23" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AC23" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AD23" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AE23" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AF23" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AG23" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AH23" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AI23" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AJ23" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AK23" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AL23" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AM23" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AN23" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AO23" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AP23" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AQ23" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AR23" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AS23" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AT23" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AU23" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AV23" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AW23" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AX23" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AY23" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AZ23" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BA23" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BB23" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BC23" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BD23" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ref="BD23:BL31" ca="1" si="19">IF(AND($C23="Goal",BD$5&gt;=$F23,BD$5&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",BD$5&gt;=$F23,BD$5&lt;=$F23+$G23-1),1,""))</f>
         <v/>
       </c>
       <c r="BE23" s="38" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="BF23" s="38" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="BG23" s="38" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="BH23" s="38" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="BI23" s="38" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="BJ23" s="38" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="BK23" s="38" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="BL23" s="38" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
     </row>
     <row r="24" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="14"/>
-      <c r="B24" s="41"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="33"/>
+      <c r="B24" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="E24" s="31">
+        <v>0.8</v>
+      </c>
+      <c r="F24" s="32">
+        <v>43962</v>
+      </c>
+      <c r="G24" s="33">
+        <v>13</v>
+      </c>
       <c r="H24" s="26"/>
       <c r="I24" s="38" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="J24" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="K24" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="L24" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="M24" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="N24" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="O24" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="P24" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="Q24" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="R24" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="S24" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="T24" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="U24" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="V24" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="W24" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="X24" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="Y24" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="Z24" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AA24" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AB24" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AC24" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AD24" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AE24" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AF24" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AG24" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AH24" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AI24" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AJ24" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AK24" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AL24" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AM24" s="38" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AN24" s="38" t="str">
-        <f t="shared" ref="AN24:BC33" ca="1" si="14">IF(AND($C24="Goal",AN$5&gt;=$F24,AN$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",AN$5&gt;=$F24,AN$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AO24" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AP24" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AQ24" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AR24" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AS24" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AT24" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AU24" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AV24" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AW24" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AX24" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AY24" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AZ24" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BA24" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BB24" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BC24" s="38" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BD24" s="38" t="str">
-        <f t="shared" ref="BD24:BL33" ca="1" si="15">IF(AND($C24="Goal",BD$5&gt;=$F24,BD$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",BD$5&gt;=$F24,BD$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="BE24" s="38" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="BF24" s="38" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="BG24" s="38" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="BH24" s="38" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="BI24" s="38" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="BJ24" s="38" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="BK24" s="38" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="BL24" s="38" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
     </row>
     <row r="25" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="14"/>
-      <c r="B25" s="41"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="33"/>
+      <c r="B25" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="E25" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="F25" s="32">
+        <v>43962</v>
+      </c>
+      <c r="G25" s="33">
+        <v>13</v>
+      </c>
       <c r="H25" s="26"/>
       <c r="I25" s="38" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="J25" s="38" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="K25" s="38" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="L25" s="38" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="M25" s="38" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="N25" s="38" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="O25" s="38" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="P25" s="38" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="Q25" s="38" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="R25" s="38" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="S25" s="38" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="T25" s="38" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="U25" s="38" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="V25" s="38" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="W25" s="38" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="X25" s="38" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="Y25" s="38" t="str">
-        <f t="shared" ref="Y25:AM33" ca="1" si="16">IF(AND($C25="Goal",Y$5&gt;=$F25,Y$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",Y$5&gt;=$F25,Y$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="Z25" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AA25" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AB25" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AC25" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AD25" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AE25" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AF25" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AG25" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AH25" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AI25" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AJ25" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AK25" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AL25" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AM25" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AN25" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AO25" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AP25" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AQ25" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AR25" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AS25" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AT25" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AU25" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AV25" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AW25" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AX25" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AY25" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AZ25" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BA25" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BB25" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BC25" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BD25" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="BE25" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="BF25" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="BG25" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="BH25" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="BI25" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="BJ25" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="BK25" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="BL25" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
     </row>
     <row r="26" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="14"/>
-      <c r="B26" s="41"/>
-      <c r="C26" s="34"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="33"/>
+      <c r="B26" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="E26" s="31">
+        <v>0.6</v>
+      </c>
+      <c r="F26" s="32">
+        <v>43962</v>
+      </c>
+      <c r="G26" s="33">
+        <v>13</v>
+      </c>
       <c r="H26" s="26"/>
       <c r="I26" s="38" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="J26" s="38" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="K26" s="38" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="L26" s="38" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="M26" s="38" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="N26" s="38" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="O26" s="38" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="P26" s="38" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="Q26" s="38" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="R26" s="38" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="S26" s="38" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="T26" s="38" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="U26" s="38" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="V26" s="38" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="W26" s="38" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="X26" s="38" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ref="X25:AM27" ca="1" si="20">IF(AND($C26="Goal",X$5&gt;=$F26,X$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",X$5&gt;=$F26,X$5&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
       <c r="Y26" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="Z26" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AA26" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AB26" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AC26" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AD26" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AE26" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AF26" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AG26" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AH26" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AI26" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AJ26" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AK26" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AL26" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AM26" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AN26" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AO26" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AP26" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AQ26" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AR26" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AS26" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AT26" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AU26" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AV26" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AW26" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AX26" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AY26" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AZ26" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BA26" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BB26" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BC26" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BD26" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="BE26" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="BF26" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="BG26" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="BH26" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="BI26" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="BJ26" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="BK26" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="BL26" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
     </row>
     <row r="27" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="14"/>
-      <c r="B27" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="C27" s="34"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="33"/>
+      <c r="B27" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="E27" s="31">
+        <v>0.8</v>
+      </c>
+      <c r="F27" s="32">
+        <v>43962</v>
+      </c>
+      <c r="G27" s="33">
+        <v>13</v>
+      </c>
       <c r="H27" s="26"/>
       <c r="I27" s="38" t="str">
-        <f t="shared" ref="I27:X33" ca="1" si="17">IF(AND($C27="Goal",I$5&gt;=$F27,I$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",I$5&gt;=$F27,I$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ref="I26:X28" ca="1" si="21">IF(AND($C27="Goal",I$5&gt;=$F27,I$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",I$5&gt;=$F27,I$5&lt;=$F27+$G27-1),1,""))</f>
         <v/>
       </c>
       <c r="J27" s="38" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="K27" s="38" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="L27" s="38" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="M27" s="38" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="N27" s="38" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="O27" s="38" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="P27" s="38" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="Q27" s="38" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="R27" s="38" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="S27" s="38" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="T27" s="38" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="U27" s="38" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="V27" s="38" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="W27" s="38" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="X27" s="38" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="Y27" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="Z27" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AA27" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AB27" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AC27" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AD27" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AE27" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AF27" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AG27" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AH27" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AI27" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AJ27" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AK27" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AL27" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AM27" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AN27" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AO27" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AP27" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AQ27" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AR27" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AS27" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AT27" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AU27" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AV27" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AW27" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AX27" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AY27" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AZ27" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BA27" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BB27" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BC27" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BD27" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="BE27" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="BF27" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="BG27" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="BH27" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="BI27" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="BJ27" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="BK27" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="BL27" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
     </row>
     <row r="28" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="14"/>
       <c r="B28" s="41" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C28" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="D28" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="E28" s="31"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="31">
+        <v>0.4</v>
+      </c>
       <c r="F28" s="32">
         <v>43962</v>
       </c>
       <c r="G28" s="33">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H28" s="26"/>
       <c r="I28" s="38" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="J28" s="38" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="K28" s="38" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="L28" s="38" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="M28" s="38" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="N28" s="38" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="O28" s="38" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="P28" s="38" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="Q28" s="38" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="R28" s="38" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="S28" s="38" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="T28" s="38" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="U28" s="38" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="V28" s="38" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="W28" s="38" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="X28" s="38" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="Y28" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="Z28" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AA28" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AB28" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AC28" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AD28" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AE28" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AF28" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AG28" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AH28" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AI28" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AJ28" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AK28" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AL28" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AM28" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AN28" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AO28" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AP28" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AQ28" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AR28" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AS28" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AT28" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AU28" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AV28" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AW28" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AX28" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AY28" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AZ28" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BA28" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BB28" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BC28" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BD28" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="BE28" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="BF28" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="BG28" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="BH28" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="BI28" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="BJ28" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="BK28" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="BL28" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
     </row>
     <row r="29" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="14"/>
-      <c r="B29" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="C29" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29" s="34" t="s">
-        <v>50</v>
-      </c>
+      <c r="B29" s="41"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="34"/>
       <c r="E29" s="31"/>
-      <c r="F29" s="32">
-        <v>43962</v>
-      </c>
-      <c r="G29" s="33">
-        <v>13</v>
-      </c>
+      <c r="F29" s="32"/>
+      <c r="G29" s="33"/>
       <c r="H29" s="26"/>
-      <c r="I29" s="38" t="str">
-        <f t="shared" ca="1" si="17"/>
-        <v/>
-      </c>
-      <c r="J29" s="38" t="str">
-        <f t="shared" ca="1" si="17"/>
-        <v/>
-      </c>
-      <c r="K29" s="38" t="str">
-        <f t="shared" ca="1" si="17"/>
-        <v/>
-      </c>
-      <c r="L29" s="38" t="str">
-        <f t="shared" ca="1" si="17"/>
-        <v/>
-      </c>
-      <c r="M29" s="38" t="str">
-        <f t="shared" ca="1" si="17"/>
-        <v/>
-      </c>
-      <c r="N29" s="38" t="str">
-        <f t="shared" ca="1" si="17"/>
-        <v/>
-      </c>
-      <c r="O29" s="38" t="str">
-        <f t="shared" ca="1" si="17"/>
-        <v/>
-      </c>
-      <c r="P29" s="38" t="str">
-        <f t="shared" ca="1" si="17"/>
-        <v/>
-      </c>
-      <c r="Q29" s="38" t="str">
-        <f t="shared" ca="1" si="17"/>
-        <v/>
-      </c>
-      <c r="R29" s="38" t="str">
-        <f t="shared" ca="1" si="17"/>
-        <v/>
-      </c>
-      <c r="S29" s="38" t="str">
-        <f t="shared" ca="1" si="17"/>
-        <v/>
-      </c>
-      <c r="T29" s="38" t="str">
-        <f t="shared" ca="1" si="17"/>
-        <v/>
-      </c>
-      <c r="U29" s="38" t="str">
-        <f t="shared" ca="1" si="17"/>
-        <v/>
-      </c>
-      <c r="V29" s="38" t="str">
-        <f t="shared" ca="1" si="17"/>
-        <v/>
-      </c>
-      <c r="W29" s="38" t="str">
-        <f t="shared" ca="1" si="17"/>
-        <v/>
-      </c>
-      <c r="X29" s="38" t="str">
-        <f t="shared" ca="1" si="17"/>
-        <v/>
-      </c>
-      <c r="Y29" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="Z29" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="AA29" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="AB29" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="AC29" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="AD29" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="AE29" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="AF29" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="AG29" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="AH29" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="AI29" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="AJ29" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="AK29" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="AL29" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="AM29" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="AN29" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="AO29" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="AP29" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="AQ29" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="AR29" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="AS29" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="AT29" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="AU29" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="AV29" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="AW29" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="AX29" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="AY29" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="AZ29" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="BA29" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="BB29" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="BC29" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="BD29" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
-      <c r="BE29" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
-      <c r="BF29" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
-      <c r="BG29" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
-      <c r="BH29" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
-      <c r="BI29" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
-      <c r="BJ29" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
-      <c r="BK29" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
-      <c r="BL29" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
+      <c r="I29" s="38"/>
+      <c r="J29" s="38"/>
+      <c r="K29" s="38"/>
+      <c r="L29" s="38"/>
+      <c r="M29" s="38"/>
+      <c r="N29" s="38"/>
+      <c r="O29" s="38"/>
+      <c r="P29" s="38"/>
+      <c r="Q29" s="38"/>
+      <c r="R29" s="38"/>
+      <c r="S29" s="38"/>
+      <c r="T29" s="38"/>
+      <c r="U29" s="38"/>
+      <c r="V29" s="38"/>
+      <c r="W29" s="38"/>
+      <c r="X29" s="38"/>
+      <c r="Y29" s="38"/>
+      <c r="Z29" s="38"/>
+      <c r="AA29" s="38"/>
+      <c r="AB29" s="38"/>
+      <c r="AC29" s="38"/>
+      <c r="AD29" s="38"/>
+      <c r="AE29" s="38"/>
+      <c r="AF29" s="38"/>
+      <c r="AG29" s="38"/>
+      <c r="AH29" s="38"/>
+      <c r="AI29" s="38"/>
+      <c r="AJ29" s="38"/>
+      <c r="AK29" s="38"/>
+      <c r="AL29" s="38"/>
+      <c r="AM29" s="38"/>
+      <c r="AN29" s="38"/>
+      <c r="AO29" s="38"/>
+      <c r="AP29" s="38"/>
+      <c r="AQ29" s="38"/>
+      <c r="AR29" s="38"/>
+      <c r="AS29" s="38"/>
+      <c r="AT29" s="38"/>
+      <c r="AU29" s="38"/>
+      <c r="AV29" s="38"/>
+      <c r="AW29" s="38"/>
+      <c r="AX29" s="38"/>
+      <c r="AY29" s="38"/>
+      <c r="AZ29" s="38"/>
+      <c r="BA29" s="38"/>
+      <c r="BB29" s="38"/>
+      <c r="BC29" s="38"/>
+      <c r="BD29" s="38"/>
+      <c r="BE29" s="38"/>
+      <c r="BF29" s="38"/>
+      <c r="BG29" s="38"/>
+      <c r="BH29" s="38"/>
+      <c r="BI29" s="38"/>
+      <c r="BJ29" s="38"/>
+      <c r="BK29" s="38"/>
+      <c r="BL29" s="38"/>
     </row>
     <row r="30" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="14"/>
-      <c r="B30" s="41" t="s">
-        <v>48</v>
-      </c>
-      <c r="C30" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="D30" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="E30" s="31">
-        <v>0.6</v>
-      </c>
-      <c r="F30" s="32">
-        <v>43962</v>
-      </c>
-      <c r="G30" s="33">
-        <v>13</v>
-      </c>
+      <c r="B30" s="41"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="33"/>
       <c r="H30" s="26"/>
-      <c r="I30" s="38" t="str">
-        <f t="shared" ca="1" si="17"/>
-        <v/>
-      </c>
-      <c r="J30" s="38" t="str">
-        <f t="shared" ca="1" si="17"/>
-        <v/>
-      </c>
-      <c r="K30" s="38" t="str">
-        <f t="shared" ca="1" si="17"/>
-        <v/>
-      </c>
-      <c r="L30" s="38" t="str">
-        <f t="shared" ca="1" si="17"/>
-        <v/>
-      </c>
-      <c r="M30" s="38" t="str">
-        <f t="shared" ca="1" si="17"/>
-        <v/>
-      </c>
-      <c r="N30" s="38" t="str">
-        <f t="shared" ca="1" si="17"/>
-        <v/>
-      </c>
-      <c r="O30" s="38" t="str">
-        <f t="shared" ca="1" si="17"/>
-        <v/>
-      </c>
-      <c r="P30" s="38" t="str">
-        <f t="shared" ca="1" si="17"/>
-        <v/>
-      </c>
-      <c r="Q30" s="38" t="str">
-        <f t="shared" ca="1" si="17"/>
-        <v/>
-      </c>
-      <c r="R30" s="38" t="str">
-        <f t="shared" ca="1" si="17"/>
-        <v/>
-      </c>
-      <c r="S30" s="38" t="str">
-        <f t="shared" ca="1" si="17"/>
-        <v/>
-      </c>
-      <c r="T30" s="38" t="str">
-        <f t="shared" ca="1" si="17"/>
-        <v/>
-      </c>
-      <c r="U30" s="38" t="str">
-        <f t="shared" ca="1" si="17"/>
-        <v/>
-      </c>
-      <c r="V30" s="38" t="str">
-        <f t="shared" ca="1" si="17"/>
-        <v/>
-      </c>
-      <c r="W30" s="38" t="str">
-        <f t="shared" ca="1" si="17"/>
-        <v/>
-      </c>
-      <c r="X30" s="38" t="str">
-        <f t="shared" ca="1" si="17"/>
-        <v/>
-      </c>
-      <c r="Y30" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="Z30" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="AA30" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="AB30" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="AC30" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="AD30" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="AE30" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="AF30" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="AG30" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="AH30" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="AI30" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="AJ30" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="AK30" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="AL30" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="AM30" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="AN30" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="AO30" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="AP30" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="AQ30" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="AR30" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="AS30" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="AT30" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="AU30" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="AV30" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="AW30" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="AX30" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="AY30" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="AZ30" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="BA30" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="BB30" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="BC30" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="BD30" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
-      <c r="BE30" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
-      <c r="BF30" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
-      <c r="BG30" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
-      <c r="BH30" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
-      <c r="BI30" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
-      <c r="BJ30" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
-      <c r="BK30" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
-      <c r="BL30" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
+      <c r="I30" s="38"/>
+      <c r="J30" s="38"/>
+      <c r="K30" s="38"/>
+      <c r="L30" s="38"/>
+      <c r="M30" s="38"/>
+      <c r="N30" s="38"/>
+      <c r="O30" s="38"/>
+      <c r="P30" s="38"/>
+      <c r="Q30" s="38"/>
+      <c r="R30" s="38"/>
+      <c r="S30" s="38"/>
+      <c r="T30" s="38"/>
+      <c r="U30" s="38"/>
+      <c r="V30" s="38"/>
+      <c r="W30" s="38"/>
+      <c r="X30" s="38"/>
+      <c r="Y30" s="38"/>
+      <c r="Z30" s="38"/>
+      <c r="AA30" s="38"/>
+      <c r="AB30" s="38"/>
+      <c r="AC30" s="38"/>
+      <c r="AD30" s="38"/>
+      <c r="AE30" s="38"/>
+      <c r="AF30" s="38"/>
+      <c r="AG30" s="38"/>
+      <c r="AH30" s="38"/>
+      <c r="AI30" s="38"/>
+      <c r="AJ30" s="38"/>
+      <c r="AK30" s="38"/>
+      <c r="AL30" s="38"/>
+      <c r="AM30" s="38"/>
+      <c r="AN30" s="38"/>
+      <c r="AO30" s="38"/>
+      <c r="AP30" s="38"/>
+      <c r="AQ30" s="38"/>
+      <c r="AR30" s="38"/>
+      <c r="AS30" s="38"/>
+      <c r="AT30" s="38"/>
+      <c r="AU30" s="38"/>
+      <c r="AV30" s="38"/>
+      <c r="AW30" s="38"/>
+      <c r="AX30" s="38"/>
+      <c r="AY30" s="38"/>
+      <c r="AZ30" s="38"/>
+      <c r="BA30" s="38"/>
+      <c r="BB30" s="38"/>
+      <c r="BC30" s="38"/>
+      <c r="BD30" s="38"/>
+      <c r="BE30" s="38"/>
+      <c r="BF30" s="38"/>
+      <c r="BG30" s="38"/>
+      <c r="BH30" s="38"/>
+      <c r="BI30" s="38"/>
+      <c r="BJ30" s="38"/>
+      <c r="BK30" s="38"/>
+      <c r="BL30" s="38"/>
     </row>
     <row r="31" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="14"/>
-      <c r="B31" s="41" t="s">
-        <v>49</v>
-      </c>
-      <c r="C31" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="D31" s="34" t="s">
-        <v>50</v>
-      </c>
+      <c r="B31" s="41"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="34"/>
       <c r="E31" s="31"/>
-      <c r="F31" s="32">
-        <v>43962</v>
-      </c>
-      <c r="G31" s="33">
-        <v>13</v>
-      </c>
+      <c r="F31" s="32"/>
+      <c r="G31" s="33"/>
       <c r="H31" s="26"/>
-      <c r="I31" s="38" t="str">
-        <f t="shared" ca="1" si="17"/>
-        <v/>
-      </c>
-      <c r="J31" s="38" t="str">
-        <f t="shared" ca="1" si="17"/>
-        <v/>
-      </c>
-      <c r="K31" s="38" t="str">
-        <f t="shared" ca="1" si="17"/>
-        <v/>
-      </c>
-      <c r="L31" s="38" t="str">
-        <f t="shared" ca="1" si="17"/>
-        <v/>
-      </c>
-      <c r="M31" s="38" t="str">
-        <f t="shared" ca="1" si="17"/>
-        <v/>
-      </c>
-      <c r="N31" s="38" t="str">
-        <f t="shared" ca="1" si="17"/>
-        <v/>
-      </c>
-      <c r="O31" s="38" t="str">
-        <f t="shared" ca="1" si="17"/>
-        <v/>
-      </c>
-      <c r="P31" s="38" t="str">
-        <f t="shared" ca="1" si="17"/>
-        <v/>
-      </c>
-      <c r="Q31" s="38" t="str">
-        <f t="shared" ca="1" si="17"/>
-        <v/>
-      </c>
-      <c r="R31" s="38" t="str">
-        <f t="shared" ca="1" si="17"/>
-        <v/>
-      </c>
-      <c r="S31" s="38" t="str">
-        <f t="shared" ca="1" si="17"/>
-        <v/>
-      </c>
-      <c r="T31" s="38" t="str">
-        <f t="shared" ca="1" si="17"/>
-        <v/>
-      </c>
-      <c r="U31" s="38" t="str">
-        <f t="shared" ca="1" si="17"/>
-        <v/>
-      </c>
-      <c r="V31" s="38" t="str">
-        <f t="shared" ca="1" si="17"/>
-        <v/>
-      </c>
-      <c r="W31" s="38" t="str">
-        <f t="shared" ca="1" si="17"/>
-        <v/>
-      </c>
-      <c r="X31" s="38" t="str">
-        <f t="shared" ca="1" si="17"/>
-        <v/>
-      </c>
-      <c r="Y31" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="Z31" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="AA31" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="AB31" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="AC31" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="AD31" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="AE31" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="AF31" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="AG31" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="AH31" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="AI31" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="AJ31" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="AK31" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="AL31" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="AM31" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="AN31" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="AO31" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="AP31" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="AQ31" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="AR31" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="AS31" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="AT31" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="AU31" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="AV31" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="AW31" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="AX31" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="AY31" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="AZ31" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="BA31" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="BB31" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="BC31" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="BD31" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
-      <c r="BE31" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
-      <c r="BF31" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
-      <c r="BG31" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
-      <c r="BH31" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
-      <c r="BI31" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
-      <c r="BJ31" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
-      <c r="BK31" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
-      <c r="BL31" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
+      <c r="I31" s="38"/>
+      <c r="J31" s="38"/>
+      <c r="K31" s="38"/>
+      <c r="L31" s="38"/>
+      <c r="M31" s="38"/>
+      <c r="N31" s="38"/>
+      <c r="O31" s="38"/>
+      <c r="P31" s="38"/>
+      <c r="Q31" s="38"/>
+      <c r="R31" s="38"/>
+      <c r="S31" s="38"/>
+      <c r="T31" s="38"/>
+      <c r="U31" s="38"/>
+      <c r="V31" s="38"/>
+      <c r="W31" s="38"/>
+      <c r="X31" s="38"/>
+      <c r="Y31" s="38"/>
+      <c r="Z31" s="38"/>
+      <c r="AA31" s="38"/>
+      <c r="AB31" s="38"/>
+      <c r="AC31" s="38"/>
+      <c r="AD31" s="38"/>
+      <c r="AE31" s="38"/>
+      <c r="AF31" s="38"/>
+      <c r="AG31" s="38"/>
+      <c r="AH31" s="38"/>
+      <c r="AI31" s="38"/>
+      <c r="AJ31" s="38"/>
+      <c r="AK31" s="38"/>
+      <c r="AL31" s="38"/>
+      <c r="AM31" s="38"/>
+      <c r="AN31" s="38"/>
+      <c r="AO31" s="38"/>
+      <c r="AP31" s="38"/>
+      <c r="AQ31" s="38"/>
+      <c r="AR31" s="38"/>
+      <c r="AS31" s="38"/>
+      <c r="AT31" s="38"/>
+      <c r="AU31" s="38"/>
+      <c r="AV31" s="38"/>
+      <c r="AW31" s="38"/>
+      <c r="AX31" s="38"/>
+      <c r="AY31" s="38"/>
+      <c r="AZ31" s="38"/>
+      <c r="BA31" s="38"/>
+      <c r="BB31" s="38"/>
+      <c r="BC31" s="38"/>
+      <c r="BD31" s="38"/>
+      <c r="BE31" s="38"/>
+      <c r="BF31" s="38"/>
+      <c r="BG31" s="38"/>
+      <c r="BH31" s="38"/>
+      <c r="BI31" s="38"/>
+      <c r="BJ31" s="38"/>
+      <c r="BK31" s="38"/>
+      <c r="BL31" s="38"/>
     </row>
     <row r="32" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="14"/>
-      <c r="B32" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="C32" s="34" t="s">
-        <v>9</v>
-      </c>
+      <c r="B32" s="41"/>
+      <c r="C32" s="34"/>
       <c r="D32" s="34"/>
       <c r="E32" s="31"/>
-      <c r="F32" s="32">
-        <v>43962</v>
-      </c>
-      <c r="G32" s="33">
-        <v>18</v>
-      </c>
+      <c r="F32" s="32"/>
+      <c r="G32" s="33"/>
       <c r="H32" s="26"/>
-      <c r="I32" s="38" t="str">
-        <f t="shared" ca="1" si="17"/>
-        <v/>
-      </c>
-      <c r="J32" s="38" t="str">
-        <f t="shared" ca="1" si="17"/>
-        <v/>
-      </c>
-      <c r="K32" s="38" t="str">
-        <f t="shared" ca="1" si="17"/>
-        <v/>
-      </c>
-      <c r="L32" s="38" t="str">
-        <f t="shared" ca="1" si="17"/>
-        <v/>
-      </c>
-      <c r="M32" s="38" t="str">
-        <f t="shared" ca="1" si="17"/>
-        <v/>
-      </c>
-      <c r="N32" s="38" t="str">
-        <f t="shared" ca="1" si="17"/>
-        <v/>
-      </c>
-      <c r="O32" s="38" t="str">
-        <f t="shared" ca="1" si="17"/>
-        <v/>
-      </c>
-      <c r="P32" s="38" t="str">
-        <f t="shared" ca="1" si="17"/>
-        <v/>
-      </c>
-      <c r="Q32" s="38" t="str">
-        <f t="shared" ca="1" si="17"/>
-        <v/>
-      </c>
-      <c r="R32" s="38" t="str">
-        <f t="shared" ca="1" si="17"/>
-        <v/>
-      </c>
-      <c r="S32" s="38" t="str">
-        <f t="shared" ca="1" si="17"/>
-        <v/>
-      </c>
-      <c r="T32" s="38" t="str">
-        <f t="shared" ca="1" si="17"/>
-        <v/>
-      </c>
-      <c r="U32" s="38" t="str">
-        <f t="shared" ca="1" si="17"/>
-        <v/>
-      </c>
-      <c r="V32" s="38" t="str">
-        <f t="shared" ca="1" si="17"/>
-        <v/>
-      </c>
-      <c r="W32" s="38" t="str">
-        <f t="shared" ca="1" si="17"/>
-        <v/>
-      </c>
-      <c r="X32" s="38" t="str">
-        <f t="shared" ca="1" si="17"/>
-        <v/>
-      </c>
-      <c r="Y32" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="Z32" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="AA32" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="AB32" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="AC32" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="AD32" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="AE32" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="AF32" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="AG32" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="AH32" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="AI32" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="AJ32" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="AK32" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="AL32" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="AM32" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="AN32" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="AO32" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="AP32" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="AQ32" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="AR32" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="AS32" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="AT32" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="AU32" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="AV32" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="AW32" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="AX32" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="AY32" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="AZ32" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="BA32" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="BB32" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="BC32" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="BD32" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
-      <c r="BE32" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
-      <c r="BF32" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
-      <c r="BG32" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
-      <c r="BH32" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
-      <c r="BI32" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
-      <c r="BJ32" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
-      <c r="BK32" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
-      <c r="BL32" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
+      <c r="I32" s="38"/>
+      <c r="J32" s="38"/>
+      <c r="K32" s="38"/>
+      <c r="L32" s="38"/>
+      <c r="M32" s="38"/>
+      <c r="N32" s="38"/>
+      <c r="O32" s="38"/>
+      <c r="P32" s="38"/>
+      <c r="Q32" s="38"/>
+      <c r="R32" s="38"/>
+      <c r="S32" s="38"/>
+      <c r="T32" s="38"/>
+      <c r="U32" s="38"/>
+      <c r="V32" s="38"/>
+      <c r="W32" s="38"/>
+      <c r="X32" s="38"/>
+      <c r="Y32" s="38"/>
+      <c r="Z32" s="38"/>
+      <c r="AA32" s="38"/>
+      <c r="AB32" s="38"/>
+      <c r="AC32" s="38"/>
+      <c r="AD32" s="38"/>
+      <c r="AE32" s="38"/>
+      <c r="AF32" s="38"/>
+      <c r="AG32" s="38"/>
+      <c r="AH32" s="38"/>
+      <c r="AI32" s="38"/>
+      <c r="AJ32" s="38"/>
+      <c r="AK32" s="38"/>
+      <c r="AL32" s="38"/>
+      <c r="AM32" s="38"/>
+      <c r="AN32" s="38"/>
+      <c r="AO32" s="38"/>
+      <c r="AP32" s="38"/>
+      <c r="AQ32" s="38"/>
+      <c r="AR32" s="38"/>
+      <c r="AS32" s="38"/>
+      <c r="AT32" s="38"/>
+      <c r="AU32" s="38"/>
+      <c r="AV32" s="38"/>
+      <c r="AW32" s="38"/>
+      <c r="AX32" s="38"/>
+      <c r="AY32" s="38"/>
+      <c r="AZ32" s="38"/>
+      <c r="BA32" s="38"/>
+      <c r="BB32" s="38"/>
+      <c r="BC32" s="38"/>
+      <c r="BD32" s="38"/>
+      <c r="BE32" s="38"/>
+      <c r="BF32" s="38"/>
+      <c r="BG32" s="38"/>
+      <c r="BH32" s="38"/>
+      <c r="BI32" s="38"/>
+      <c r="BJ32" s="38"/>
+      <c r="BK32" s="38"/>
+      <c r="BL32" s="38"/>
     </row>
     <row r="33" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="14" t="s">
@@ -8277,227 +7603,227 @@
       <c r="G33" s="33"/>
       <c r="H33" s="26"/>
       <c r="I33" s="38" t="str">
+        <f t="shared" ref="I27:X33" ca="1" si="22">IF(AND($C33="Goal",I$5&gt;=$F33,I$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",I$5&gt;=$F33,I$5&lt;=$F33+$G33-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="J33" s="38" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="K33" s="38" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="L33" s="38" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="M33" s="38" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="N33" s="38" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="O33" s="38" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="P33" s="38" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="Q33" s="38" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="R33" s="38" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="S33" s="38" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="T33" s="38" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="U33" s="38" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="V33" s="38" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="W33" s="38" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="X33" s="38" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="Y33" s="38" t="str">
+        <f t="shared" ref="Y24:AM33" ca="1" si="23">IF(AND($C33="Goal",Y$5&gt;=$F33,Y$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",Y$5&gt;=$F33,Y$5&lt;=$F33+$G33-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="Z33" s="38" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="AA33" s="38" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="AB33" s="38" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="AC33" s="38" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="AD33" s="38" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="AE33" s="38" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="AF33" s="38" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="AG33" s="38" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="AH33" s="38" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="AI33" s="38" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="AJ33" s="38" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="AK33" s="38" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="AL33" s="38" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="AM33" s="38" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="AN33" s="38" t="str">
+        <f t="shared" ref="AN24:BC33" ca="1" si="24">IF(AND($C33="Goal",AN$5&gt;=$F33,AN$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AN$5&gt;=$F33,AN$5&lt;=$F33+$G33-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AO33" s="38" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+      <c r="AP33" s="38" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+      <c r="AQ33" s="38" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+      <c r="AR33" s="38" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+      <c r="AS33" s="38" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+      <c r="AT33" s="38" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+      <c r="AU33" s="38" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+      <c r="AV33" s="38" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+      <c r="AW33" s="38" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+      <c r="AX33" s="38" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+      <c r="AY33" s="38" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+      <c r="AZ33" s="38" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+      <c r="BA33" s="38" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+      <c r="BB33" s="38" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+      <c r="BC33" s="38" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+      <c r="BD33" s="38" t="str">
         <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
-      <c r="J33" s="38" t="str">
+      <c r="BE33" s="38" t="str">
         <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
-      <c r="K33" s="38" t="str">
+      <c r="BF33" s="38" t="str">
         <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
-      <c r="L33" s="38" t="str">
+      <c r="BG33" s="38" t="str">
         <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
-      <c r="M33" s="38" t="str">
+      <c r="BH33" s="38" t="str">
         <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
-      <c r="N33" s="38" t="str">
+      <c r="BI33" s="38" t="str">
         <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
-      <c r="O33" s="38" t="str">
+      <c r="BJ33" s="38" t="str">
         <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
-      <c r="P33" s="38" t="str">
+      <c r="BK33" s="38" t="str">
         <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
-      <c r="Q33" s="38" t="str">
+      <c r="BL33" s="38" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v/>
-      </c>
-      <c r="R33" s="38" t="str">
-        <f t="shared" ca="1" si="17"/>
-        <v/>
-      </c>
-      <c r="S33" s="38" t="str">
-        <f t="shared" ca="1" si="17"/>
-        <v/>
-      </c>
-      <c r="T33" s="38" t="str">
-        <f t="shared" ca="1" si="17"/>
-        <v/>
-      </c>
-      <c r="U33" s="38" t="str">
-        <f t="shared" ca="1" si="17"/>
-        <v/>
-      </c>
-      <c r="V33" s="38" t="str">
-        <f t="shared" ca="1" si="17"/>
-        <v/>
-      </c>
-      <c r="W33" s="38" t="str">
-        <f t="shared" ca="1" si="17"/>
-        <v/>
-      </c>
-      <c r="X33" s="38" t="str">
-        <f t="shared" ca="1" si="17"/>
-        <v/>
-      </c>
-      <c r="Y33" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="Z33" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="AA33" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="AB33" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="AC33" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="AD33" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="AE33" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="AF33" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="AG33" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="AH33" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="AI33" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="AJ33" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="AK33" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="AL33" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="AM33" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="AN33" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="AO33" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="AP33" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="AQ33" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="AR33" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="AS33" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="AT33" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="AU33" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="AV33" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="AW33" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="AX33" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="AY33" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="AZ33" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="BA33" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="BB33" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="BC33" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="BD33" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
-      <c r="BE33" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
-      <c r="BF33" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
-      <c r="BG33" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
-      <c r="BH33" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
-      <c r="BI33" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
-      <c r="BJ33" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
-      <c r="BK33" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
-      <c r="BL33" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
     </row>
@@ -8591,8 +7917,8 @@
     <mergeCell ref="N2:Q2"/>
     <mergeCell ref="S2:V2"/>
   </mergeCells>
-  <conditionalFormatting sqref="E7:E33">
-    <cfRule type="dataBar" priority="8">
+  <conditionalFormatting sqref="E7:E12 E14:E17 E19:E33">
+    <cfRule type="dataBar" priority="17">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8605,58 +7931,108 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:BL34">
-    <cfRule type="expression" dxfId="16" priority="1">
+  <conditionalFormatting sqref="I5:BL17 I19:BL34">
+    <cfRule type="expression" dxfId="5" priority="10">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:AM4">
-    <cfRule type="expression" dxfId="15" priority="7">
+    <cfRule type="expression" dxfId="19" priority="16">
       <formula>I$5&lt;=EOMONTH($I$5,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:BL4">
-    <cfRule type="expression" dxfId="14" priority="3">
+    <cfRule type="expression" dxfId="18" priority="12">
       <formula>AND(J$5&lt;=EOMONTH($I$5,2),J$5&gt;EOMONTH($I$5,0),J$5&gt;EOMONTH($I$5,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:BL4">
-    <cfRule type="expression" dxfId="13" priority="2">
+    <cfRule type="expression" dxfId="17" priority="11">
       <formula>AND(I$5&lt;=EOMONTH($I$5,1),I$5&gt;EOMONTH($I$5,0))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I8:BL33">
-    <cfRule type="expression" dxfId="12" priority="24" stopIfTrue="1">
+  <conditionalFormatting sqref="I8:BL17 I19:BL33">
+    <cfRule type="expression" dxfId="4" priority="33" stopIfTrue="1">
       <formula>AND($C8="Low Risk",I$5&gt;=$F8,I$5&lt;=$F8+$G8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="43" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="52" stopIfTrue="1">
       <formula>AND($C8="High Risk",I$5&gt;=$F8,I$5&lt;=$F8+$G8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="61" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="70" stopIfTrue="1">
       <formula>AND($C8="On Track",I$5&gt;=$F8,I$5&lt;=$F8+$G8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="62" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="71" stopIfTrue="1">
       <formula>AND($C8="Med Risk",I$5&gt;=$F8,I$5&lt;=$F8+$G8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="63" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="72" stopIfTrue="1">
       <formula>AND(LEN($C8)=0,I$5&gt;=$F8,I$5&lt;=$F8+$G8-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I34:BL34">
-    <cfRule type="expression" dxfId="7" priority="71" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="80" stopIfTrue="1">
       <formula>AND(#REF!="Low Risk",I$5&gt;=#REF!,I$5&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="72" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="81" stopIfTrue="1">
       <formula>AND(#REF!="High Risk",I$5&gt;=#REF!,I$5&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="73" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="82" stopIfTrue="1">
       <formula>AND(#REF!="On Track",I$5&gt;=#REF!,I$5&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="74" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="83" stopIfTrue="1">
       <formula>AND(#REF!="Med Risk",I$5&gt;=#REF!,I$5&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="75" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="84" stopIfTrue="1">
       <formula>AND(LEN(#REF!)=0,I$5&gt;=#REF!,I$5&lt;=#REF!+#REF!-1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13">
+    <cfRule type="dataBar" priority="9">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{0B5D5A99-1751-4446-B5AA-2E3FB09EE240}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E17:E20">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{FFF435D4-D151-44AF-AB89-2D91D437542C}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I17:BL20">
+    <cfRule type="expression" dxfId="11" priority="1">
+      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I17:BL20">
+    <cfRule type="expression" dxfId="10" priority="4" stopIfTrue="1">
+      <formula>AND($C17="Low Risk",I$5&gt;=$F17,I$5&lt;=$F17+$G17-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="5" stopIfTrue="1">
+      <formula>AND($C17="High Risk",I$5&gt;=$F17,I$5&lt;=$F17+$G17-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="6" stopIfTrue="1">
+      <formula>AND($C17="On Track",I$5&gt;=$F17,I$5&lt;=$F17+$G17-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="7" stopIfTrue="1">
+      <formula>AND($C17="Med Risk",I$5&gt;=$F17,I$5&lt;=$F17+$G17-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="8" stopIfTrue="1">
+      <formula>AND(LEN($C17)=0,I$5&gt;=$F17,I$5&lt;=$F17+$G17-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
@@ -8725,10 +8101,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E7:E33</xm:sqref>
+          <xm:sqref>E7:E12 E14:E17 E19:E33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="9" id="{628A03C6-EE71-4B44-A6BA-69DC45906EA6}">
+          <x14:cfRule type="iconSet" priority="18" id="{628A03C6-EE71-4B44-A6BA-69DC45906EA6}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8744,10 +8120,10 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>I8:BL33</xm:sqref>
+          <xm:sqref>I8:BL17 I19:BL33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="70" id="{628A03C6-EE71-4B44-A6BA-69DC45906EA6}">
+          <x14:cfRule type="iconSet" priority="79" id="{628A03C6-EE71-4B44-A6BA-69DC45906EA6}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8764,6 +8140,55 @@
             </x14:iconSet>
           </x14:cfRule>
           <xm:sqref>I34:BL34</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{0B5D5A99-1751-4446-B5AA-2E3FB09EE240}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E13</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{FFF435D4-D151-44AF-AB89-2D91D437542C}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E17:E20</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="3" id="{163926B5-BB45-4DD9-A8F8-2E4A4786F05F}">
+            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="1"/>
+              <x14:cfIcon iconSet="3Signs" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>I17:BL20</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/Group Nine Gantt.xlsx
+++ b/Group Nine Gantt.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="27" documentId="8_{19ACA758-D7B1-4F98-AB87-3986D6EA366C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B3E21243-04BD-4858-BC49-18387EA735F7}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{19ACA758-D7B1-4F98-AB87-3986D6EA366C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{97EFA1E7-6B4F-451B-8789-8BCB460BAF28}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="13096" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="53">
   <si>
     <t>About This Template</t>
   </si>
@@ -206,6 +206,9 @@
     <t>Functions</t>
   </si>
   <si>
+    <t>Home Page</t>
+  </si>
+  <si>
     <t>Alan</t>
   </si>
   <si>
@@ -213,18 +216,6 @@
   </si>
   <si>
     <t>Graphic Design</t>
-  </si>
-  <si>
-    <t>Use Case Chart</t>
-  </si>
-  <si>
-    <t>ERD</t>
-  </si>
-  <si>
-    <t>Aaron</t>
-  </si>
-  <si>
-    <t>Contact Page</t>
   </si>
 </sst>
 </file>
@@ -804,132 +795,15 @@
     <cellStyle name="Title" xfId="5" builtinId="15" customBuiltin="1"/>
     <cellStyle name="zHiddenText" xfId="3" xr:uid="{26E66EE6-E33F-4D77-BAE4-0FB4F5BBF673}"/>
   </cellStyles>
-  <dxfs count="35">
+  <dxfs count="29">
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="2" tint="-9.9948118533890809E-2"/>
-        </left>
-        <right style="thin">
-          <color theme="2" tint="-9.9948118533890809E-2"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="4"/>
-        </left>
-        <right style="thin">
-          <color theme="4"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="7" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="7" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="6"/>
-        </left>
-        <right style="thin">
-          <color theme="6"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -1038,23 +912,6 @@
         <bottom style="thin">
           <color theme="0"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1214,13 +1071,21 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <border>
@@ -1367,20 +1232,20 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="Gantt Table Style" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Gantt Table Style" pivot="0" count="3" xr9:uid="{4904D139-63E4-4221-B7C9-C6C5B7A50FAF}">
-      <tableStyleElement type="wholeTable" dxfId="34"/>
-      <tableStyleElement type="headerRow" dxfId="33"/>
-      <tableStyleElement type="firstRowStripe" dxfId="32"/>
+      <tableStyleElement type="wholeTable" dxfId="28"/>
+      <tableStyleElement type="headerRow" dxfId="27"/>
+      <tableStyleElement type="firstRowStripe" dxfId="26"/>
     </tableStyle>
     <tableStyle name="ToDoList" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="31"/>
-      <tableStyleElement type="headerRow" dxfId="30"/>
-      <tableStyleElement type="totalRow" dxfId="29"/>
-      <tableStyleElement type="firstColumn" dxfId="28"/>
-      <tableStyleElement type="lastColumn" dxfId="27"/>
-      <tableStyleElement type="firstRowStripe" dxfId="26"/>
-      <tableStyleElement type="secondRowStripe" dxfId="25"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="24"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="23"/>
+      <tableStyleElement type="wholeTable" dxfId="25"/>
+      <tableStyleElement type="headerRow" dxfId="24"/>
+      <tableStyleElement type="totalRow" dxfId="23"/>
+      <tableStyleElement type="firstColumn" dxfId="22"/>
+      <tableStyleElement type="lastColumn" dxfId="21"/>
+      <tableStyleElement type="firstRowStripe" dxfId="20"/>
+      <tableStyleElement type="secondRowStripe" dxfId="19"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="18"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="17"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1543,9 +1408,9 @@
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{EE48C34E-B98C-4BBA-90C8-388E8655DD6D}" name="Milestone Description" dataDxfId="22"/>
-    <tableColumn id="2" xr3:uid="{B8ACC97F-C189-49BA-91CF-CB5671185BCF}" name="Category" dataDxfId="21"/>
-    <tableColumn id="3" xr3:uid="{5419FA1B-A035-4F0A-9257-1AA4BCB5E6CF}" name="Assigned To" dataDxfId="20"/>
+    <tableColumn id="1" xr3:uid="{EE48C34E-B98C-4BBA-90C8-388E8655DD6D}" name="Milestone Description" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{B8ACC97F-C189-49BA-91CF-CB5671185BCF}" name="Category" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{5419FA1B-A035-4F0A-9257-1AA4BCB5E6CF}" name="Assigned To" dataDxfId="0"/>
     <tableColumn id="4" xr3:uid="{A60A6524-18F0-48B7-BB3C-2F4A35799FF7}" name="Progress"/>
     <tableColumn id="5" xr3:uid="{59612C1F-9AAB-483B-A6A5-3563E9D77941}" name="Start" dataCellStyle="Date"/>
     <tableColumn id="6" xr3:uid="{012C59F1-49D4-4A67-B8DD-855C6581FD6A}" name="No. Days" dataCellStyle="Comma [0]"/>
@@ -1827,8 +1692,8 @@
   </sheetPr>
   <dimension ref="A1:BL36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A7" zoomScale="47" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A3" zoomScale="47" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1850,7 +1715,7 @@
         <v>26</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C1" s="17"/>
       <c r="D1" s="1"/>
@@ -2910,7 +2775,8 @@
         <v>1</v>
       </c>
       <c r="F10" s="32">
-        <v>43962</v>
+        <f ca="1">TODAY()</f>
+        <v>43970</v>
       </c>
       <c r="G10" s="33">
         <v>12</v>
@@ -3385,24 +3251,12 @@
     </row>
     <row r="12" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="14"/>
-      <c r="B12" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="C12" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="E12" s="31">
-        <v>1</v>
-      </c>
-      <c r="F12" s="32">
-        <v>43972</v>
-      </c>
-      <c r="G12" s="33">
-        <v>1</v>
-      </c>
+      <c r="B12" s="41"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="33"/>
       <c r="H12" s="26"/>
       <c r="I12" s="38" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -3631,22 +3485,14 @@
     </row>
     <row r="13" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="14"/>
-      <c r="B13" s="41" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" s="34" t="s">
-        <v>12</v>
-      </c>
+      <c r="B13" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="34"/>
       <c r="D13" s="34"/>
-      <c r="E13" s="31">
-        <v>0</v>
-      </c>
-      <c r="F13" s="32">
-        <v>43962</v>
-      </c>
-      <c r="G13" s="33">
-        <v>18</v>
-      </c>
+      <c r="E13" s="31"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="33"/>
       <c r="H13" s="26"/>
       <c r="I13" s="38" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -3837,7 +3683,7 @@
         <v/>
       </c>
       <c r="BD13" s="38" t="str">
-        <f t="shared" ref="BD13:BD18" ca="1" si="13">IF(AND($C13="Goal",BD$5&gt;=$F13,BD$5&lt;=$F13+$G13-1),2,IF(AND($C13="Milestone",BD$5&gt;=$F13,BD$5&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" ref="BD13:BL18" ca="1" si="13">IF(AND($C13="Goal",BD$5&gt;=$F13,BD$5&lt;=$F13+$G13-1),2,IF(AND($C13="Milestone",BD$5&gt;=$F13,BD$5&lt;=$F13+$G13-1),1,""))</f>
         <v/>
       </c>
       <c r="BE13" s="38" t="str">
@@ -3875,75 +3721,87 @@
     </row>
     <row r="14" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="14"/>
-      <c r="B14" s="42"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="33"/>
+      <c r="B14" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="31">
+        <v>0</v>
+      </c>
+      <c r="F14" s="32">
+        <v>43962</v>
+      </c>
+      <c r="G14" s="33">
+        <v>13</v>
+      </c>
       <c r="H14" s="26"/>
       <c r="I14" s="38" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="J14" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="K14" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="L14" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="M14" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="N14" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="O14" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="P14" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="Q14" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="R14" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="S14" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="T14" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="U14" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="V14" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="W14" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="X14" s="38" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="Y14" s="38" t="str">
@@ -4109,77 +3967,87 @@
     </row>
     <row r="15" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="15"/>
-      <c r="B15" s="42" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="33"/>
+      <c r="B15" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="31">
+        <v>0</v>
+      </c>
+      <c r="F15" s="32">
+        <v>43962</v>
+      </c>
+      <c r="G15" s="33">
+        <v>13</v>
+      </c>
       <c r="H15" s="26"/>
       <c r="I15" s="38" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="J15" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="K15" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="L15" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="M15" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="N15" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="O15" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="P15" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="Q15" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="R15" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="S15" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="T15" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="U15" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="V15" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="W15" s="38" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="X15" s="38" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="Y15" s="38" t="str">
@@ -4345,24 +4213,12 @@
     </row>
     <row r="16" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="15"/>
-      <c r="B16" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="E16" s="31">
-        <v>0.75</v>
-      </c>
-      <c r="F16" s="32">
-        <v>43962</v>
-      </c>
-      <c r="G16" s="33">
-        <v>13</v>
-      </c>
+      <c r="B16" s="41"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="33"/>
       <c r="H16" s="26"/>
       <c r="I16" s="38" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -4591,24 +4447,12 @@
     </row>
     <row r="17" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="14"/>
-      <c r="B17" s="41" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="E17" s="31">
-        <v>0.9</v>
-      </c>
-      <c r="F17" s="32">
-        <v>43962</v>
-      </c>
-      <c r="G17" s="33">
-        <v>13</v>
-      </c>
+      <c r="B17" s="41"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="33"/>
       <c r="H17" s="26"/>
       <c r="I17" s="38" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -4837,75 +4681,241 @@
     </row>
     <row r="18" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="14"/>
-      <c r="B18" s="42"/>
+      <c r="B18" s="41"/>
       <c r="C18" s="34"/>
       <c r="D18" s="34"/>
       <c r="E18" s="31"/>
       <c r="F18" s="32"/>
       <c r="G18" s="33"/>
       <c r="H18" s="26"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="38"/>
-      <c r="K18" s="38"/>
-      <c r="L18" s="38"/>
-      <c r="M18" s="38"/>
-      <c r="N18" s="38"/>
-      <c r="O18" s="38"/>
-      <c r="P18" s="38"/>
-      <c r="Q18" s="38"/>
-      <c r="R18" s="38"/>
-      <c r="S18" s="38"/>
-      <c r="T18" s="38"/>
-      <c r="U18" s="38"/>
-      <c r="V18" s="38"/>
-      <c r="W18" s="38"/>
-      <c r="X18" s="38"/>
-      <c r="Y18" s="38"/>
-      <c r="Z18" s="38"/>
-      <c r="AA18" s="38"/>
-      <c r="AB18" s="38"/>
-      <c r="AC18" s="38"/>
-      <c r="AD18" s="38"/>
-      <c r="AE18" s="38"/>
-      <c r="AF18" s="38"/>
-      <c r="AG18" s="38"/>
-      <c r="AH18" s="38"/>
-      <c r="AI18" s="38"/>
-      <c r="AJ18" s="38"/>
-      <c r="AK18" s="38"/>
-      <c r="AL18" s="38"/>
-      <c r="AM18" s="38"/>
-      <c r="AN18" s="38"/>
-      <c r="AO18" s="38"/>
-      <c r="AP18" s="38"/>
-      <c r="AQ18" s="38"/>
-      <c r="AR18" s="38"/>
-      <c r="AS18" s="38"/>
-      <c r="AT18" s="38"/>
-      <c r="AU18" s="38"/>
-      <c r="AV18" s="38"/>
-      <c r="AW18" s="38"/>
-      <c r="AX18" s="38"/>
-      <c r="AY18" s="38"/>
-      <c r="AZ18" s="38"/>
-      <c r="BA18" s="38"/>
-      <c r="BB18" s="38"/>
-      <c r="BC18" s="38"/>
-      <c r="BD18" s="38"/>
-      <c r="BE18" s="38"/>
-      <c r="BF18" s="38"/>
-      <c r="BG18" s="38"/>
-      <c r="BH18" s="38"/>
-      <c r="BI18" s="38"/>
-      <c r="BJ18" s="38"/>
-      <c r="BK18" s="38"/>
-      <c r="BL18" s="38"/>
+      <c r="I18" s="38" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="J18" s="38" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="K18" s="38" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="L18" s="38" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="M18" s="38" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="N18" s="38" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="O18" s="38" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="P18" s="38" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="Q18" s="38" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="R18" s="38" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="S18" s="38" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="T18" s="38" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="U18" s="38" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="V18" s="38" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="W18" s="38" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="X18" s="38" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="Y18" s="38" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="Z18" s="38" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AA18" s="38" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AB18" s="38" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AC18" s="38" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AD18" s="38" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AE18" s="38" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AF18" s="38" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AG18" s="38" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AH18" s="38" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AI18" s="38" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AJ18" s="38" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AK18" s="38" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AL18" s="38" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AM18" s="38" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AN18" s="38" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="AO18" s="38" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="AP18" s="38" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="AQ18" s="38" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="AR18" s="38" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="AS18" s="38" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="AT18" s="38" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="AU18" s="38" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="AV18" s="38" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="AW18" s="38" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="AX18" s="38" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="AY18" s="38" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="AZ18" s="38" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="BA18" s="38" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="BB18" s="38" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="BC18" s="38" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="BD18" s="38" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="BE18" s="38" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+      <c r="BF18" s="38" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+      <c r="BG18" s="38" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+      <c r="BH18" s="38" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+      <c r="BI18" s="38" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+      <c r="BJ18" s="38" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+      <c r="BK18" s="38" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+      <c r="BL18" s="38" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
     </row>
     <row r="19" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="14"/>
-      <c r="B19" s="42" t="s">
-        <v>41</v>
-      </c>
+      <c r="B19" s="41"/>
       <c r="C19" s="34"/>
       <c r="D19" s="34"/>
       <c r="E19" s="31"/>
@@ -4913,2683 +4923,3347 @@
       <c r="G19" s="33"/>
       <c r="H19" s="26"/>
       <c r="I19" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",I$5&gt;=$F19,I$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",I$5&gt;=$F19,I$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="J19" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",J$5&gt;=$F19,J$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",J$5&gt;=$F19,J$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="K19" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",K$5&gt;=$F19,K$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",K$5&gt;=$F19,K$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="L19" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",L$5&gt;=$F19,L$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",L$5&gt;=$F19,L$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="M19" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",M$5&gt;=$F19,M$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",M$5&gt;=$F19,M$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="N19" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",N$5&gt;=$F19,N$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",N$5&gt;=$F19,N$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="O19" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",O$5&gt;=$F19,O$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",O$5&gt;=$F19,O$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="P19" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",P$5&gt;=$F19,P$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",P$5&gt;=$F19,P$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="Q19" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",Q$5&gt;=$F19,Q$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",Q$5&gt;=$F19,Q$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="R19" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",R$5&gt;=$F19,R$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",R$5&gt;=$F19,R$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="S19" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",S$5&gt;=$F19,S$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",S$5&gt;=$F19,S$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="T19" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",T$5&gt;=$F19,T$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",T$5&gt;=$F19,T$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="U19" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",U$5&gt;=$F19,U$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",U$5&gt;=$F19,U$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="V19" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",V$5&gt;=$F19,V$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",V$5&gt;=$F19,V$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="W19" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",W$5&gt;=$F19,W$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",W$5&gt;=$F19,W$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="X19" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",X$5&gt;=$F19,X$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",X$5&gt;=$F19,X$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="Y19" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",Y$5&gt;=$F19,Y$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",Y$5&gt;=$F19,Y$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="Z19" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",Z$5&gt;=$F19,Z$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",Z$5&gt;=$F19,Z$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AA19" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",AA$5&gt;=$F19,AA$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AA$5&gt;=$F19,AA$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AB19" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",AB$5&gt;=$F19,AB$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AB$5&gt;=$F19,AB$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AC19" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",AC$5&gt;=$F19,AC$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AC$5&gt;=$F19,AC$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AD19" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",AD$5&gt;=$F19,AD$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AD$5&gt;=$F19,AD$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AE19" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",AE$5&gt;=$F19,AE$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AE$5&gt;=$F19,AE$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AF19" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",AF$5&gt;=$F19,AF$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AF$5&gt;=$F19,AF$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AG19" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",AG$5&gt;=$F19,AG$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AG$5&gt;=$F19,AG$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AH19" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",AH$5&gt;=$F19,AH$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AH$5&gt;=$F19,AH$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AI19" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",AI$5&gt;=$F19,AI$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AI$5&gt;=$F19,AI$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AJ19" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",AJ$5&gt;=$F19,AJ$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AJ$5&gt;=$F19,AJ$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AK19" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",AK$5&gt;=$F19,AK$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AK$5&gt;=$F19,AK$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AL19" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",AL$5&gt;=$F19,AL$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AL$5&gt;=$F19,AL$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AM19" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",AM$5&gt;=$F19,AM$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AM$5&gt;=$F19,AM$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AN19" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",AN$5&gt;=$F19,AN$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AN$5&gt;=$F19,AN$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AO19" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",AO$5&gt;=$F19,AO$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AO$5&gt;=$F19,AO$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AP19" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",AP$5&gt;=$F19,AP$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AP$5&gt;=$F19,AP$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AQ19" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",AQ$5&gt;=$F19,AQ$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AQ$5&gt;=$F19,AQ$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AR19" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",AR$5&gt;=$F19,AR$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AR$5&gt;=$F19,AR$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AS19" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",AS$5&gt;=$F19,AS$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AS$5&gt;=$F19,AS$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AT19" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",AT$5&gt;=$F19,AT$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AT$5&gt;=$F19,AT$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AU19" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",AU$5&gt;=$F19,AU$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AU$5&gt;=$F19,AU$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AV19" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",AV$5&gt;=$F19,AV$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AV$5&gt;=$F19,AV$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AW19" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",AW$5&gt;=$F19,AW$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AW$5&gt;=$F19,AW$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AX19" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",AX$5&gt;=$F19,AX$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AX$5&gt;=$F19,AX$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AY19" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",AY$5&gt;=$F19,AY$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AY$5&gt;=$F19,AY$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AZ19" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",AZ$5&gt;=$F19,AZ$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AZ$5&gt;=$F19,AZ$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="BA19" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",BA$5&gt;=$F19,BA$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",BA$5&gt;=$F19,BA$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="BB19" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",BB$5&gt;=$F19,BB$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",BB$5&gt;=$F19,BB$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="BC19" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",BC$5&gt;=$F19,BC$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",BC$5&gt;=$F19,BC$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="BD19" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",BD$5&gt;=$F19,BD$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",BD$5&gt;=$F19,BD$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="BE19" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",BE$5&gt;=$F19,BE$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",BE$5&gt;=$F19,BE$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="BF19" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",BF$5&gt;=$F19,BF$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",BF$5&gt;=$F19,BF$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="BG19" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",BG$5&gt;=$F19,BG$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",BG$5&gt;=$F19,BG$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="BH19" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",BH$5&gt;=$F19,BH$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",BH$5&gt;=$F19,BH$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="BI19" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",BI$5&gt;=$F19,BI$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",BI$5&gt;=$F19,BI$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="BJ19" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",BJ$5&gt;=$F19,BJ$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",BJ$5&gt;=$F19,BJ$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="BK19" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",BK$5&gt;=$F19,BK$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",BK$5&gt;=$F19,BK$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="BL19" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",BL$5&gt;=$F19,BL$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",BL$5&gt;=$F19,BL$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
     </row>
     <row r="20" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="14"/>
-      <c r="B20" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="E20" s="31">
-        <v>1</v>
-      </c>
-      <c r="F20" s="32">
-        <v>43962</v>
-      </c>
-      <c r="G20" s="33">
-        <v>1</v>
-      </c>
+      <c r="B20" s="41"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="33"/>
       <c r="H20" s="26"/>
       <c r="I20" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",I$5&gt;=$F20,I$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",I$5&gt;=$F20,I$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="J20" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",J$5&gt;=$F20,J$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",J$5&gt;=$F20,J$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="K20" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",K$5&gt;=$F20,K$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",K$5&gt;=$F20,K$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="L20" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",L$5&gt;=$F20,L$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",L$5&gt;=$F20,L$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="M20" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",M$5&gt;=$F20,M$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",M$5&gt;=$F20,M$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="N20" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",N$5&gt;=$F20,N$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",N$5&gt;=$F20,N$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="O20" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",O$5&gt;=$F20,O$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",O$5&gt;=$F20,O$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="P20" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",P$5&gt;=$F20,P$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",P$5&gt;=$F20,P$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="Q20" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",Q$5&gt;=$F20,Q$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",Q$5&gt;=$F20,Q$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="R20" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",R$5&gt;=$F20,R$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",R$5&gt;=$F20,R$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="S20" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",S$5&gt;=$F20,S$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",S$5&gt;=$F20,S$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="T20" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",T$5&gt;=$F20,T$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",T$5&gt;=$F20,T$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="U20" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",U$5&gt;=$F20,U$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",U$5&gt;=$F20,U$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="V20" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",V$5&gt;=$F20,V$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",V$5&gt;=$F20,V$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="W20" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",W$5&gt;=$F20,W$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",W$5&gt;=$F20,W$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="X20" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",X$5&gt;=$F20,X$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",X$5&gt;=$F20,X$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="Y20" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",Y$5&gt;=$F20,Y$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",Y$5&gt;=$F20,Y$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="Z20" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",Z$5&gt;=$F20,Z$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",Z$5&gt;=$F20,Z$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AA20" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",AA$5&gt;=$F20,AA$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AA$5&gt;=$F20,AA$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AB20" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",AB$5&gt;=$F20,AB$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AB$5&gt;=$F20,AB$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AC20" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",AC$5&gt;=$F20,AC$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AC$5&gt;=$F20,AC$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AD20" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",AD$5&gt;=$F20,AD$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AD$5&gt;=$F20,AD$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AE20" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",AE$5&gt;=$F20,AE$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AE$5&gt;=$F20,AE$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AF20" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",AF$5&gt;=$F20,AF$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AF$5&gt;=$F20,AF$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AG20" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",AG$5&gt;=$F20,AG$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AG$5&gt;=$F20,AG$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AH20" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",AH$5&gt;=$F20,AH$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AH$5&gt;=$F20,AH$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AI20" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",AI$5&gt;=$F20,AI$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AI$5&gt;=$F20,AI$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AJ20" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",AJ$5&gt;=$F20,AJ$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AJ$5&gt;=$F20,AJ$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AK20" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",AK$5&gt;=$F20,AK$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AK$5&gt;=$F20,AK$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AL20" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",AL$5&gt;=$F20,AL$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AL$5&gt;=$F20,AL$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AM20" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",AM$5&gt;=$F20,AM$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AM$5&gt;=$F20,AM$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AN20" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",AN$5&gt;=$F20,AN$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AN$5&gt;=$F20,AN$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AO20" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",AO$5&gt;=$F20,AO$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AO$5&gt;=$F20,AO$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AP20" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",AP$5&gt;=$F20,AP$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AP$5&gt;=$F20,AP$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AQ20" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",AQ$5&gt;=$F20,AQ$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AQ$5&gt;=$F20,AQ$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AR20" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",AR$5&gt;=$F20,AR$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AR$5&gt;=$F20,AR$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AS20" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",AS$5&gt;=$F20,AS$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AS$5&gt;=$F20,AS$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AT20" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",AT$5&gt;=$F20,AT$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AT$5&gt;=$F20,AT$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AU20" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",AU$5&gt;=$F20,AU$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AU$5&gt;=$F20,AU$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AV20" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",AV$5&gt;=$F20,AV$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AV$5&gt;=$F20,AV$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AW20" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",AW$5&gt;=$F20,AW$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AW$5&gt;=$F20,AW$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AX20" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",AX$5&gt;=$F20,AX$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AX$5&gt;=$F20,AX$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AY20" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",AY$5&gt;=$F20,AY$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AY$5&gt;=$F20,AY$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AZ20" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",AZ$5&gt;=$F20,AZ$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AZ$5&gt;=$F20,AZ$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="BA20" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",BA$5&gt;=$F20,BA$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",BA$5&gt;=$F20,BA$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="BB20" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",BB$5&gt;=$F20,BB$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",BB$5&gt;=$F20,BB$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="BC20" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",BC$5&gt;=$F20,BC$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",BC$5&gt;=$F20,BC$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="BD20" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",BD$5&gt;=$F20,BD$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",BD$5&gt;=$F20,BD$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="BE20" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",BE$5&gt;=$F20,BE$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",BE$5&gt;=$F20,BE$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="BF20" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",BF$5&gt;=$F20,BF$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",BF$5&gt;=$F20,BF$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="BG20" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",BG$5&gt;=$F20,BG$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",BG$5&gt;=$F20,BG$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="BH20" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",BH$5&gt;=$F20,BH$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",BH$5&gt;=$F20,BH$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="BI20" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",BI$5&gt;=$F20,BI$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",BI$5&gt;=$F20,BI$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="BJ20" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",BJ$5&gt;=$F20,BJ$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",BJ$5&gt;=$F20,BJ$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="BK20" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",BK$5&gt;=$F20,BK$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",BK$5&gt;=$F20,BK$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="BL20" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",BL$5&gt;=$F20,BL$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",BL$5&gt;=$F20,BL$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
     </row>
     <row r="21" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="14"/>
-      <c r="B21" s="41" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="E21" s="31">
-        <v>1</v>
-      </c>
-      <c r="F21" s="32">
-        <v>43962</v>
-      </c>
-      <c r="G21" s="33">
-        <v>13</v>
-      </c>
+      <c r="B21" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="33"/>
       <c r="H21" s="26"/>
       <c r="I21" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",I$5&gt;=$F21,I$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",I$5&gt;=$F21,I$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="J21" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",J$5&gt;=$F21,J$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",J$5&gt;=$F21,J$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="K21" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",K$5&gt;=$F21,K$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",K$5&gt;=$F21,K$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="L21" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",L$5&gt;=$F21,L$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",L$5&gt;=$F21,L$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="M21" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",M$5&gt;=$F21,M$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",M$5&gt;=$F21,M$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="N21" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",N$5&gt;=$F21,N$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",N$5&gt;=$F21,N$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="O21" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",O$5&gt;=$F21,O$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",O$5&gt;=$F21,O$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="P21" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",P$5&gt;=$F21,P$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",P$5&gt;=$F21,P$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="Q21" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",Q$5&gt;=$F21,Q$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",Q$5&gt;=$F21,Q$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="R21" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",R$5&gt;=$F21,R$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",R$5&gt;=$F21,R$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="S21" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",S$5&gt;=$F21,S$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",S$5&gt;=$F21,S$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="T21" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",T$5&gt;=$F21,T$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",T$5&gt;=$F21,T$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="U21" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",U$5&gt;=$F21,U$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",U$5&gt;=$F21,U$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="V21" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",V$5&gt;=$F21,V$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",V$5&gt;=$F21,V$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="W21" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",W$5&gt;=$F21,W$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",W$5&gt;=$F21,W$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="X21" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",X$5&gt;=$F21,X$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",X$5&gt;=$F21,X$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="Y21" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",Y$5&gt;=$F21,Y$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",Y$5&gt;=$F21,Y$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="Z21" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",Z$5&gt;=$F21,Z$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",Z$5&gt;=$F21,Z$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AA21" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",AA$5&gt;=$F21,AA$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AA$5&gt;=$F21,AA$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AB21" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",AB$5&gt;=$F21,AB$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AB$5&gt;=$F21,AB$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AC21" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",AC$5&gt;=$F21,AC$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AC$5&gt;=$F21,AC$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AD21" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",AD$5&gt;=$F21,AD$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AD$5&gt;=$F21,AD$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AE21" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",AE$5&gt;=$F21,AE$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AE$5&gt;=$F21,AE$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AF21" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",AF$5&gt;=$F21,AF$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AF$5&gt;=$F21,AF$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AG21" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",AG$5&gt;=$F21,AG$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AG$5&gt;=$F21,AG$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AH21" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",AH$5&gt;=$F21,AH$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AH$5&gt;=$F21,AH$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AI21" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",AI$5&gt;=$F21,AI$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AI$5&gt;=$F21,AI$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AJ21" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",AJ$5&gt;=$F21,AJ$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AJ$5&gt;=$F21,AJ$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AK21" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",AK$5&gt;=$F21,AK$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AK$5&gt;=$F21,AK$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AL21" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",AL$5&gt;=$F21,AL$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AL$5&gt;=$F21,AL$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AM21" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",AM$5&gt;=$F21,AM$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AM$5&gt;=$F21,AM$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AN21" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",AN$5&gt;=$F21,AN$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AN$5&gt;=$F21,AN$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AO21" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",AO$5&gt;=$F21,AO$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AO$5&gt;=$F21,AO$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AP21" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",AP$5&gt;=$F21,AP$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AP$5&gt;=$F21,AP$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AQ21" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",AQ$5&gt;=$F21,AQ$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AQ$5&gt;=$F21,AQ$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AR21" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",AR$5&gt;=$F21,AR$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AR$5&gt;=$F21,AR$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AS21" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",AS$5&gt;=$F21,AS$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AS$5&gt;=$F21,AS$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AT21" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",AT$5&gt;=$F21,AT$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AT$5&gt;=$F21,AT$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AU21" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",AU$5&gt;=$F21,AU$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AU$5&gt;=$F21,AU$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AV21" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",AV$5&gt;=$F21,AV$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AV$5&gt;=$F21,AV$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AW21" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",AW$5&gt;=$F21,AW$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AW$5&gt;=$F21,AW$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AX21" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",AX$5&gt;=$F21,AX$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AX$5&gt;=$F21,AX$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AY21" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",AY$5&gt;=$F21,AY$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AY$5&gt;=$F21,AY$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AZ21" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",AZ$5&gt;=$F21,AZ$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AZ$5&gt;=$F21,AZ$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="BA21" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",BA$5&gt;=$F21,BA$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",BA$5&gt;=$F21,BA$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="BB21" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",BB$5&gt;=$F21,BB$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",BB$5&gt;=$F21,BB$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="BC21" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",BC$5&gt;=$F21,BC$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",BC$5&gt;=$F21,BC$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="BD21" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",BD$5&gt;=$F21,BD$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",BD$5&gt;=$F21,BD$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="BE21" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",BE$5&gt;=$F21,BE$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",BE$5&gt;=$F21,BE$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="BF21" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",BF$5&gt;=$F21,BF$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",BF$5&gt;=$F21,BF$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="BG21" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",BG$5&gt;=$F21,BG$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",BG$5&gt;=$F21,BG$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="BH21" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",BH$5&gt;=$F21,BH$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",BH$5&gt;=$F21,BH$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="BI21" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",BI$5&gt;=$F21,BI$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",BI$5&gt;=$F21,BI$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="BJ21" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",BJ$5&gt;=$F21,BJ$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",BJ$5&gt;=$F21,BJ$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="BK21" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",BK$5&gt;=$F21,BK$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",BK$5&gt;=$F21,BK$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="BL21" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",BL$5&gt;=$F21,BL$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",BL$5&gt;=$F21,BL$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
     </row>
     <row r="22" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="14"/>
-      <c r="B22" s="42"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="33"/>
+      <c r="B22" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" s="31">
+        <v>1</v>
+      </c>
+      <c r="F22" s="32">
+        <v>43962</v>
+      </c>
+      <c r="G22" s="33">
+        <v>1</v>
+      </c>
       <c r="H22" s="26"/>
       <c r="I22" s="38" t="str">
-        <f t="shared" ref="I22:X30" ca="1" si="14">IF(AND($C22="Goal",I$5&gt;=$F22,I$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",I$5&gt;=$F22,I$5&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="J22" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="K22" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="L22" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="M22" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="N22" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="O22" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="P22" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="Q22" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="R22" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="S22" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="T22" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="U22" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="V22" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="W22" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="X22" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="Y22" s="38" t="str">
-        <f t="shared" ref="Y22:AN28" ca="1" si="15">IF(AND($C22="Goal",Y$5&gt;=$F22,Y$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",Y$5&gt;=$F22,Y$5&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="Z22" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AA22" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AB22" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AC22" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AD22" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AE22" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AF22" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AG22" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AH22" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AI22" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AJ22" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AK22" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AL22" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AM22" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AN22" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AO22" s="38" t="str">
-        <f t="shared" ref="AO22:BE28" ca="1" si="16">IF(AND($C22="Goal",AO$5&gt;=$F22,AO$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",AO$5&gt;=$F22,AO$5&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AP22" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AQ22" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AR22" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AS22" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AT22" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AU22" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AV22" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AW22" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AX22" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AY22" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AZ22" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="BA22" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="BB22" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="BC22" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="BD22" s="38" t="str">
-        <f t="shared" ref="BB22:BL33" ca="1" si="17">IF(AND($C22="Goal",BD$5&gt;=$F22,BD$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",BD$5&gt;=$F22,BD$5&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="BE22" s="38" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="BF22" s="38" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="BG22" s="38" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="BH22" s="38" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="BI22" s="38" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="BJ22" s="38" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="BK22" s="38" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="BL22" s="38" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
     </row>
     <row r="23" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="14"/>
-      <c r="B23" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
+      <c r="B23" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="34" t="s">
+        <v>44</v>
+      </c>
       <c r="E23" s="31"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="33"/>
+      <c r="F23" s="32">
+        <v>43962</v>
+      </c>
+      <c r="G23" s="33">
+        <v>13</v>
+      </c>
       <c r="H23" s="26"/>
       <c r="I23" s="38" t="str">
-        <f t="shared" ref="I23:BA31" ca="1" si="18">IF(AND($C23="Goal",I$5&gt;=$F23,I$5&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",I$5&gt;=$F23,I$5&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="J23" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="K23" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="L23" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="M23" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="N23" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="O23" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="P23" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="Q23" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="R23" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="S23" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="T23" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="U23" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="V23" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="W23" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="X23" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="Y23" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="Z23" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AA23" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AB23" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AC23" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AD23" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AE23" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AF23" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AG23" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AH23" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AI23" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AJ23" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AK23" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AL23" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AM23" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AN23" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AO23" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AP23" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AQ23" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AR23" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AS23" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AT23" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AU23" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AV23" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AW23" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AX23" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AY23" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AZ23" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="BA23" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="BB23" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="BC23" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="BD23" s="38" t="str">
-        <f t="shared" ref="BD23:BL31" ca="1" si="19">IF(AND($C23="Goal",BD$5&gt;=$F23,BD$5&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",BD$5&gt;=$F23,BD$5&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="BE23" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="BF23" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="BG23" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="BH23" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="BI23" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="BJ23" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="BK23" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="BL23" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
     </row>
     <row r="24" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="14"/>
-      <c r="B24" s="41" t="s">
-        <v>46</v>
-      </c>
-      <c r="C24" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="E24" s="31">
-        <v>0.8</v>
-      </c>
-      <c r="F24" s="32">
-        <v>43962</v>
-      </c>
-      <c r="G24" s="33">
-        <v>13</v>
-      </c>
+      <c r="B24" s="41"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="33"/>
       <c r="H24" s="26"/>
       <c r="I24" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="J24" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="K24" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="L24" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="M24" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="N24" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="O24" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="P24" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="Q24" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="R24" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="S24" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="T24" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="U24" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="V24" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="W24" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="X24" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="Y24" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="Z24" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AA24" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AB24" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AC24" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AD24" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AE24" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AF24" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AG24" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AH24" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AI24" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AJ24" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AK24" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AL24" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AM24" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="AN24" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ref="AN24:BC33" ca="1" si="14">IF(AND($C24="Goal",AN$5&gt;=$F24,AN$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",AN$5&gt;=$F24,AN$5&lt;=$F24+$G24-1),1,""))</f>
         <v/>
       </c>
       <c r="AO24" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AP24" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AQ24" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AR24" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AS24" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AT24" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AU24" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AV24" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AW24" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AX24" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AY24" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AZ24" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="BA24" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="BB24" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="BC24" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="BD24" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ref="BD24:BL33" ca="1" si="15">IF(AND($C24="Goal",BD$5&gt;=$F24,BD$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",BD$5&gt;=$F24,BD$5&lt;=$F24+$G24-1),1,""))</f>
         <v/>
       </c>
       <c r="BE24" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="BF24" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="BG24" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="BH24" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="BI24" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="BJ24" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="BK24" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="BL24" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
     </row>
     <row r="25" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="14"/>
-      <c r="B25" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="C25" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="E25" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="F25" s="32">
-        <v>43962</v>
-      </c>
-      <c r="G25" s="33">
-        <v>13</v>
-      </c>
+      <c r="B25" s="41"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="33"/>
       <c r="H25" s="26"/>
       <c r="I25" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="J25" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="K25" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="L25" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="M25" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="N25" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="O25" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="P25" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="Q25" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="R25" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="S25" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="T25" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="U25" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="V25" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="W25" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="X25" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="Y25" s="38" t="str">
+        <f t="shared" ref="Y25:AM33" ca="1" si="16">IF(AND($C25="Goal",Y$5&gt;=$F25,Y$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",Y$5&gt;=$F25,Y$5&lt;=$F25+$G25-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="Z25" s="38" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="AA25" s="38" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="AB25" s="38" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="AC25" s="38" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="AD25" s="38" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="AE25" s="38" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="AF25" s="38" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="AG25" s="38" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="AH25" s="38" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="AI25" s="38" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="AJ25" s="38" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="AK25" s="38" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="AL25" s="38" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="AM25" s="38" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="AN25" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="AO25" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="AP25" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="AQ25" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="AR25" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="AS25" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="AT25" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="AU25" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="AV25" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="AW25" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="AX25" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="AY25" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="AZ25" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="BA25" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="BB25" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="BC25" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="BD25" s="38" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
-      <c r="Z25" s="38" t="str">
+      <c r="BE25" s="38" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
-      <c r="AA25" s="38" t="str">
+      <c r="BF25" s="38" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
-      <c r="AB25" s="38" t="str">
+      <c r="BG25" s="38" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
-      <c r="AC25" s="38" t="str">
+      <c r="BH25" s="38" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
-      <c r="AD25" s="38" t="str">
+      <c r="BI25" s="38" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
-      <c r="AE25" s="38" t="str">
+      <c r="BJ25" s="38" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
-      <c r="AF25" s="38" t="str">
+      <c r="BK25" s="38" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
-      <c r="AG25" s="38" t="str">
+      <c r="BL25" s="38" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
-      <c r="AH25" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
-      <c r="AI25" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
-      <c r="AJ25" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
-      <c r="AK25" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
-      <c r="AL25" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
-      <c r="AM25" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
-      <c r="AN25" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
-      <c r="AO25" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="AP25" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="AQ25" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="AR25" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="AS25" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="AT25" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="AU25" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="AV25" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="AW25" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="AX25" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="AY25" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="AZ25" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="BA25" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="BB25" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="BC25" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="BD25" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="BE25" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="BF25" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="BG25" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="BH25" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="BI25" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="BJ25" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="BK25" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="BL25" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
     </row>
     <row r="26" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="14"/>
-      <c r="B26" s="41" t="s">
-        <v>48</v>
-      </c>
-      <c r="C26" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="D26" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="E26" s="31">
-        <v>0.6</v>
-      </c>
-      <c r="F26" s="32">
-        <v>43962</v>
-      </c>
-      <c r="G26" s="33">
-        <v>13</v>
-      </c>
+      <c r="B26" s="41"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="33"/>
       <c r="H26" s="26"/>
       <c r="I26" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="J26" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="K26" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="L26" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="M26" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="N26" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="O26" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="P26" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="Q26" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="R26" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="S26" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="T26" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="U26" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="V26" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="W26" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="X26" s="38" t="str">
-        <f t="shared" ref="X25:AM27" ca="1" si="20">IF(AND($C26="Goal",X$5&gt;=$F26,X$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",X$5&gt;=$F26,X$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="Y26" s="38" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="Z26" s="38" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="AA26" s="38" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="AB26" s="38" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="AC26" s="38" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="AD26" s="38" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="AE26" s="38" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="AF26" s="38" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="AG26" s="38" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="AH26" s="38" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="AI26" s="38" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="AJ26" s="38" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="AK26" s="38" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="AL26" s="38" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="AM26" s="38" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="AN26" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="AO26" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="AP26" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="AQ26" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="AR26" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="AS26" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="AT26" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="AU26" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="AV26" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="AW26" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="AX26" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="AY26" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="AZ26" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="BA26" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="BB26" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="BC26" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="BD26" s="38" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
-      <c r="Z26" s="38" t="str">
+      <c r="BE26" s="38" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
-      <c r="AA26" s="38" t="str">
+      <c r="BF26" s="38" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
-      <c r="AB26" s="38" t="str">
+      <c r="BG26" s="38" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
-      <c r="AC26" s="38" t="str">
+      <c r="BH26" s="38" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
-      <c r="AD26" s="38" t="str">
+      <c r="BI26" s="38" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
-      <c r="AE26" s="38" t="str">
+      <c r="BJ26" s="38" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
-      <c r="AF26" s="38" t="str">
+      <c r="BK26" s="38" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
-      <c r="AG26" s="38" t="str">
+      <c r="BL26" s="38" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
-      <c r="AH26" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
-      <c r="AI26" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
-      <c r="AJ26" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
-      <c r="AK26" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
-      <c r="AL26" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
-      <c r="AM26" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
-      <c r="AN26" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
-      <c r="AO26" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="AP26" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="AQ26" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="AR26" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="AS26" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="AT26" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="AU26" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="AV26" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="AW26" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="AX26" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="AY26" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="AZ26" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="BA26" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="BB26" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="BC26" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="BD26" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="BE26" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="BF26" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="BG26" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="BH26" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="BI26" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="BJ26" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="BK26" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="BL26" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
     </row>
     <row r="27" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="14"/>
-      <c r="B27" s="41" t="s">
-        <v>55</v>
-      </c>
-      <c r="C27" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="E27" s="31">
-        <v>0.8</v>
-      </c>
-      <c r="F27" s="32">
-        <v>43962</v>
-      </c>
-      <c r="G27" s="33">
-        <v>13</v>
-      </c>
+      <c r="B27" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" s="34"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="33"/>
       <c r="H27" s="26"/>
       <c r="I27" s="38" t="str">
-        <f t="shared" ref="I26:X28" ca="1" si="21">IF(AND($C27="Goal",I$5&gt;=$F27,I$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",I$5&gt;=$F27,I$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ref="I27:X33" ca="1" si="17">IF(AND($C27="Goal",I$5&gt;=$F27,I$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",I$5&gt;=$F27,I$5&lt;=$F27+$G27-1),1,""))</f>
         <v/>
       </c>
       <c r="J27" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="K27" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="L27" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="M27" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="N27" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="O27" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="P27" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="Q27" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="R27" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="S27" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="T27" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="U27" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="V27" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="W27" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="X27" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="Y27" s="38" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="Z27" s="38" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="AA27" s="38" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="AB27" s="38" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="AC27" s="38" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="AD27" s="38" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="AE27" s="38" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="AF27" s="38" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="AG27" s="38" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="AH27" s="38" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="AI27" s="38" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="AJ27" s="38" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="AK27" s="38" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="AL27" s="38" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="AM27" s="38" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="AN27" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="AO27" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="AP27" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="AQ27" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="AR27" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="AS27" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="AT27" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="AU27" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="AV27" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="AW27" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="AX27" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="AY27" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="AZ27" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="BA27" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="BB27" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="BC27" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="BD27" s="38" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
-      <c r="Z27" s="38" t="str">
+      <c r="BE27" s="38" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
-      <c r="AA27" s="38" t="str">
+      <c r="BF27" s="38" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
-      <c r="AB27" s="38" t="str">
+      <c r="BG27" s="38" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
-      <c r="AC27" s="38" t="str">
+      <c r="BH27" s="38" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
-      <c r="AD27" s="38" t="str">
+      <c r="BI27" s="38" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
-      <c r="AE27" s="38" t="str">
+      <c r="BJ27" s="38" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
-      <c r="AF27" s="38" t="str">
+      <c r="BK27" s="38" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
-      <c r="AG27" s="38" t="str">
+      <c r="BL27" s="38" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
-      <c r="AH27" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
-      <c r="AI27" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
-      <c r="AJ27" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
-      <c r="AK27" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
-      <c r="AL27" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
-      <c r="AM27" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
-      <c r="AN27" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
-      <c r="AO27" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="AP27" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="AQ27" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="AR27" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="AS27" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="AT27" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="AU27" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="AV27" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="AW27" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="AX27" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="AY27" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="AZ27" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="BA27" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="BB27" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="BC27" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="BD27" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="BE27" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="BF27" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="BG27" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="BH27" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="BI27" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="BJ27" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="BK27" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="BL27" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
     </row>
     <row r="28" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="14"/>
       <c r="B28" s="41" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C28" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="D28" s="34"/>
-      <c r="E28" s="31">
-        <v>0.4</v>
-      </c>
+      <c r="D28" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="E28" s="31"/>
       <c r="F28" s="32">
         <v>43962</v>
       </c>
       <c r="G28" s="33">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H28" s="26"/>
       <c r="I28" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="J28" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="K28" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="L28" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="M28" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="N28" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="O28" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="P28" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="Q28" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="R28" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="S28" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="T28" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="U28" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="V28" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="W28" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="X28" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="Y28" s="38" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="Z28" s="38" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="AA28" s="38" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="AB28" s="38" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="AC28" s="38" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="AD28" s="38" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="AE28" s="38" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="AF28" s="38" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="AG28" s="38" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="AH28" s="38" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="AI28" s="38" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="AJ28" s="38" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="AK28" s="38" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="AL28" s="38" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="AM28" s="38" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="AN28" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="AO28" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="AP28" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="AQ28" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="AR28" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="AS28" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="AT28" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="AU28" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="AV28" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="AW28" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="AX28" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="AY28" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="AZ28" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="BA28" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="BB28" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="BC28" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="BD28" s="38" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
-      <c r="Z28" s="38" t="str">
+      <c r="BE28" s="38" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
-      <c r="AA28" s="38" t="str">
+      <c r="BF28" s="38" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
-      <c r="AB28" s="38" t="str">
+      <c r="BG28" s="38" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
-      <c r="AC28" s="38" t="str">
+      <c r="BH28" s="38" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
-      <c r="AD28" s="38" t="str">
+      <c r="BI28" s="38" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
-      <c r="AE28" s="38" t="str">
+      <c r="BJ28" s="38" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
-      <c r="AF28" s="38" t="str">
+      <c r="BK28" s="38" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
-      <c r="AG28" s="38" t="str">
+      <c r="BL28" s="38" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
-      <c r="AH28" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
-      <c r="AI28" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
-      <c r="AJ28" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
-      <c r="AK28" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
-      <c r="AL28" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
-      <c r="AM28" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
-      <c r="AN28" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
-      <c r="AO28" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="AP28" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="AQ28" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="AR28" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="AS28" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="AT28" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="AU28" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="AV28" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="AW28" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="AX28" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="AY28" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="AZ28" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="BA28" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="BB28" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="BC28" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="BD28" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="BE28" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="BF28" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="BG28" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="BH28" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="BI28" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="BJ28" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="BK28" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="BL28" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
     </row>
     <row r="29" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="14"/>
-      <c r="B29" s="41"/>
-      <c r="C29" s="34"/>
-      <c r="D29" s="34"/>
+      <c r="B29" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="34" t="s">
+        <v>50</v>
+      </c>
       <c r="E29" s="31"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="33"/>
+      <c r="F29" s="32">
+        <v>43962</v>
+      </c>
+      <c r="G29" s="33">
+        <v>13</v>
+      </c>
       <c r="H29" s="26"/>
-      <c r="I29" s="38"/>
-      <c r="J29" s="38"/>
-      <c r="K29" s="38"/>
-      <c r="L29" s="38"/>
-      <c r="M29" s="38"/>
-      <c r="N29" s="38"/>
-      <c r="O29" s="38"/>
-      <c r="P29" s="38"/>
-      <c r="Q29" s="38"/>
-      <c r="R29" s="38"/>
-      <c r="S29" s="38"/>
-      <c r="T29" s="38"/>
-      <c r="U29" s="38"/>
-      <c r="V29" s="38"/>
-      <c r="W29" s="38"/>
-      <c r="X29" s="38"/>
-      <c r="Y29" s="38"/>
-      <c r="Z29" s="38"/>
-      <c r="AA29" s="38"/>
-      <c r="AB29" s="38"/>
-      <c r="AC29" s="38"/>
-      <c r="AD29" s="38"/>
-      <c r="AE29" s="38"/>
-      <c r="AF29" s="38"/>
-      <c r="AG29" s="38"/>
-      <c r="AH29" s="38"/>
-      <c r="AI29" s="38"/>
-      <c r="AJ29" s="38"/>
-      <c r="AK29" s="38"/>
-      <c r="AL29" s="38"/>
-      <c r="AM29" s="38"/>
-      <c r="AN29" s="38"/>
-      <c r="AO29" s="38"/>
-      <c r="AP29" s="38"/>
-      <c r="AQ29" s="38"/>
-      <c r="AR29" s="38"/>
-      <c r="AS29" s="38"/>
-      <c r="AT29" s="38"/>
-      <c r="AU29" s="38"/>
-      <c r="AV29" s="38"/>
-      <c r="AW29" s="38"/>
-      <c r="AX29" s="38"/>
-      <c r="AY29" s="38"/>
-      <c r="AZ29" s="38"/>
-      <c r="BA29" s="38"/>
-      <c r="BB29" s="38"/>
-      <c r="BC29" s="38"/>
-      <c r="BD29" s="38"/>
-      <c r="BE29" s="38"/>
-      <c r="BF29" s="38"/>
-      <c r="BG29" s="38"/>
-      <c r="BH29" s="38"/>
-      <c r="BI29" s="38"/>
-      <c r="BJ29" s="38"/>
-      <c r="BK29" s="38"/>
-      <c r="BL29" s="38"/>
+      <c r="I29" s="38" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v/>
+      </c>
+      <c r="J29" s="38" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v/>
+      </c>
+      <c r="K29" s="38" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v/>
+      </c>
+      <c r="L29" s="38" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v/>
+      </c>
+      <c r="M29" s="38" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v/>
+      </c>
+      <c r="N29" s="38" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v/>
+      </c>
+      <c r="O29" s="38" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v/>
+      </c>
+      <c r="P29" s="38" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v/>
+      </c>
+      <c r="Q29" s="38" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v/>
+      </c>
+      <c r="R29" s="38" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v/>
+      </c>
+      <c r="S29" s="38" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v/>
+      </c>
+      <c r="T29" s="38" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v/>
+      </c>
+      <c r="U29" s="38" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v/>
+      </c>
+      <c r="V29" s="38" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v/>
+      </c>
+      <c r="W29" s="38" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v/>
+      </c>
+      <c r="X29" s="38" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v/>
+      </c>
+      <c r="Y29" s="38" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="Z29" s="38" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="AA29" s="38" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="AB29" s="38" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="AC29" s="38" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="AD29" s="38" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="AE29" s="38" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="AF29" s="38" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="AG29" s="38" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="AH29" s="38" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="AI29" s="38" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="AJ29" s="38" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="AK29" s="38" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="AL29" s="38" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="AM29" s="38" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="AN29" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="AO29" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="AP29" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="AQ29" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="AR29" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="AS29" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="AT29" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="AU29" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="AV29" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="AW29" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="AX29" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="AY29" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="AZ29" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="BA29" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="BB29" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="BC29" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="BD29" s="38" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="BE29" s="38" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="BF29" s="38" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="BG29" s="38" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="BH29" s="38" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="BI29" s="38" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="BJ29" s="38" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="BK29" s="38" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="BL29" s="38" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
     </row>
     <row r="30" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="14"/>
-      <c r="B30" s="41"/>
-      <c r="C30" s="34"/>
-      <c r="D30" s="34"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="32"/>
-      <c r="G30" s="33"/>
+      <c r="B30" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="E30" s="31">
+        <v>0.6</v>
+      </c>
+      <c r="F30" s="32">
+        <v>43962</v>
+      </c>
+      <c r="G30" s="33">
+        <v>13</v>
+      </c>
       <c r="H30" s="26"/>
-      <c r="I30" s="38"/>
-      <c r="J30" s="38"/>
-      <c r="K30" s="38"/>
-      <c r="L30" s="38"/>
-      <c r="M30" s="38"/>
-      <c r="N30" s="38"/>
-      <c r="O30" s="38"/>
-      <c r="P30" s="38"/>
-      <c r="Q30" s="38"/>
-      <c r="R30" s="38"/>
-      <c r="S30" s="38"/>
-      <c r="T30" s="38"/>
-      <c r="U30" s="38"/>
-      <c r="V30" s="38"/>
-      <c r="W30" s="38"/>
-      <c r="X30" s="38"/>
-      <c r="Y30" s="38"/>
-      <c r="Z30" s="38"/>
-      <c r="AA30" s="38"/>
-      <c r="AB30" s="38"/>
-      <c r="AC30" s="38"/>
-      <c r="AD30" s="38"/>
-      <c r="AE30" s="38"/>
-      <c r="AF30" s="38"/>
-      <c r="AG30" s="38"/>
-      <c r="AH30" s="38"/>
-      <c r="AI30" s="38"/>
-      <c r="AJ30" s="38"/>
-      <c r="AK30" s="38"/>
-      <c r="AL30" s="38"/>
-      <c r="AM30" s="38"/>
-      <c r="AN30" s="38"/>
-      <c r="AO30" s="38"/>
-      <c r="AP30" s="38"/>
-      <c r="AQ30" s="38"/>
-      <c r="AR30" s="38"/>
-      <c r="AS30" s="38"/>
-      <c r="AT30" s="38"/>
-      <c r="AU30" s="38"/>
-      <c r="AV30" s="38"/>
-      <c r="AW30" s="38"/>
-      <c r="AX30" s="38"/>
-      <c r="AY30" s="38"/>
-      <c r="AZ30" s="38"/>
-      <c r="BA30" s="38"/>
-      <c r="BB30" s="38"/>
-      <c r="BC30" s="38"/>
-      <c r="BD30" s="38"/>
-      <c r="BE30" s="38"/>
-      <c r="BF30" s="38"/>
-      <c r="BG30" s="38"/>
-      <c r="BH30" s="38"/>
-      <c r="BI30" s="38"/>
-      <c r="BJ30" s="38"/>
-      <c r="BK30" s="38"/>
-      <c r="BL30" s="38"/>
+      <c r="I30" s="38" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v/>
+      </c>
+      <c r="J30" s="38" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v/>
+      </c>
+      <c r="K30" s="38" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v/>
+      </c>
+      <c r="L30" s="38" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v/>
+      </c>
+      <c r="M30" s="38" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v/>
+      </c>
+      <c r="N30" s="38" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v/>
+      </c>
+      <c r="O30" s="38" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v/>
+      </c>
+      <c r="P30" s="38" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v/>
+      </c>
+      <c r="Q30" s="38" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v/>
+      </c>
+      <c r="R30" s="38" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v/>
+      </c>
+      <c r="S30" s="38" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v/>
+      </c>
+      <c r="T30" s="38" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v/>
+      </c>
+      <c r="U30" s="38" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v/>
+      </c>
+      <c r="V30" s="38" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v/>
+      </c>
+      <c r="W30" s="38" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v/>
+      </c>
+      <c r="X30" s="38" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v/>
+      </c>
+      <c r="Y30" s="38" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="Z30" s="38" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="AA30" s="38" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="AB30" s="38" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="AC30" s="38" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="AD30" s="38" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="AE30" s="38" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="AF30" s="38" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="AG30" s="38" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="AH30" s="38" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="AI30" s="38" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="AJ30" s="38" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="AK30" s="38" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="AL30" s="38" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="AM30" s="38" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="AN30" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="AO30" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="AP30" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="AQ30" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="AR30" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="AS30" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="AT30" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="AU30" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="AV30" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="AW30" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="AX30" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="AY30" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="AZ30" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="BA30" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="BB30" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="BC30" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="BD30" s="38" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="BE30" s="38" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="BF30" s="38" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="BG30" s="38" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="BH30" s="38" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="BI30" s="38" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="BJ30" s="38" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="BK30" s="38" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="BL30" s="38" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
     </row>
     <row r="31" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="14"/>
-      <c r="B31" s="41"/>
-      <c r="C31" s="34"/>
-      <c r="D31" s="34"/>
+      <c r="B31" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="34" t="s">
+        <v>50</v>
+      </c>
       <c r="E31" s="31"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="33"/>
+      <c r="F31" s="32">
+        <v>43962</v>
+      </c>
+      <c r="G31" s="33">
+        <v>13</v>
+      </c>
       <c r="H31" s="26"/>
-      <c r="I31" s="38"/>
-      <c r="J31" s="38"/>
-      <c r="K31" s="38"/>
-      <c r="L31" s="38"/>
-      <c r="M31" s="38"/>
-      <c r="N31" s="38"/>
-      <c r="O31" s="38"/>
-      <c r="P31" s="38"/>
-      <c r="Q31" s="38"/>
-      <c r="R31" s="38"/>
-      <c r="S31" s="38"/>
-      <c r="T31" s="38"/>
-      <c r="U31" s="38"/>
-      <c r="V31" s="38"/>
-      <c r="W31" s="38"/>
-      <c r="X31" s="38"/>
-      <c r="Y31" s="38"/>
-      <c r="Z31" s="38"/>
-      <c r="AA31" s="38"/>
-      <c r="AB31" s="38"/>
-      <c r="AC31" s="38"/>
-      <c r="AD31" s="38"/>
-      <c r="AE31" s="38"/>
-      <c r="AF31" s="38"/>
-      <c r="AG31" s="38"/>
-      <c r="AH31" s="38"/>
-      <c r="AI31" s="38"/>
-      <c r="AJ31" s="38"/>
-      <c r="AK31" s="38"/>
-      <c r="AL31" s="38"/>
-      <c r="AM31" s="38"/>
-      <c r="AN31" s="38"/>
-      <c r="AO31" s="38"/>
-      <c r="AP31" s="38"/>
-      <c r="AQ31" s="38"/>
-      <c r="AR31" s="38"/>
-      <c r="AS31" s="38"/>
-      <c r="AT31" s="38"/>
-      <c r="AU31" s="38"/>
-      <c r="AV31" s="38"/>
-      <c r="AW31" s="38"/>
-      <c r="AX31" s="38"/>
-      <c r="AY31" s="38"/>
-      <c r="AZ31" s="38"/>
-      <c r="BA31" s="38"/>
-      <c r="BB31" s="38"/>
-      <c r="BC31" s="38"/>
-      <c r="BD31" s="38"/>
-      <c r="BE31" s="38"/>
-      <c r="BF31" s="38"/>
-      <c r="BG31" s="38"/>
-      <c r="BH31" s="38"/>
-      <c r="BI31" s="38"/>
-      <c r="BJ31" s="38"/>
-      <c r="BK31" s="38"/>
-      <c r="BL31" s="38"/>
+      <c r="I31" s="38" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v/>
+      </c>
+      <c r="J31" s="38" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v/>
+      </c>
+      <c r="K31" s="38" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v/>
+      </c>
+      <c r="L31" s="38" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v/>
+      </c>
+      <c r="M31" s="38" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v/>
+      </c>
+      <c r="N31" s="38" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v/>
+      </c>
+      <c r="O31" s="38" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v/>
+      </c>
+      <c r="P31" s="38" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v/>
+      </c>
+      <c r="Q31" s="38" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v/>
+      </c>
+      <c r="R31" s="38" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v/>
+      </c>
+      <c r="S31" s="38" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v/>
+      </c>
+      <c r="T31" s="38" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v/>
+      </c>
+      <c r="U31" s="38" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v/>
+      </c>
+      <c r="V31" s="38" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v/>
+      </c>
+      <c r="W31" s="38" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v/>
+      </c>
+      <c r="X31" s="38" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v/>
+      </c>
+      <c r="Y31" s="38" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="Z31" s="38" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="AA31" s="38" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="AB31" s="38" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="AC31" s="38" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="AD31" s="38" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="AE31" s="38" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="AF31" s="38" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="AG31" s="38" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="AH31" s="38" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="AI31" s="38" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="AJ31" s="38" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="AK31" s="38" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="AL31" s="38" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="AM31" s="38" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="AN31" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="AO31" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="AP31" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="AQ31" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="AR31" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="AS31" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="AT31" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="AU31" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="AV31" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="AW31" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="AX31" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="AY31" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="AZ31" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="BA31" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="BB31" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="BC31" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="BD31" s="38" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="BE31" s="38" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="BF31" s="38" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="BG31" s="38" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="BH31" s="38" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="BI31" s="38" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="BJ31" s="38" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="BK31" s="38" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="BL31" s="38" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
     </row>
     <row r="32" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="14"/>
-      <c r="B32" s="41"/>
-      <c r="C32" s="34"/>
+      <c r="B32" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32" s="34" t="s">
+        <v>9</v>
+      </c>
       <c r="D32" s="34"/>
       <c r="E32" s="31"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="33"/>
+      <c r="F32" s="32">
+        <v>43962</v>
+      </c>
+      <c r="G32" s="33">
+        <v>18</v>
+      </c>
       <c r="H32" s="26"/>
-      <c r="I32" s="38"/>
-      <c r="J32" s="38"/>
-      <c r="K32" s="38"/>
-      <c r="L32" s="38"/>
-      <c r="M32" s="38"/>
-      <c r="N32" s="38"/>
-      <c r="O32" s="38"/>
-      <c r="P32" s="38"/>
-      <c r="Q32" s="38"/>
-      <c r="R32" s="38"/>
-      <c r="S32" s="38"/>
-      <c r="T32" s="38"/>
-      <c r="U32" s="38"/>
-      <c r="V32" s="38"/>
-      <c r="W32" s="38"/>
-      <c r="X32" s="38"/>
-      <c r="Y32" s="38"/>
-      <c r="Z32" s="38"/>
-      <c r="AA32" s="38"/>
-      <c r="AB32" s="38"/>
-      <c r="AC32" s="38"/>
-      <c r="AD32" s="38"/>
-      <c r="AE32" s="38"/>
-      <c r="AF32" s="38"/>
-      <c r="AG32" s="38"/>
-      <c r="AH32" s="38"/>
-      <c r="AI32" s="38"/>
-      <c r="AJ32" s="38"/>
-      <c r="AK32" s="38"/>
-      <c r="AL32" s="38"/>
-      <c r="AM32" s="38"/>
-      <c r="AN32" s="38"/>
-      <c r="AO32" s="38"/>
-      <c r="AP32" s="38"/>
-      <c r="AQ32" s="38"/>
-      <c r="AR32" s="38"/>
-      <c r="AS32" s="38"/>
-      <c r="AT32" s="38"/>
-      <c r="AU32" s="38"/>
-      <c r="AV32" s="38"/>
-      <c r="AW32" s="38"/>
-      <c r="AX32" s="38"/>
-      <c r="AY32" s="38"/>
-      <c r="AZ32" s="38"/>
-      <c r="BA32" s="38"/>
-      <c r="BB32" s="38"/>
-      <c r="BC32" s="38"/>
-      <c r="BD32" s="38"/>
-      <c r="BE32" s="38"/>
-      <c r="BF32" s="38"/>
-      <c r="BG32" s="38"/>
-      <c r="BH32" s="38"/>
-      <c r="BI32" s="38"/>
-      <c r="BJ32" s="38"/>
-      <c r="BK32" s="38"/>
-      <c r="BL32" s="38"/>
+      <c r="I32" s="38" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v/>
+      </c>
+      <c r="J32" s="38" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v/>
+      </c>
+      <c r="K32" s="38" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v/>
+      </c>
+      <c r="L32" s="38" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v/>
+      </c>
+      <c r="M32" s="38" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v/>
+      </c>
+      <c r="N32" s="38" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v/>
+      </c>
+      <c r="O32" s="38" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v/>
+      </c>
+      <c r="P32" s="38" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v/>
+      </c>
+      <c r="Q32" s="38" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v/>
+      </c>
+      <c r="R32" s="38" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v/>
+      </c>
+      <c r="S32" s="38" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v/>
+      </c>
+      <c r="T32" s="38" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v/>
+      </c>
+      <c r="U32" s="38" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v/>
+      </c>
+      <c r="V32" s="38" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v/>
+      </c>
+      <c r="W32" s="38" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v/>
+      </c>
+      <c r="X32" s="38" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v/>
+      </c>
+      <c r="Y32" s="38" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="Z32" s="38" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="AA32" s="38" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="AB32" s="38" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="AC32" s="38" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="AD32" s="38" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="AE32" s="38" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="AF32" s="38" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="AG32" s="38" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="AH32" s="38" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="AI32" s="38" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="AJ32" s="38" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="AK32" s="38" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="AL32" s="38" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="AM32" s="38" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="AN32" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="AO32" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="AP32" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="AQ32" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="AR32" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="AS32" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="AT32" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="AU32" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="AV32" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="AW32" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="AX32" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="AY32" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="AZ32" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="BA32" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="BB32" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="BC32" s="38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="BD32" s="38" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="BE32" s="38" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="BF32" s="38" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="BG32" s="38" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="BH32" s="38" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="BI32" s="38" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="BJ32" s="38" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="BK32" s="38" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="BL32" s="38" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
     </row>
     <row r="33" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="14" t="s">
@@ -7603,227 +8277,227 @@
       <c r="G33" s="33"/>
       <c r="H33" s="26"/>
       <c r="I33" s="38" t="str">
-        <f t="shared" ref="I27:X33" ca="1" si="22">IF(AND($C33="Goal",I$5&gt;=$F33,I$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",I$5&gt;=$F33,I$5&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="J33" s="38" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="K33" s="38" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="L33" s="38" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="M33" s="38" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="N33" s="38" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="O33" s="38" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="P33" s="38" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="Q33" s="38" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="R33" s="38" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="S33" s="38" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="T33" s="38" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="U33" s="38" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="V33" s="38" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="W33" s="38" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="X33" s="38" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="Y33" s="38" t="str">
-        <f t="shared" ref="Y24:AM33" ca="1" si="23">IF(AND($C33="Goal",Y$5&gt;=$F33,Y$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",Y$5&gt;=$F33,Y$5&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="Z33" s="38" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AA33" s="38" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AB33" s="38" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AC33" s="38" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AD33" s="38" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AE33" s="38" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AF33" s="38" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AG33" s="38" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AH33" s="38" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AI33" s="38" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AJ33" s="38" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AK33" s="38" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AL33" s="38" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AM33" s="38" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AN33" s="38" t="str">
-        <f t="shared" ref="AN24:BC33" ca="1" si="24">IF(AND($C33="Goal",AN$5&gt;=$F33,AN$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AN$5&gt;=$F33,AN$5&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AO33" s="38" t="str">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AP33" s="38" t="str">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AQ33" s="38" t="str">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AR33" s="38" t="str">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AS33" s="38" t="str">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AT33" s="38" t="str">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AU33" s="38" t="str">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AV33" s="38" t="str">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AW33" s="38" t="str">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AX33" s="38" t="str">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AY33" s="38" t="str">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AZ33" s="38" t="str">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="BA33" s="38" t="str">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="BB33" s="38" t="str">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="BC33" s="38" t="str">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="BD33" s="38" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="BE33" s="38" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="BF33" s="38" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="BG33" s="38" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="BH33" s="38" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="BI33" s="38" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="BJ33" s="38" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="BK33" s="38" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="BL33" s="38" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
     </row>
@@ -7917,8 +8591,8 @@
     <mergeCell ref="N2:Q2"/>
     <mergeCell ref="S2:V2"/>
   </mergeCells>
-  <conditionalFormatting sqref="E7:E12 E14:E17 E19:E33">
-    <cfRule type="dataBar" priority="17">
+  <conditionalFormatting sqref="E7:E33">
+    <cfRule type="dataBar" priority="8">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7931,108 +8605,58 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:BL17 I19:BL34">
-    <cfRule type="expression" dxfId="5" priority="10">
+  <conditionalFormatting sqref="I5:BL34">
+    <cfRule type="expression" dxfId="16" priority="1">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:AM4">
-    <cfRule type="expression" dxfId="19" priority="16">
+    <cfRule type="expression" dxfId="15" priority="7">
       <formula>I$5&lt;=EOMONTH($I$5,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:BL4">
-    <cfRule type="expression" dxfId="18" priority="12">
+    <cfRule type="expression" dxfId="14" priority="3">
       <formula>AND(J$5&lt;=EOMONTH($I$5,2),J$5&gt;EOMONTH($I$5,0),J$5&gt;EOMONTH($I$5,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:BL4">
-    <cfRule type="expression" dxfId="17" priority="11">
+    <cfRule type="expression" dxfId="13" priority="2">
       <formula>AND(I$5&lt;=EOMONTH($I$5,1),I$5&gt;EOMONTH($I$5,0))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I8:BL17 I19:BL33">
-    <cfRule type="expression" dxfId="4" priority="33" stopIfTrue="1">
+  <conditionalFormatting sqref="I8:BL33">
+    <cfRule type="expression" dxfId="12" priority="24" stopIfTrue="1">
       <formula>AND($C8="Low Risk",I$5&gt;=$F8,I$5&lt;=$F8+$G8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="52" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="43" stopIfTrue="1">
       <formula>AND($C8="High Risk",I$5&gt;=$F8,I$5&lt;=$F8+$G8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="70" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="61" stopIfTrue="1">
       <formula>AND($C8="On Track",I$5&gt;=$F8,I$5&lt;=$F8+$G8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="71" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="62" stopIfTrue="1">
       <formula>AND($C8="Med Risk",I$5&gt;=$F8,I$5&lt;=$F8+$G8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="72" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="63" stopIfTrue="1">
       <formula>AND(LEN($C8)=0,I$5&gt;=$F8,I$5&lt;=$F8+$G8-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I34:BL34">
-    <cfRule type="expression" dxfId="16" priority="80" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="71" stopIfTrue="1">
       <formula>AND(#REF!="Low Risk",I$5&gt;=#REF!,I$5&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="81" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="72" stopIfTrue="1">
       <formula>AND(#REF!="High Risk",I$5&gt;=#REF!,I$5&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="82" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="73" stopIfTrue="1">
       <formula>AND(#REF!="On Track",I$5&gt;=#REF!,I$5&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="83" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="74" stopIfTrue="1">
       <formula>AND(#REF!="Med Risk",I$5&gt;=#REF!,I$5&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="84" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="75" stopIfTrue="1">
       <formula>AND(LEN(#REF!)=0,I$5&gt;=#REF!,I$5&lt;=#REF!+#REF!-1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13">
-    <cfRule type="dataBar" priority="9">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.249977111117893"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{0B5D5A99-1751-4446-B5AA-2E3FB09EE240}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E17:E20">
-    <cfRule type="dataBar" priority="2">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.249977111117893"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{FFF435D4-D151-44AF-AB89-2D91D437542C}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I17:BL20">
-    <cfRule type="expression" dxfId="11" priority="1">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I17:BL20">
-    <cfRule type="expression" dxfId="10" priority="4" stopIfTrue="1">
-      <formula>AND($C17="Low Risk",I$5&gt;=$F17,I$5&lt;=$F17+$G17-1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="9" priority="5" stopIfTrue="1">
-      <formula>AND($C17="High Risk",I$5&gt;=$F17,I$5&lt;=$F17+$G17-1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="8" priority="6" stopIfTrue="1">
-      <formula>AND($C17="On Track",I$5&gt;=$F17,I$5&lt;=$F17+$G17-1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="7" priority="7" stopIfTrue="1">
-      <formula>AND($C17="Med Risk",I$5&gt;=$F17,I$5&lt;=$F17+$G17-1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="8" stopIfTrue="1">
-      <formula>AND(LEN($C17)=0,I$5&gt;=$F17,I$5&lt;=$F17+$G17-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
@@ -8101,10 +8725,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E7:E12 E14:E17 E19:E33</xm:sqref>
+          <xm:sqref>E7:E33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="18" id="{628A03C6-EE71-4B44-A6BA-69DC45906EA6}">
+          <x14:cfRule type="iconSet" priority="9" id="{628A03C6-EE71-4B44-A6BA-69DC45906EA6}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8120,10 +8744,10 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>I8:BL17 I19:BL33</xm:sqref>
+          <xm:sqref>I8:BL33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="79" id="{628A03C6-EE71-4B44-A6BA-69DC45906EA6}">
+          <x14:cfRule type="iconSet" priority="70" id="{628A03C6-EE71-4B44-A6BA-69DC45906EA6}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8140,55 +8764,6 @@
             </x14:iconSet>
           </x14:cfRule>
           <xm:sqref>I34:BL34</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{0B5D5A99-1751-4446-B5AA-2E3FB09EE240}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E13</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{FFF435D4-D151-44AF-AB89-2D91D437542C}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E17:E20</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="3" id="{163926B5-BB45-4DD9-A8F8-2E4A4786F05F}">
-            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>2</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="1"/>
-              <x14:cfIcon iconSet="3Signs" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>I17:BL20</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/Group Nine Gantt.xlsx
+++ b/Group Nine Gantt.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="27" documentId="8_{19ACA758-D7B1-4F98-AB87-3986D6EA366C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B3E21243-04BD-4858-BC49-18387EA735F7}"/>
+  <xr:revisionPtr revIDLastSave="43" documentId="8_{19ACA758-D7B1-4F98-AB87-3986D6EA366C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0BACE980-BCC8-42F6-BCAA-DDC635914C55}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="13096" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="57">
   <si>
     <t>About This Template</t>
   </si>
@@ -225,6 +225,9 @@
   </si>
   <si>
     <t>Contact Page</t>
+  </si>
+  <si>
+    <t>Alan/Quynh</t>
   </si>
 </sst>
 </file>
@@ -806,130 +809,13 @@
   </cellStyles>
   <dxfs count="35">
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="2" tint="-9.9948118533890809E-2"/>
-        </left>
-        <right style="thin">
-          <color theme="2" tint="-9.9948118533890809E-2"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="4"/>
-        </left>
-        <right style="thin">
-          <color theme="4"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="7" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="7" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="6"/>
-        </left>
-        <right style="thin">
-          <color theme="6"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -1169,6 +1055,115 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="2" tint="-9.9948118533890809E-2"/>
+        </left>
+        <right style="thin">
+          <color theme="2" tint="-9.9948118533890809E-2"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="7" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="7" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="6"/>
+        </left>
+        <right style="thin">
+          <color theme="6"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="6" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
@@ -1214,13 +1209,21 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <border>
@@ -1543,9 +1546,9 @@
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{EE48C34E-B98C-4BBA-90C8-388E8655DD6D}" name="Milestone Description" dataDxfId="22"/>
-    <tableColumn id="2" xr3:uid="{B8ACC97F-C189-49BA-91CF-CB5671185BCF}" name="Category" dataDxfId="21"/>
-    <tableColumn id="3" xr3:uid="{5419FA1B-A035-4F0A-9257-1AA4BCB5E6CF}" name="Assigned To" dataDxfId="20"/>
+    <tableColumn id="1" xr3:uid="{EE48C34E-B98C-4BBA-90C8-388E8655DD6D}" name="Milestone Description" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{B8ACC97F-C189-49BA-91CF-CB5671185BCF}" name="Category" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{5419FA1B-A035-4F0A-9257-1AA4BCB5E6CF}" name="Assigned To" dataDxfId="0"/>
     <tableColumn id="4" xr3:uid="{A60A6524-18F0-48B7-BB3C-2F4A35799FF7}" name="Progress"/>
     <tableColumn id="5" xr3:uid="{59612C1F-9AAB-483B-A6A5-3563E9D77941}" name="Start" dataCellStyle="Date"/>
     <tableColumn id="6" xr3:uid="{012C59F1-49D4-4A67-B8DD-855C6581FD6A}" name="No. Days" dataCellStyle="Comma [0]"/>
@@ -1827,8 +1830,8 @@
   </sheetPr>
   <dimension ref="A1:BL36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A7" zoomScale="47" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A7" zoomScale="69" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -2671,7 +2674,7 @@
       <c r="G9" s="33"/>
       <c r="H9" s="26"/>
       <c r="I9" s="38" t="str">
-        <f t="shared" ref="I9:X24" ca="1" si="6">IF(AND($C9="Goal",I$5&gt;=$F9,I$5&lt;=$F9+$G9-1),2,IF(AND($C9="Milestone",I$5&gt;=$F9,I$5&lt;=$F9+$G9-1),1,""))</f>
+        <f t="shared" ref="I9:X15" ca="1" si="6">IF(AND($C9="Goal",I$5&gt;=$F9,I$5&lt;=$F9+$G9-1),2,IF(AND($C9="Milestone",I$5&gt;=$F9,I$5&lt;=$F9+$G9-1),1,""))</f>
         <v/>
       </c>
       <c r="J9" s="38" t="str">
@@ -2735,7 +2738,7 @@
         <v/>
       </c>
       <c r="Y9" s="38" t="str">
-        <f t="shared" ref="Y9:AN24" ca="1" si="7">IF(AND($C9="Goal",Y$5&gt;=$F9,Y$5&lt;=$F9+$G9-1),2,IF(AND($C9="Milestone",Y$5&gt;=$F9,Y$5&lt;=$F9+$G9-1),1,""))</f>
+        <f t="shared" ref="Y9:AN12" ca="1" si="7">IF(AND($C9="Goal",Y$5&gt;=$F9,Y$5&lt;=$F9+$G9-1),2,IF(AND($C9="Milestone",Y$5&gt;=$F9,Y$5&lt;=$F9+$G9-1),1,""))</f>
         <v/>
       </c>
       <c r="Z9" s="38" t="str">
@@ -2799,7 +2802,7 @@
         <v/>
       </c>
       <c r="AO9" s="38" t="str">
-        <f t="shared" ref="AO9:BD24" ca="1" si="8">IF(AND($C9="Goal",AO$5&gt;=$F9,AO$5&lt;=$F9+$G9-1),2,IF(AND($C9="Milestone",AO$5&gt;=$F9,AO$5&lt;=$F9+$G9-1),1,""))</f>
+        <f t="shared" ref="AO9:BD12" ca="1" si="8">IF(AND($C9="Goal",AO$5&gt;=$F9,AO$5&lt;=$F9+$G9-1),2,IF(AND($C9="Milestone",AO$5&gt;=$F9,AO$5&lt;=$F9+$G9-1),1,""))</f>
         <v/>
       </c>
       <c r="AP9" s="38" t="str">
@@ -2863,7 +2866,7 @@
         <v/>
       </c>
       <c r="BE9" s="38" t="str">
-        <f t="shared" ref="BE9:BL24" ca="1" si="9">IF(AND($C9="Goal",BE$5&gt;=$F9,BE$5&lt;=$F9+$G9-1),2,IF(AND($C9="Milestone",BE$5&gt;=$F9,BE$5&lt;=$F9+$G9-1),1,""))</f>
+        <f t="shared" ref="BE9:BL17" ca="1" si="9">IF(AND($C9="Goal",BE$5&gt;=$F9,BE$5&lt;=$F9+$G9-1),2,IF(AND($C9="Milestone",BE$5&gt;=$F9,BE$5&lt;=$F9+$G9-1),1,""))</f>
         <v/>
       </c>
       <c r="BF9" s="38" t="str">
@@ -3150,7 +3153,9 @@
         <v>9</v>
       </c>
       <c r="D11" s="34"/>
-      <c r="E11" s="31"/>
+      <c r="E11" s="31">
+        <v>0.05</v>
+      </c>
       <c r="F11" s="32">
         <v>43981</v>
       </c>
@@ -3159,7 +3164,7 @@
       </c>
       <c r="H11" s="26"/>
       <c r="I11" s="38" t="str">
-        <f t="shared" ref="I11:X26" ca="1" si="10">IF(AND($C11="Goal",I$5&gt;=$F11,I$5&lt;=$F11+$G11-1),2,IF(AND($C11="Milestone",I$5&gt;=$F11,I$5&lt;=$F11+$G11-1),1,""))</f>
+        <f t="shared" ref="I11:X17" ca="1" si="10">IF(AND($C11="Goal",I$5&gt;=$F11,I$5&lt;=$F11+$G11-1),2,IF(AND($C11="Milestone",I$5&gt;=$F11,I$5&lt;=$F11+$G11-1),1,""))</f>
         <v/>
       </c>
       <c r="J11" s="38" t="str">
@@ -3635,7 +3640,7 @@
         <v>53</v>
       </c>
       <c r="C13" s="34" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D13" s="34"/>
       <c r="E13" s="31">
@@ -3709,7 +3714,7 @@
         <v/>
       </c>
       <c r="X13" s="38" t="str">
-        <f t="shared" ref="X13:AM18" ca="1" si="11">IF(AND($C13="Goal",X$5&gt;=$F13,X$5&lt;=$F13+$G13-1),2,IF(AND($C13="Milestone",X$5&gt;=$F13,X$5&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" ref="X13:AM17" ca="1" si="11">IF(AND($C13="Goal",X$5&gt;=$F13,X$5&lt;=$F13+$G13-1),2,IF(AND($C13="Milestone",X$5&gt;=$F13,X$5&lt;=$F13+$G13-1),1,""))</f>
         <v/>
       </c>
       <c r="Y13" s="38" t="str">
@@ -3773,7 +3778,7 @@
         <v/>
       </c>
       <c r="AN13" s="38" t="str">
-        <f t="shared" ref="AN13:BC18" ca="1" si="12">IF(AND($C13="Goal",AN$5&gt;=$F13,AN$5&lt;=$F13+$G13-1),2,IF(AND($C13="Milestone",AN$5&gt;=$F13,AN$5&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" ref="AN13:BC17" ca="1" si="12">IF(AND($C13="Goal",AN$5&gt;=$F13,AN$5&lt;=$F13+$G13-1),2,IF(AND($C13="Milestone",AN$5&gt;=$F13,AN$5&lt;=$F13+$G13-1),1,""))</f>
         <v/>
       </c>
       <c r="AO13" s="38" t="str">
@@ -3837,7 +3842,7 @@
         <v/>
       </c>
       <c r="BD13" s="38" t="str">
-        <f t="shared" ref="BD13:BD18" ca="1" si="13">IF(AND($C13="Goal",BD$5&gt;=$F13,BD$5&lt;=$F13+$G13-1),2,IF(AND($C13="Milestone",BD$5&gt;=$F13,BD$5&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" ref="BD13:BD17" ca="1" si="13">IF(AND($C13="Goal",BD$5&gt;=$F13,BD$5&lt;=$F13+$G13-1),2,IF(AND($C13="Milestone",BD$5&gt;=$F13,BD$5&lt;=$F13+$G13-1),1,""))</f>
         <v/>
       </c>
       <c r="BE13" s="38" t="str">
@@ -4913,227 +4918,227 @@
       <c r="G19" s="33"/>
       <c r="H19" s="26"/>
       <c r="I19" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",I$5&gt;=$F19,I$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",I$5&gt;=$F19,I$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ref="I19:R21" ca="1" si="14">IF(AND($C19="Goal",I$5&gt;=$F19,I$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",I$5&gt;=$F19,I$5&lt;=$F19+$G19-1),1,""))</f>
         <v/>
       </c>
       <c r="J19" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",J$5&gt;=$F19,J$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",J$5&gt;=$F19,J$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="K19" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",K$5&gt;=$F19,K$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",K$5&gt;=$F19,K$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="L19" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",L$5&gt;=$F19,L$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",L$5&gt;=$F19,L$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="M19" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",M$5&gt;=$F19,M$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",M$5&gt;=$F19,M$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="N19" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",N$5&gt;=$F19,N$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",N$5&gt;=$F19,N$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="O19" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",O$5&gt;=$F19,O$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",O$5&gt;=$F19,O$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="P19" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",P$5&gt;=$F19,P$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",P$5&gt;=$F19,P$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="Q19" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",Q$5&gt;=$F19,Q$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",Q$5&gt;=$F19,Q$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="R19" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",R$5&gt;=$F19,R$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",R$5&gt;=$F19,R$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="S19" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",S$5&gt;=$F19,S$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",S$5&gt;=$F19,S$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ref="S19:AB21" ca="1" si="15">IF(AND($C19="Goal",S$5&gt;=$F19,S$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",S$5&gt;=$F19,S$5&lt;=$F19+$G19-1),1,""))</f>
         <v/>
       </c>
       <c r="T19" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",T$5&gt;=$F19,T$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",T$5&gt;=$F19,T$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="U19" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",U$5&gt;=$F19,U$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",U$5&gt;=$F19,U$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="V19" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",V$5&gt;=$F19,V$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",V$5&gt;=$F19,V$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="W19" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",W$5&gt;=$F19,W$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",W$5&gt;=$F19,W$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="X19" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",X$5&gt;=$F19,X$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",X$5&gt;=$F19,X$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="Y19" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",Y$5&gt;=$F19,Y$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",Y$5&gt;=$F19,Y$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="Z19" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",Z$5&gt;=$F19,Z$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",Z$5&gt;=$F19,Z$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AA19" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",AA$5&gt;=$F19,AA$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AA$5&gt;=$F19,AA$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AB19" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",AB$5&gt;=$F19,AB$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AB$5&gt;=$F19,AB$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AC19" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",AC$5&gt;=$F19,AC$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AC$5&gt;=$F19,AC$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ref="AC19:AL21" ca="1" si="16">IF(AND($C19="Goal",AC$5&gt;=$F19,AC$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AC$5&gt;=$F19,AC$5&lt;=$F19+$G19-1),1,""))</f>
         <v/>
       </c>
       <c r="AD19" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",AD$5&gt;=$F19,AD$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AD$5&gt;=$F19,AD$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AE19" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",AE$5&gt;=$F19,AE$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AE$5&gt;=$F19,AE$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AF19" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",AF$5&gt;=$F19,AF$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AF$5&gt;=$F19,AF$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AG19" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",AG$5&gt;=$F19,AG$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AG$5&gt;=$F19,AG$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AH19" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",AH$5&gt;=$F19,AH$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AH$5&gt;=$F19,AH$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AI19" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",AI$5&gt;=$F19,AI$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AI$5&gt;=$F19,AI$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AJ19" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",AJ$5&gt;=$F19,AJ$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AJ$5&gt;=$F19,AJ$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AK19" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",AK$5&gt;=$F19,AK$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AK$5&gt;=$F19,AK$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AL19" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",AL$5&gt;=$F19,AL$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AL$5&gt;=$F19,AL$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AM19" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",AM$5&gt;=$F19,AM$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AM$5&gt;=$F19,AM$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ref="AM19:AV21" ca="1" si="17">IF(AND($C19="Goal",AM$5&gt;=$F19,AM$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AM$5&gt;=$F19,AM$5&lt;=$F19+$G19-1),1,""))</f>
         <v/>
       </c>
       <c r="AN19" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",AN$5&gt;=$F19,AN$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AN$5&gt;=$F19,AN$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="AO19" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",AO$5&gt;=$F19,AO$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AO$5&gt;=$F19,AO$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="AP19" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",AP$5&gt;=$F19,AP$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AP$5&gt;=$F19,AP$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="AQ19" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",AQ$5&gt;=$F19,AQ$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AQ$5&gt;=$F19,AQ$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="AR19" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",AR$5&gt;=$F19,AR$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AR$5&gt;=$F19,AR$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="AS19" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",AS$5&gt;=$F19,AS$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AS$5&gt;=$F19,AS$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="AT19" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",AT$5&gt;=$F19,AT$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AT$5&gt;=$F19,AT$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="AU19" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",AU$5&gt;=$F19,AU$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AU$5&gt;=$F19,AU$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="AV19" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",AV$5&gt;=$F19,AV$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AV$5&gt;=$F19,AV$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="AW19" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",AW$5&gt;=$F19,AW$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AW$5&gt;=$F19,AW$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ref="AW19:BF21" ca="1" si="18">IF(AND($C19="Goal",AW$5&gt;=$F19,AW$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AW$5&gt;=$F19,AW$5&lt;=$F19+$G19-1),1,""))</f>
         <v/>
       </c>
       <c r="AX19" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",AX$5&gt;=$F19,AX$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AX$5&gt;=$F19,AX$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AY19" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",AY$5&gt;=$F19,AY$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AY$5&gt;=$F19,AY$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AZ19" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",AZ$5&gt;=$F19,AZ$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AZ$5&gt;=$F19,AZ$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="BA19" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",BA$5&gt;=$F19,BA$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",BA$5&gt;=$F19,BA$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="BB19" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",BB$5&gt;=$F19,BB$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",BB$5&gt;=$F19,BB$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="BC19" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",BC$5&gt;=$F19,BC$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",BC$5&gt;=$F19,BC$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="BD19" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",BD$5&gt;=$F19,BD$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",BD$5&gt;=$F19,BD$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="BE19" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",BE$5&gt;=$F19,BE$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",BE$5&gt;=$F19,BE$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="BF19" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",BF$5&gt;=$F19,BF$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",BF$5&gt;=$F19,BF$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="BG19" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",BG$5&gt;=$F19,BG$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",BG$5&gt;=$F19,BG$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ref="BG19:BL21" ca="1" si="19">IF(AND($C19="Goal",BG$5&gt;=$F19,BG$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",BG$5&gt;=$F19,BG$5&lt;=$F19+$G19-1),1,""))</f>
         <v/>
       </c>
       <c r="BH19" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",BH$5&gt;=$F19,BH$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",BH$5&gt;=$F19,BH$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="BI19" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",BI$5&gt;=$F19,BI$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",BI$5&gt;=$F19,BI$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="BJ19" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",BJ$5&gt;=$F19,BJ$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",BJ$5&gt;=$F19,BJ$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="BK19" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",BK$5&gt;=$F19,BK$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",BK$5&gt;=$F19,BK$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="BL19" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",BL$5&gt;=$F19,BL$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",BL$5&gt;=$F19,BL$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
     </row>
@@ -5159,227 +5164,227 @@
       </c>
       <c r="H20" s="26"/>
       <c r="I20" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",I$5&gt;=$F20,I$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",I$5&gt;=$F20,I$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="J20" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",J$5&gt;=$F20,J$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",J$5&gt;=$F20,J$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="K20" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",K$5&gt;=$F20,K$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",K$5&gt;=$F20,K$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="L20" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",L$5&gt;=$F20,L$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",L$5&gt;=$F20,L$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="M20" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",M$5&gt;=$F20,M$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",M$5&gt;=$F20,M$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="N20" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",N$5&gt;=$F20,N$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",N$5&gt;=$F20,N$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="O20" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",O$5&gt;=$F20,O$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",O$5&gt;=$F20,O$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="P20" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",P$5&gt;=$F20,P$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",P$5&gt;=$F20,P$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="Q20" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",Q$5&gt;=$F20,Q$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",Q$5&gt;=$F20,Q$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="R20" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",R$5&gt;=$F20,R$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",R$5&gt;=$F20,R$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="S20" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",S$5&gt;=$F20,S$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",S$5&gt;=$F20,S$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="T20" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",T$5&gt;=$F20,T$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",T$5&gt;=$F20,T$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="U20" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",U$5&gt;=$F20,U$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",U$5&gt;=$F20,U$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="V20" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",V$5&gt;=$F20,V$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",V$5&gt;=$F20,V$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="W20" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",W$5&gt;=$F20,W$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",W$5&gt;=$F20,W$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="X20" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",X$5&gt;=$F20,X$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",X$5&gt;=$F20,X$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="Y20" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",Y$5&gt;=$F20,Y$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",Y$5&gt;=$F20,Y$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="Z20" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",Z$5&gt;=$F20,Z$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",Z$5&gt;=$F20,Z$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AA20" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",AA$5&gt;=$F20,AA$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AA$5&gt;=$F20,AA$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AB20" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",AB$5&gt;=$F20,AB$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AB$5&gt;=$F20,AB$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AC20" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",AC$5&gt;=$F20,AC$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AC$5&gt;=$F20,AC$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AD20" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",AD$5&gt;=$F20,AD$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AD$5&gt;=$F20,AD$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AE20" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",AE$5&gt;=$F20,AE$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AE$5&gt;=$F20,AE$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AF20" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",AF$5&gt;=$F20,AF$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AF$5&gt;=$F20,AF$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AG20" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",AG$5&gt;=$F20,AG$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AG$5&gt;=$F20,AG$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AH20" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",AH$5&gt;=$F20,AH$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AH$5&gt;=$F20,AH$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AI20" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",AI$5&gt;=$F20,AI$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AI$5&gt;=$F20,AI$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AJ20" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",AJ$5&gt;=$F20,AJ$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AJ$5&gt;=$F20,AJ$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AK20" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",AK$5&gt;=$F20,AK$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AK$5&gt;=$F20,AK$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AL20" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",AL$5&gt;=$F20,AL$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AL$5&gt;=$F20,AL$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AM20" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",AM$5&gt;=$F20,AM$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AM$5&gt;=$F20,AM$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="AN20" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",AN$5&gt;=$F20,AN$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AN$5&gt;=$F20,AN$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="AO20" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",AO$5&gt;=$F20,AO$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AO$5&gt;=$F20,AO$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="AP20" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",AP$5&gt;=$F20,AP$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AP$5&gt;=$F20,AP$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="AQ20" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",AQ$5&gt;=$F20,AQ$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AQ$5&gt;=$F20,AQ$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="AR20" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",AR$5&gt;=$F20,AR$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AR$5&gt;=$F20,AR$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="AS20" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",AS$5&gt;=$F20,AS$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AS$5&gt;=$F20,AS$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="AT20" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",AT$5&gt;=$F20,AT$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AT$5&gt;=$F20,AT$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="AU20" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",AU$5&gt;=$F20,AU$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AU$5&gt;=$F20,AU$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="AV20" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",AV$5&gt;=$F20,AV$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AV$5&gt;=$F20,AV$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="AW20" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",AW$5&gt;=$F20,AW$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AW$5&gt;=$F20,AW$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AX20" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",AX$5&gt;=$F20,AX$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AX$5&gt;=$F20,AX$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AY20" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",AY$5&gt;=$F20,AY$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AY$5&gt;=$F20,AY$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AZ20" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",AZ$5&gt;=$F20,AZ$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AZ$5&gt;=$F20,AZ$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="BA20" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",BA$5&gt;=$F20,BA$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",BA$5&gt;=$F20,BA$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="BB20" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",BB$5&gt;=$F20,BB$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",BB$5&gt;=$F20,BB$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="BC20" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",BC$5&gt;=$F20,BC$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",BC$5&gt;=$F20,BC$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="BD20" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",BD$5&gt;=$F20,BD$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",BD$5&gt;=$F20,BD$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="BE20" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",BE$5&gt;=$F20,BE$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",BE$5&gt;=$F20,BE$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="BF20" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",BF$5&gt;=$F20,BF$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",BF$5&gt;=$F20,BF$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="BG20" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",BG$5&gt;=$F20,BG$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",BG$5&gt;=$F20,BG$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="BH20" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",BH$5&gt;=$F20,BH$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",BH$5&gt;=$F20,BH$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="BI20" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",BI$5&gt;=$F20,BI$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",BI$5&gt;=$F20,BI$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="BJ20" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",BJ$5&gt;=$F20,BJ$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",BJ$5&gt;=$F20,BJ$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="BK20" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",BK$5&gt;=$F20,BK$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",BK$5&gt;=$F20,BK$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="BL20" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",BL$5&gt;=$F20,BL$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",BL$5&gt;=$F20,BL$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
     </row>
@@ -5389,7 +5394,7 @@
         <v>43</v>
       </c>
       <c r="C21" s="34" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D21" s="34" t="s">
         <v>44</v>
@@ -5405,227 +5410,227 @@
       </c>
       <c r="H21" s="26"/>
       <c r="I21" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",I$5&gt;=$F21,I$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",I$5&gt;=$F21,I$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="J21" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",J$5&gt;=$F21,J$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",J$5&gt;=$F21,J$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="K21" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",K$5&gt;=$F21,K$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",K$5&gt;=$F21,K$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="L21" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",L$5&gt;=$F21,L$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",L$5&gt;=$F21,L$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="M21" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",M$5&gt;=$F21,M$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",M$5&gt;=$F21,M$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="N21" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",N$5&gt;=$F21,N$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",N$5&gt;=$F21,N$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="O21" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",O$5&gt;=$F21,O$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",O$5&gt;=$F21,O$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="P21" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",P$5&gt;=$F21,P$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",P$5&gt;=$F21,P$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="Q21" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",Q$5&gt;=$F21,Q$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",Q$5&gt;=$F21,Q$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="R21" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",R$5&gt;=$F21,R$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",R$5&gt;=$F21,R$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="S21" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",S$5&gt;=$F21,S$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",S$5&gt;=$F21,S$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="T21" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",T$5&gt;=$F21,T$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",T$5&gt;=$F21,T$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="U21" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",U$5&gt;=$F21,U$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",U$5&gt;=$F21,U$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="V21" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",V$5&gt;=$F21,V$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",V$5&gt;=$F21,V$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="W21" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",W$5&gt;=$F21,W$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",W$5&gt;=$F21,W$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="X21" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",X$5&gt;=$F21,X$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",X$5&gt;=$F21,X$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="Y21" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",Y$5&gt;=$F21,Y$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",Y$5&gt;=$F21,Y$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="Z21" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",Z$5&gt;=$F21,Z$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",Z$5&gt;=$F21,Z$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AA21" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",AA$5&gt;=$F21,AA$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AA$5&gt;=$F21,AA$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AB21" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",AB$5&gt;=$F21,AB$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AB$5&gt;=$F21,AB$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AC21" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",AC$5&gt;=$F21,AC$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AC$5&gt;=$F21,AC$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AD21" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",AD$5&gt;=$F21,AD$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AD$5&gt;=$F21,AD$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AE21" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",AE$5&gt;=$F21,AE$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AE$5&gt;=$F21,AE$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AF21" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",AF$5&gt;=$F21,AF$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AF$5&gt;=$F21,AF$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AG21" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",AG$5&gt;=$F21,AG$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AG$5&gt;=$F21,AG$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AH21" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",AH$5&gt;=$F21,AH$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AH$5&gt;=$F21,AH$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AI21" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",AI$5&gt;=$F21,AI$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AI$5&gt;=$F21,AI$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AJ21" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",AJ$5&gt;=$F21,AJ$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AJ$5&gt;=$F21,AJ$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AK21" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",AK$5&gt;=$F21,AK$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AK$5&gt;=$F21,AK$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AL21" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",AL$5&gt;=$F21,AL$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AL$5&gt;=$F21,AL$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AM21" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",AM$5&gt;=$F21,AM$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AM$5&gt;=$F21,AM$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="AN21" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",AN$5&gt;=$F21,AN$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AN$5&gt;=$F21,AN$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="AO21" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",AO$5&gt;=$F21,AO$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AO$5&gt;=$F21,AO$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="AP21" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",AP$5&gt;=$F21,AP$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AP$5&gt;=$F21,AP$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="AQ21" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",AQ$5&gt;=$F21,AQ$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AQ$5&gt;=$F21,AQ$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="AR21" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",AR$5&gt;=$F21,AR$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AR$5&gt;=$F21,AR$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="AS21" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",AS$5&gt;=$F21,AS$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AS$5&gt;=$F21,AS$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="AT21" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",AT$5&gt;=$F21,AT$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AT$5&gt;=$F21,AT$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="AU21" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",AU$5&gt;=$F21,AU$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AU$5&gt;=$F21,AU$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="AV21" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",AV$5&gt;=$F21,AV$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AV$5&gt;=$F21,AV$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="AW21" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",AW$5&gt;=$F21,AW$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AW$5&gt;=$F21,AW$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AX21" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",AX$5&gt;=$F21,AX$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AX$5&gt;=$F21,AX$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AY21" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",AY$5&gt;=$F21,AY$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AY$5&gt;=$F21,AY$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AZ21" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",AZ$5&gt;=$F21,AZ$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AZ$5&gt;=$F21,AZ$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="BA21" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",BA$5&gt;=$F21,BA$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",BA$5&gt;=$F21,BA$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="BB21" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",BB$5&gt;=$F21,BB$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",BB$5&gt;=$F21,BB$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="BC21" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",BC$5&gt;=$F21,BC$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",BC$5&gt;=$F21,BC$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="BD21" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",BD$5&gt;=$F21,BD$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",BD$5&gt;=$F21,BD$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="BE21" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",BE$5&gt;=$F21,BE$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",BE$5&gt;=$F21,BE$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="BF21" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",BF$5&gt;=$F21,BF$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",BF$5&gt;=$F21,BF$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="BG21" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",BG$5&gt;=$F21,BG$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",BG$5&gt;=$F21,BG$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="BH21" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",BH$5&gt;=$F21,BH$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",BH$5&gt;=$F21,BH$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="BI21" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",BI$5&gt;=$F21,BI$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",BI$5&gt;=$F21,BI$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="BJ21" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",BJ$5&gt;=$F21,BJ$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",BJ$5&gt;=$F21,BJ$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="BK21" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",BK$5&gt;=$F21,BK$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",BK$5&gt;=$F21,BK$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="BL21" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",BL$5&gt;=$F21,BL$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",BL$5&gt;=$F21,BL$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
     </row>
@@ -5639,227 +5644,227 @@
       <c r="G22" s="33"/>
       <c r="H22" s="26"/>
       <c r="I22" s="38" t="str">
-        <f t="shared" ref="I22:X30" ca="1" si="14">IF(AND($C22="Goal",I$5&gt;=$F22,I$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",I$5&gt;=$F22,I$5&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ref="I22:X22" ca="1" si="20">IF(AND($C22="Goal",I$5&gt;=$F22,I$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",I$5&gt;=$F22,I$5&lt;=$F22+$G22-1),1,""))</f>
         <v/>
       </c>
       <c r="J22" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="K22" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="L22" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="M22" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="N22" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="O22" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="P22" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="Q22" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="R22" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="S22" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="T22" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="U22" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="V22" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="W22" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="X22" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="Y22" s="38" t="str">
-        <f t="shared" ref="Y22:AN28" ca="1" si="15">IF(AND($C22="Goal",Y$5&gt;=$F22,Y$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",Y$5&gt;=$F22,Y$5&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ref="Y22:AN28" ca="1" si="21">IF(AND($C22="Goal",Y$5&gt;=$F22,Y$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",Y$5&gt;=$F22,Y$5&lt;=$F22+$G22-1),1,""))</f>
         <v/>
       </c>
       <c r="Z22" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AA22" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AB22" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AC22" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AD22" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AE22" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AF22" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AG22" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AH22" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AI22" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AJ22" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AK22" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AL22" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AM22" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AN22" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AO22" s="38" t="str">
-        <f t="shared" ref="AO22:BE28" ca="1" si="16">IF(AND($C22="Goal",AO$5&gt;=$F22,AO$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",AO$5&gt;=$F22,AO$5&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ref="AO22:BC28" ca="1" si="22">IF(AND($C22="Goal",AO$5&gt;=$F22,AO$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",AO$5&gt;=$F22,AO$5&lt;=$F22+$G22-1),1,""))</f>
         <v/>
       </c>
       <c r="AP22" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AQ22" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AR22" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AS22" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AT22" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AU22" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AV22" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AW22" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AX22" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AY22" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AZ22" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="BA22" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="BB22" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="BC22" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="BD22" s="38" t="str">
-        <f t="shared" ref="BB22:BL33" ca="1" si="17">IF(AND($C22="Goal",BD$5&gt;=$F22,BD$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",BD$5&gt;=$F22,BD$5&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ref="BD22:BL33" ca="1" si="23">IF(AND($C22="Goal",BD$5&gt;=$F22,BD$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",BD$5&gt;=$F22,BD$5&lt;=$F22+$G22-1),1,""))</f>
         <v/>
       </c>
       <c r="BE22" s="38" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="BF22" s="38" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="BG22" s="38" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="BH22" s="38" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="BI22" s="38" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="BJ22" s="38" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="BK22" s="38" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="BL22" s="38" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
     </row>
@@ -5875,227 +5880,227 @@
       <c r="G23" s="33"/>
       <c r="H23" s="26"/>
       <c r="I23" s="38" t="str">
-        <f t="shared" ref="I23:BA31" ca="1" si="18">IF(AND($C23="Goal",I$5&gt;=$F23,I$5&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",I$5&gt;=$F23,I$5&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ref="I23:X26" ca="1" si="24">IF(AND($C23="Goal",I$5&gt;=$F23,I$5&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",I$5&gt;=$F23,I$5&lt;=$F23+$G23-1),1,""))</f>
         <v/>
       </c>
       <c r="J23" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="K23" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="L23" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="M23" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="N23" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="O23" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="P23" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="Q23" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="R23" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="S23" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="T23" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="U23" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="V23" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="W23" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="X23" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="Y23" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="Z23" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AA23" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AB23" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AC23" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AD23" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AE23" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AF23" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AG23" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AH23" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AI23" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AJ23" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AK23" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AL23" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AM23" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AN23" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AO23" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AP23" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AQ23" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AR23" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AS23" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AT23" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AU23" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AV23" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AW23" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AX23" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AY23" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AZ23" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="BA23" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="BB23" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="BC23" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="BD23" s="38" t="str">
-        <f t="shared" ref="BD23:BL31" ca="1" si="19">IF(AND($C23="Goal",BD$5&gt;=$F23,BD$5&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",BD$5&gt;=$F23,BD$5&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ref="BD23:BL28" ca="1" si="25">IF(AND($C23="Goal",BD$5&gt;=$F23,BD$5&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",BD$5&gt;=$F23,BD$5&lt;=$F23+$G23-1),1,""))</f>
         <v/>
       </c>
       <c r="BE23" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="BF23" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="BG23" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="BH23" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="BI23" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="BJ23" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="BK23" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="BL23" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
     </row>
@@ -6105,13 +6110,13 @@
         <v>46</v>
       </c>
       <c r="C24" s="34" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D24" s="34" t="s">
         <v>49</v>
       </c>
       <c r="E24" s="31">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="F24" s="32">
         <v>43962</v>
@@ -6121,227 +6126,227 @@
       </c>
       <c r="H24" s="26"/>
       <c r="I24" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="J24" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="K24" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="L24" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="M24" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="N24" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="O24" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="P24" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="Q24" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="R24" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="S24" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="T24" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="U24" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="V24" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="W24" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="X24" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="Y24" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="Z24" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AA24" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AB24" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AC24" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AD24" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AE24" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AF24" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AG24" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AH24" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AI24" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AJ24" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AK24" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AL24" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AM24" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AN24" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AO24" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AP24" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AQ24" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AR24" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AS24" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AT24" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AU24" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AV24" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AW24" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AX24" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AY24" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AZ24" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="BA24" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="BB24" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="BC24" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="BD24" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="BE24" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="BF24" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="BG24" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="BH24" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="BI24" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="BJ24" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="BK24" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="BL24" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
     </row>
@@ -6357,7 +6362,7 @@
         <v>49</v>
       </c>
       <c r="E25" s="31">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="F25" s="32">
         <v>43962</v>
@@ -6367,227 +6372,227 @@
       </c>
       <c r="H25" s="26"/>
       <c r="I25" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="J25" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="K25" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="L25" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="M25" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="N25" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="O25" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="P25" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="Q25" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="R25" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="S25" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="T25" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="U25" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="V25" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="W25" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="X25" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="Y25" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="Z25" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AA25" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AB25" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AC25" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AD25" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AE25" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AF25" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AG25" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AH25" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AI25" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AJ25" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AK25" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AL25" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AM25" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AN25" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AO25" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AP25" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AQ25" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AR25" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AS25" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AT25" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AU25" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AV25" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AW25" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AX25" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AY25" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AZ25" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="BA25" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="BB25" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="BC25" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="BD25" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="BE25" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="BF25" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="BG25" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="BH25" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="BI25" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="BJ25" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="BK25" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="BL25" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
     </row>
@@ -6597,13 +6602,13 @@
         <v>48</v>
       </c>
       <c r="C26" s="34" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D26" s="34" t="s">
         <v>34</v>
       </c>
       <c r="E26" s="31">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="F26" s="32">
         <v>43962</v>
@@ -6613,227 +6618,227 @@
       </c>
       <c r="H26" s="26"/>
       <c r="I26" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="J26" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="K26" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="L26" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="M26" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="N26" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="O26" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="P26" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="Q26" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="R26" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="S26" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="T26" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="U26" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="V26" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="W26" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="X26" s="38" t="str">
-        <f t="shared" ref="X25:AM27" ca="1" si="20">IF(AND($C26="Goal",X$5&gt;=$F26,X$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",X$5&gt;=$F26,X$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ref="X26" ca="1" si="26">IF(AND($C26="Goal",X$5&gt;=$F26,X$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",X$5&gt;=$F26,X$5&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
       <c r="Y26" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="Z26" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AA26" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AB26" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AC26" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AD26" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AE26" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AF26" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AG26" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AH26" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AI26" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AJ26" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AK26" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AL26" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AM26" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AN26" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AO26" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AP26" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AQ26" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AR26" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AS26" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AT26" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AU26" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AV26" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AW26" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AX26" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AY26" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AZ26" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="BA26" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="BB26" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="BC26" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="BD26" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="BE26" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="BF26" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="BG26" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="BH26" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="BI26" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="BJ26" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="BK26" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="BL26" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
     </row>
@@ -6859,227 +6864,227 @@
       </c>
       <c r="H27" s="26"/>
       <c r="I27" s="38" t="str">
-        <f t="shared" ref="I26:X28" ca="1" si="21">IF(AND($C27="Goal",I$5&gt;=$F27,I$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",I$5&gt;=$F27,I$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ref="I27:X28" ca="1" si="27">IF(AND($C27="Goal",I$5&gt;=$F27,I$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",I$5&gt;=$F27,I$5&lt;=$F27+$G27-1),1,""))</f>
         <v/>
       </c>
       <c r="J27" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="K27" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="L27" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="M27" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="N27" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="O27" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="P27" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="Q27" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="R27" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="S27" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="T27" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="U27" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="V27" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="W27" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="X27" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="Y27" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="Z27" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AA27" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AB27" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AC27" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AD27" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AE27" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AF27" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AG27" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AH27" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AI27" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AJ27" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AK27" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AL27" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AM27" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AN27" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AO27" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AP27" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AQ27" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AR27" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AS27" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AT27" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AU27" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AV27" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AW27" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AX27" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AY27" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AZ27" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="BA27" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="BB27" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="BC27" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="BD27" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="BE27" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="BF27" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="BG27" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="BH27" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="BI27" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="BJ27" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="BK27" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="BL27" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
     </row>
@@ -7089,11 +7094,13 @@
         <v>51</v>
       </c>
       <c r="C28" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" s="34"/>
+        <v>10</v>
+      </c>
+      <c r="D28" s="34" t="s">
+        <v>56</v>
+      </c>
       <c r="E28" s="31">
-        <v>0.4</v>
+        <v>0.85</v>
       </c>
       <c r="F28" s="32">
         <v>43962</v>
@@ -7103,227 +7110,227 @@
       </c>
       <c r="H28" s="26"/>
       <c r="I28" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="J28" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="K28" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="L28" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="M28" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="N28" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="O28" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="P28" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="Q28" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="R28" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="S28" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="T28" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="U28" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="V28" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="W28" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="X28" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="Y28" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="Z28" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AA28" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AB28" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AC28" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AD28" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AE28" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AF28" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AG28" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AH28" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AI28" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AJ28" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AK28" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AL28" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AM28" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AN28" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AO28" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AP28" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AQ28" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AR28" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AS28" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AT28" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AU28" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AV28" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AW28" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AX28" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AY28" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AZ28" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="BA28" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="BB28" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="BC28" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="BD28" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="BE28" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="BF28" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="BG28" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="BH28" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="BI28" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="BJ28" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="BK28" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="BL28" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
     </row>
@@ -7603,227 +7610,227 @@
       <c r="G33" s="33"/>
       <c r="H33" s="26"/>
       <c r="I33" s="38" t="str">
-        <f t="shared" ref="I27:X33" ca="1" si="22">IF(AND($C33="Goal",I$5&gt;=$F33,I$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",I$5&gt;=$F33,I$5&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ref="I33:X33" ca="1" si="28">IF(AND($C33="Goal",I$5&gt;=$F33,I$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",I$5&gt;=$F33,I$5&lt;=$F33+$G33-1),1,""))</f>
         <v/>
       </c>
       <c r="J33" s="38" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="K33" s="38" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="L33" s="38" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="M33" s="38" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="N33" s="38" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="O33" s="38" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="P33" s="38" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="Q33" s="38" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="R33" s="38" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="S33" s="38" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="T33" s="38" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="U33" s="38" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="V33" s="38" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="W33" s="38" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="X33" s="38" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="Y33" s="38" t="str">
-        <f t="shared" ref="Y24:AM33" ca="1" si="23">IF(AND($C33="Goal",Y$5&gt;=$F33,Y$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",Y$5&gt;=$F33,Y$5&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ref="Y33:AM33" ca="1" si="29">IF(AND($C33="Goal",Y$5&gt;=$F33,Y$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",Y$5&gt;=$F33,Y$5&lt;=$F33+$G33-1),1,""))</f>
         <v/>
       </c>
       <c r="Z33" s="38" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AA33" s="38" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AB33" s="38" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AC33" s="38" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AD33" s="38" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AE33" s="38" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AF33" s="38" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AG33" s="38" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AH33" s="38" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AI33" s="38" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AJ33" s="38" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AK33" s="38" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AL33" s="38" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AM33" s="38" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AN33" s="38" t="str">
+        <f t="shared" ref="AN33:BC33" ca="1" si="30">IF(AND($C33="Goal",AN$5&gt;=$F33,AN$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AN$5&gt;=$F33,AN$5&lt;=$F33+$G33-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AO33" s="38" t="str">
+        <f t="shared" ca="1" si="30"/>
+        <v/>
+      </c>
+      <c r="AP33" s="38" t="str">
+        <f t="shared" ca="1" si="30"/>
+        <v/>
+      </c>
+      <c r="AQ33" s="38" t="str">
+        <f t="shared" ca="1" si="30"/>
+        <v/>
+      </c>
+      <c r="AR33" s="38" t="str">
+        <f t="shared" ca="1" si="30"/>
+        <v/>
+      </c>
+      <c r="AS33" s="38" t="str">
+        <f t="shared" ca="1" si="30"/>
+        <v/>
+      </c>
+      <c r="AT33" s="38" t="str">
+        <f t="shared" ca="1" si="30"/>
+        <v/>
+      </c>
+      <c r="AU33" s="38" t="str">
+        <f t="shared" ca="1" si="30"/>
+        <v/>
+      </c>
+      <c r="AV33" s="38" t="str">
+        <f t="shared" ca="1" si="30"/>
+        <v/>
+      </c>
+      <c r="AW33" s="38" t="str">
+        <f t="shared" ca="1" si="30"/>
+        <v/>
+      </c>
+      <c r="AX33" s="38" t="str">
+        <f t="shared" ca="1" si="30"/>
+        <v/>
+      </c>
+      <c r="AY33" s="38" t="str">
+        <f t="shared" ca="1" si="30"/>
+        <v/>
+      </c>
+      <c r="AZ33" s="38" t="str">
+        <f t="shared" ca="1" si="30"/>
+        <v/>
+      </c>
+      <c r="BA33" s="38" t="str">
+        <f t="shared" ca="1" si="30"/>
+        <v/>
+      </c>
+      <c r="BB33" s="38" t="str">
+        <f t="shared" ca="1" si="30"/>
+        <v/>
+      </c>
+      <c r="BC33" s="38" t="str">
+        <f t="shared" ca="1" si="30"/>
+        <v/>
+      </c>
+      <c r="BD33" s="38" t="str">
         <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
-      <c r="AA33" s="38" t="str">
+      <c r="BE33" s="38" t="str">
         <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
-      <c r="AB33" s="38" t="str">
+      <c r="BF33" s="38" t="str">
         <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
-      <c r="AC33" s="38" t="str">
+      <c r="BG33" s="38" t="str">
         <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
-      <c r="AD33" s="38" t="str">
+      <c r="BH33" s="38" t="str">
         <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
-      <c r="AE33" s="38" t="str">
+      <c r="BI33" s="38" t="str">
         <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
-      <c r="AF33" s="38" t="str">
+      <c r="BJ33" s="38" t="str">
         <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
-      <c r="AG33" s="38" t="str">
+      <c r="BK33" s="38" t="str">
         <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
-      <c r="AH33" s="38" t="str">
+      <c r="BL33" s="38" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v/>
-      </c>
-      <c r="AI33" s="38" t="str">
-        <f t="shared" ca="1" si="23"/>
-        <v/>
-      </c>
-      <c r="AJ33" s="38" t="str">
-        <f t="shared" ca="1" si="23"/>
-        <v/>
-      </c>
-      <c r="AK33" s="38" t="str">
-        <f t="shared" ca="1" si="23"/>
-        <v/>
-      </c>
-      <c r="AL33" s="38" t="str">
-        <f t="shared" ca="1" si="23"/>
-        <v/>
-      </c>
-      <c r="AM33" s="38" t="str">
-        <f t="shared" ca="1" si="23"/>
-        <v/>
-      </c>
-      <c r="AN33" s="38" t="str">
-        <f t="shared" ref="AN24:BC33" ca="1" si="24">IF(AND($C33="Goal",AN$5&gt;=$F33,AN$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AN$5&gt;=$F33,AN$5&lt;=$F33+$G33-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AO33" s="38" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v/>
-      </c>
-      <c r="AP33" s="38" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v/>
-      </c>
-      <c r="AQ33" s="38" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v/>
-      </c>
-      <c r="AR33" s="38" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v/>
-      </c>
-      <c r="AS33" s="38" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v/>
-      </c>
-      <c r="AT33" s="38" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v/>
-      </c>
-      <c r="AU33" s="38" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v/>
-      </c>
-      <c r="AV33" s="38" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v/>
-      </c>
-      <c r="AW33" s="38" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v/>
-      </c>
-      <c r="AX33" s="38" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v/>
-      </c>
-      <c r="AY33" s="38" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v/>
-      </c>
-      <c r="AZ33" s="38" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v/>
-      </c>
-      <c r="BA33" s="38" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v/>
-      </c>
-      <c r="BB33" s="38" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v/>
-      </c>
-      <c r="BC33" s="38" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v/>
-      </c>
-      <c r="BD33" s="38" t="str">
-        <f t="shared" ca="1" si="17"/>
-        <v/>
-      </c>
-      <c r="BE33" s="38" t="str">
-        <f t="shared" ca="1" si="17"/>
-        <v/>
-      </c>
-      <c r="BF33" s="38" t="str">
-        <f t="shared" ca="1" si="17"/>
-        <v/>
-      </c>
-      <c r="BG33" s="38" t="str">
-        <f t="shared" ca="1" si="17"/>
-        <v/>
-      </c>
-      <c r="BH33" s="38" t="str">
-        <f t="shared" ca="1" si="17"/>
-        <v/>
-      </c>
-      <c r="BI33" s="38" t="str">
-        <f t="shared" ca="1" si="17"/>
-        <v/>
-      </c>
-      <c r="BJ33" s="38" t="str">
-        <f t="shared" ca="1" si="17"/>
-        <v/>
-      </c>
-      <c r="BK33" s="38" t="str">
-        <f t="shared" ca="1" si="17"/>
-        <v/>
-      </c>
-      <c r="BL33" s="38" t="str">
-        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
     </row>
@@ -7932,56 +7939,56 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5:BL17 I19:BL34">
-    <cfRule type="expression" dxfId="5" priority="10">
+    <cfRule type="expression" dxfId="22" priority="10">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:AM4">
-    <cfRule type="expression" dxfId="19" priority="16">
+    <cfRule type="expression" dxfId="21" priority="16">
       <formula>I$5&lt;=EOMONTH($I$5,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:BL4">
-    <cfRule type="expression" dxfId="18" priority="12">
+    <cfRule type="expression" dxfId="20" priority="12">
       <formula>AND(J$5&lt;=EOMONTH($I$5,2),J$5&gt;EOMONTH($I$5,0),J$5&gt;EOMONTH($I$5,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:BL4">
-    <cfRule type="expression" dxfId="17" priority="11">
+    <cfRule type="expression" dxfId="19" priority="11">
       <formula>AND(I$5&lt;=EOMONTH($I$5,1),I$5&gt;EOMONTH($I$5,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8:BL17 I19:BL33">
-    <cfRule type="expression" dxfId="4" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="33" stopIfTrue="1">
       <formula>AND($C8="Low Risk",I$5&gt;=$F8,I$5&lt;=$F8+$G8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="52" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="52" stopIfTrue="1">
       <formula>AND($C8="High Risk",I$5&gt;=$F8,I$5&lt;=$F8+$G8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="70" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="70" stopIfTrue="1">
       <formula>AND($C8="On Track",I$5&gt;=$F8,I$5&lt;=$F8+$G8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="71" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="71" stopIfTrue="1">
       <formula>AND($C8="Med Risk",I$5&gt;=$F8,I$5&lt;=$F8+$G8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="72" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="72" stopIfTrue="1">
       <formula>AND(LEN($C8)=0,I$5&gt;=$F8,I$5&lt;=$F8+$G8-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I34:BL34">
-    <cfRule type="expression" dxfId="16" priority="80" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="80" stopIfTrue="1">
       <formula>AND(#REF!="Low Risk",I$5&gt;=#REF!,I$5&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="81" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="81" stopIfTrue="1">
       <formula>AND(#REF!="High Risk",I$5&gt;=#REF!,I$5&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="82" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="82" stopIfTrue="1">
       <formula>AND(#REF!="On Track",I$5&gt;=#REF!,I$5&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="83" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="83" stopIfTrue="1">
       <formula>AND(#REF!="Med Risk",I$5&gt;=#REF!,I$5&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="84" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="84" stopIfTrue="1">
       <formula>AND(LEN(#REF!)=0,I$5&gt;=#REF!,I$5&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8014,24 +8021,24 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I17:BL20">
-    <cfRule type="expression" dxfId="11" priority="1">
+    <cfRule type="expression" dxfId="8" priority="1">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I17:BL20">
-    <cfRule type="expression" dxfId="10" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="4" stopIfTrue="1">
       <formula>AND($C17="Low Risk",I$5&gt;=$F17,I$5&lt;=$F17+$G17-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="5" stopIfTrue="1">
       <formula>AND($C17="High Risk",I$5&gt;=$F17,I$5&lt;=$F17+$G17-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="6" stopIfTrue="1">
       <formula>AND($C17="On Track",I$5&gt;=$F17,I$5&lt;=$F17+$G17-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="7" stopIfTrue="1">
       <formula>AND($C17="Med Risk",I$5&gt;=$F17,I$5&lt;=$F17+$G17-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="8" stopIfTrue="1">
       <formula>AND(LEN($C17)=0,I$5&gt;=$F17,I$5&lt;=$F17+$G17-1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8104,6 +8111,36 @@
           <xm:sqref>E7:E12 E14:E17 E19:E33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{0B5D5A99-1751-4446-B5AA-2E3FB09EE240}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E13</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{FFF435D4-D151-44AF-AB89-2D91D437542C}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E17:E20</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="18" id="{628A03C6-EE71-4B44-A6BA-69DC45906EA6}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
@@ -8140,36 +8177,6 @@
             </x14:iconSet>
           </x14:cfRule>
           <xm:sqref>I34:BL34</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{0B5D5A99-1751-4446-B5AA-2E3FB09EE240}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E13</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{FFF435D4-D151-44AF-AB89-2D91D437542C}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E17:E20</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="3" id="{163926B5-BB45-4DD9-A8F8-2E4A4786F05F}">

--- a/Group Nine Gantt.xlsx
+++ b/Group Nine Gantt.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="43" documentId="8_{19ACA758-D7B1-4F98-AB87-3986D6EA366C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0BACE980-BCC8-42F6-BCAA-DDC635914C55}"/>
+  <xr:revisionPtr revIDLastSave="61" documentId="8_{19ACA758-D7B1-4F98-AB87-3986D6EA366C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{5BD27A77-57FB-49BF-9B4C-7BB4CC699B58}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="13096" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="58">
   <si>
     <t>About This Template</t>
   </si>
@@ -228,6 +228,9 @@
   </si>
   <si>
     <t>Alan/Quynh</t>
+  </si>
+  <si>
+    <t>Jared</t>
   </si>
 </sst>
 </file>
@@ -1830,8 +1833,8 @@
   </sheetPr>
   <dimension ref="A1:BL36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A7" zoomScale="69" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="40" zoomScaleNormal="40" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="BW18" sqref="BW18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -3150,11 +3153,13 @@
         <v>35</v>
       </c>
       <c r="C11" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="34"/>
+        <v>12</v>
+      </c>
+      <c r="D11" s="34" t="s">
+        <v>34</v>
+      </c>
       <c r="E11" s="31">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="F11" s="32">
         <v>43981</v>
@@ -3640,11 +3645,13 @@
         <v>53</v>
       </c>
       <c r="C13" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="34"/>
+        <v>12</v>
+      </c>
+      <c r="D13" s="34" t="s">
+        <v>57</v>
+      </c>
       <c r="E13" s="31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" s="32">
         <v>43962</v>
@@ -4354,13 +4361,13 @@
         <v>38</v>
       </c>
       <c r="C16" s="34" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D16" s="34" t="s">
         <v>40</v>
       </c>
       <c r="E16" s="31">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="F16" s="32">
         <v>43962</v>
@@ -4600,13 +4607,13 @@
         <v>39</v>
       </c>
       <c r="C17" s="34" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="34" t="s">
         <v>40</v>
       </c>
       <c r="E17" s="31">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="F17" s="32">
         <v>43962</v>
@@ -6356,13 +6363,13 @@
         <v>47</v>
       </c>
       <c r="C25" s="34" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D25" s="34" t="s">
         <v>49</v>
       </c>
       <c r="E25" s="31">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="F25" s="32">
         <v>43962</v>
@@ -6602,13 +6609,13 @@
         <v>48</v>
       </c>
       <c r="C26" s="34" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D26" s="34" t="s">
         <v>34</v>
       </c>
       <c r="E26" s="31">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="F26" s="32">
         <v>43962</v>
@@ -6848,13 +6855,13 @@
         <v>55</v>
       </c>
       <c r="C27" s="34" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D27" s="34" t="s">
         <v>49</v>
       </c>
       <c r="E27" s="31">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="F27" s="32">
         <v>43962</v>
@@ -7094,13 +7101,13 @@
         <v>51</v>
       </c>
       <c r="C28" s="34" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D28" s="34" t="s">
         <v>56</v>
       </c>
       <c r="E28" s="31">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="F28" s="32">
         <v>43962</v>
